--- a/ExamplePolicyPricing.xlsx
+++ b/ExamplePolicyPricing.xlsx
@@ -57,33 +57,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
-  <si>
-    <t>Insurance Types</t>
-  </si>
-  <si>
-    <t>Pricing Brackets</t>
-  </si>
-  <si>
-    <t>Location risk</t>
-  </si>
-  <si>
-    <t>COMPREHENSIVE</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>FIRE_THEFT</t>
-  </si>
-  <si>
-    <t>MED</t>
-  </si>
-  <si>
-    <t>THIRD_PARTY</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
   <si>
     <t>RuleSet</t>
   </si>
@@ -157,7 +130,34 @@
     <t>18, 24</t>
   </si>
   <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>COMPREHENSIVE</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>FIRE_THEFT</t>
+  </si>
+  <si>
     <t>Priors not relevant</t>
+  </si>
+  <si>
+    <t>Insurance Types</t>
+  </si>
+  <si>
+    <t>Pricing Brackets</t>
+  </si>
+  <si>
+    <t>Location risk</t>
+  </si>
+  <si>
+    <t>THIRD_PARTY</t>
+  </si>
+  <si>
+    <t>HIGH</t>
   </si>
   <si>
     <t>Safe driver discount</t>
@@ -215,11 +215,6 @@
     </font>
     <font>
       <b/>
-      <sz val="7.0"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -236,6 +231,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <sz val="7.0"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -284,20 +284,6 @@
   <borders count="23">
     <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -337,6 +323,20 @@
       </left>
       <right/>
       <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -487,40 +487,37 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -529,24 +526,24 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -555,78 +552,81 @@
     <xf borderId="12" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,7 +674,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -697,18 +697,18 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="7"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -727,21 +727,21 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -764,7 +764,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -787,19 +787,19 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
-        <v>13</v>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -817,24 +817,24 @@
     </row>
     <row r="6" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
-        <v>14</v>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
+        <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
+      <c r="D6" s="17" t="s">
+        <v>5</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
+      <c r="E6" s="17" t="s">
+        <v>5</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
+      <c r="F6" s="17" t="s">
+        <v>5</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>15</v>
+      <c r="G6" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>15</v>
+      <c r="H6" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -857,17 +857,17 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="19" t="s">
-        <v>16</v>
+      <c r="B7" s="15"/>
+      <c r="C7" s="18" t="s">
+        <v>7</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18" t="s">
-        <v>17</v>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17" t="s">
+        <v>8</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -888,67 +888,67 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+    </row>
+    <row r="9" ht="28.5" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="F9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="G9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="H9" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-    </row>
-    <row r="9" ht="28.5" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -971,25 +971,25 @@
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="29" t="s">
-        <v>31</v>
+      <c r="B10" s="28" t="s">
+        <v>22</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>32</v>
+      <c r="C10" s="29" t="s">
+        <v>23</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>4</v>
+      <c r="D10" s="30" t="s">
+        <v>24</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>1.0</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>3</v>
+      <c r="F10" s="30" t="s">
+        <v>25</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <v>450.0</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1011,19 +1011,19 @@
     </row>
     <row r="11" ht="46.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
-      <c r="D11" s="35" t="s">
-        <v>6</v>
+      <c r="B11" s="33"/>
+      <c r="D11" s="34" t="s">
+        <v>26</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="s">
-        <v>5</v>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>27</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>200.0</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>33</v>
+      <c r="H11" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1046,20 +1046,20 @@
     </row>
     <row r="12" ht="46.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
-      <c r="D12" s="35" t="s">
-        <v>6</v>
+      <c r="B12" s="33"/>
+      <c r="D12" s="34" t="s">
+        <v>26</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>0.0</v>
       </c>
-      <c r="F12" s="35" t="s">
-        <v>3</v>
+      <c r="F12" s="34" t="s">
+        <v>25</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>300.0</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1081,18 +1081,18 @@
     </row>
     <row r="13" ht="46.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="34"/>
-      <c r="D13" s="35" t="s">
-        <v>4</v>
+      <c r="B13" s="33"/>
+      <c r="D13" s="34" t="s">
+        <v>24</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35" t="s">
-        <v>5</v>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>27</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>150.0</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1116,15 +1116,15 @@
       <c r="A14" s="1"/>
       <c r="B14" s="38"/>
       <c r="D14" s="39" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E14" s="39">
         <v>0.0</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <v>150.0</v>
       </c>
       <c r="H14" s="40" t="s">
@@ -1151,22 +1151,22 @@
     </row>
     <row r="15" ht="46.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E15" s="41">
         <v>1.0</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="31">
         <v>700.0</v>
       </c>
       <c r="H15" s="42"/>
@@ -1191,24 +1191,24 @@
     </row>
     <row r="16" ht="36.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>8</v>
+      <c r="D16" s="34" t="s">
+        <v>33</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>0.0</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>3</v>
+      <c r="F16" s="34" t="s">
+        <v>25</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>700.0</v>
       </c>
-      <c r="H16" s="37" t="s">
-        <v>2</v>
+      <c r="H16" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -1236,17 +1236,17 @@
         <v>36</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="39" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G17" s="47">
         <v>550.0</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="18" ht="33.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="41"/>
@@ -1280,9 +1280,9 @@
         <v>0.0</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <v>120.0</v>
       </c>
       <c r="H18" s="42" t="s">
@@ -1309,18 +1309,18 @@
     </row>
     <row r="19" ht="29.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34">
         <v>1.0</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>3</v>
+      <c r="F19" s="34" t="s">
+        <v>25</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>300.0</v>
       </c>
       <c r="H19" s="48"/>
@@ -1345,18 +1345,18 @@
     </row>
     <row r="20" ht="39.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34">
         <v>2.0</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>3</v>
+      <c r="F20" s="34" t="s">
+        <v>25</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>590.0</v>
       </c>
       <c r="H20" s="48"/>
@@ -1390,7 +1390,7 @@
         <v>3.0</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G21" s="47">
         <v>800.0</v>
@@ -1424,7 +1424,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="25" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1533,18 +1533,18 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
-        <v>14</v>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16" t="s">
+        <v>5</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>14</v>
+      <c r="D26" s="17" t="s">
+        <v>5</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
+      <c r="E26" s="17" t="s">
+        <v>5</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>15</v>
+      <c r="F26" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1569,15 +1569,15 @@
     </row>
     <row r="27" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="19" t="s">
-        <v>16</v>
+      <c r="B27" s="15"/>
+      <c r="C27" s="18" t="s">
+        <v>7</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="18" t="s">
-        <v>17</v>
+      <c r="D27" s="20"/>
+      <c r="E27" s="17" t="s">
+        <v>8</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1601,17 +1601,17 @@
     </row>
     <row r="28" ht="30.0" customHeight="1" outlineLevel="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
-        <v>18</v>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23" t="s">
+        <v>9</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>20</v>
+      <c r="D28" s="24" t="s">
+        <v>11</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>21</v>
+      <c r="E28" s="24" t="s">
+        <v>12</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="1"/>
@@ -1637,19 +1637,19 @@
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>25</v>
+      <c r="C29" s="26" t="s">
+        <v>16</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>27</v>
+      <c r="D29" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>28</v>
+      <c r="E29" s="26" t="s">
+        <v>19</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="1"/>
@@ -1675,17 +1675,17 @@
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>0.0</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>3</v>
+      <c r="E30" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="F30" s="49">
         <v>1.0</v>
@@ -1713,15 +1713,15 @@
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="34"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="34">
         <v>0.0</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>5</v>
+      <c r="E31" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="F31" s="50">
         <v>2.0</v>
@@ -1749,15 +1749,15 @@
     </row>
     <row r="32" ht="20.25" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="34"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="34">
         <v>1.0</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>3</v>
+      <c r="E32" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="F32" s="50">
         <v>5.0</v>
@@ -1785,15 +1785,15 @@
     </row>
     <row r="33" ht="24.0" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="34">
         <v>2.0</v>
       </c>
-      <c r="E33" s="35" t="s">
-        <v>3</v>
+      <c r="E33" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="F33" s="50">
         <v>1.0</v>
@@ -1829,7 +1829,7 @@
         <v>0.0</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F34" s="51">
         <v>20.0</v>
@@ -1862,7 +1862,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1890,7 +1890,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1918,7 +1918,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1946,7 +1946,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1974,7 +1974,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2002,7 +2002,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2030,7 +2030,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2058,7 +2058,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2086,7 +2086,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="11"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2114,7 +2114,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="11"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2142,7 +2142,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2170,7 +2170,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2198,7 +2198,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2226,7 +2226,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2254,7 +2254,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2282,7 +2282,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2310,7 +2310,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2338,7 +2338,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="11"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2366,7 +2366,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2394,7 +2394,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2422,7 +2422,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2450,7 +2450,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2478,7 +2478,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="11"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2506,7 +2506,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="11"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2534,7 +2534,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="11"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2562,7 +2562,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2590,7 +2590,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2618,7 +2618,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="11"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2646,7 +2646,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="11"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2674,7 +2674,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="11"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2702,7 +2702,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="11"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2730,7 +2730,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="11"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2758,7 +2758,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="11"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2786,7 +2786,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="11"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2814,7 +2814,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="11"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2842,7 +2842,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="11"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2870,7 +2870,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="11"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -2898,7 +2898,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="11"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2926,7 +2926,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="11"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2954,7 +2954,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="11"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2982,7 +2982,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="11"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3010,7 +3010,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="11"/>
+      <c r="G76" s="10"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3038,7 +3038,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="11"/>
+      <c r="G77" s="10"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3066,7 +3066,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="11"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3094,7 +3094,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="11"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3122,7 +3122,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="11"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3150,7 +3150,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="11"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3178,7 +3178,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="11"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3206,7 +3206,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="11"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3234,7 +3234,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="11"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3262,7 +3262,7 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="11"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3290,7 +3290,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="11"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3318,7 +3318,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="11"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3346,7 +3346,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="11"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3374,7 +3374,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="11"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -3402,7 +3402,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="11"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -3430,7 +3430,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="11"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -3458,7 +3458,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="11"/>
+      <c r="G92" s="10"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -3486,7 +3486,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="11"/>
+      <c r="G93" s="10"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -3514,7 +3514,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="11"/>
+      <c r="G94" s="10"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -3542,7 +3542,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="11"/>
+      <c r="G95" s="10"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -3570,7 +3570,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="11"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -3598,7 +3598,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="11"/>
+      <c r="G97" s="10"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -3626,7 +3626,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="11"/>
+      <c r="G98" s="10"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -3654,7 +3654,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="11"/>
+      <c r="G99" s="10"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -3682,7 +3682,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="11"/>
+      <c r="G100" s="10"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -3710,7 +3710,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="11"/>
+      <c r="G101" s="10"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -3738,7 +3738,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="11"/>
+      <c r="G102" s="10"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -3766,7 +3766,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="11"/>
+      <c r="G103" s="10"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -3794,7 +3794,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="11"/>
+      <c r="G104" s="10"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -3822,7 +3822,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="11"/>
+      <c r="G105" s="10"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -3850,7 +3850,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="11"/>
+      <c r="G106" s="10"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -3878,7 +3878,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="11"/>
+      <c r="G107" s="10"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -3906,7 +3906,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="11"/>
+      <c r="G108" s="10"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -3934,7 +3934,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="11"/>
+      <c r="G109" s="10"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -3962,7 +3962,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="11"/>
+      <c r="G110" s="10"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -3990,7 +3990,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="11"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -4018,7 +4018,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="11"/>
+      <c r="G112" s="10"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4046,7 +4046,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="11"/>
+      <c r="G113" s="10"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -4074,7 +4074,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="11"/>
+      <c r="G114" s="10"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -4102,7 +4102,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="11"/>
+      <c r="G115" s="10"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4130,7 +4130,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="11"/>
+      <c r="G116" s="10"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4158,7 +4158,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="11"/>
+      <c r="G117" s="10"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4186,7 +4186,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="11"/>
+      <c r="G118" s="10"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -4214,7 +4214,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="11"/>
+      <c r="G119" s="10"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -4242,7 +4242,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="11"/>
+      <c r="G120" s="10"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -4270,7 +4270,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="11"/>
+      <c r="G121" s="10"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -4298,7 +4298,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="11"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -4326,7 +4326,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="11"/>
+      <c r="G123" s="10"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -4354,7 +4354,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="11"/>
+      <c r="G124" s="10"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -4382,7 +4382,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="11"/>
+      <c r="G125" s="10"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -4410,7 +4410,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="11"/>
+      <c r="G126" s="10"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -4438,7 +4438,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="11"/>
+      <c r="G127" s="10"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -4466,7 +4466,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="11"/>
+      <c r="G128" s="10"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -4494,7 +4494,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="11"/>
+      <c r="G129" s="10"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -4522,7 +4522,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="11"/>
+      <c r="G130" s="10"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -4550,7 +4550,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="11"/>
+      <c r="G131" s="10"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -4578,7 +4578,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="11"/>
+      <c r="G132" s="10"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -4606,7 +4606,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="11"/>
+      <c r="G133" s="10"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -4634,7 +4634,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="11"/>
+      <c r="G134" s="10"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -4662,7 +4662,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="11"/>
+      <c r="G135" s="10"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4690,7 +4690,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="11"/>
+      <c r="G136" s="10"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -4718,7 +4718,7 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="11"/>
+      <c r="G137" s="10"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -4746,7 +4746,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="11"/>
+      <c r="G138" s="10"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -4774,7 +4774,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="11"/>
+      <c r="G139" s="10"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -4802,7 +4802,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="11"/>
+      <c r="G140" s="10"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -4830,7 +4830,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="11"/>
+      <c r="G141" s="10"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -4858,7 +4858,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="11"/>
+      <c r="G142" s="10"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -4886,7 +4886,7 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="11"/>
+      <c r="G143" s="10"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -4914,7 +4914,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="11"/>
+      <c r="G144" s="10"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -4942,7 +4942,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="11"/>
+      <c r="G145" s="10"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -4970,7 +4970,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="11"/>
+      <c r="G146" s="10"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -4998,7 +4998,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="11"/>
+      <c r="G147" s="10"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -5026,7 +5026,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="11"/>
+      <c r="G148" s="10"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -5054,7 +5054,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="11"/>
+      <c r="G149" s="10"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -5082,7 +5082,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="11"/>
+      <c r="G150" s="10"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -5110,7 +5110,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="11"/>
+      <c r="G151" s="10"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -5138,7 +5138,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="11"/>
+      <c r="G152" s="10"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -5166,7 +5166,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="11"/>
+      <c r="G153" s="10"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -5194,7 +5194,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="11"/>
+      <c r="G154" s="10"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -5222,7 +5222,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="11"/>
+      <c r="G155" s="10"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -5250,7 +5250,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="11"/>
+      <c r="G156" s="10"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -5278,7 +5278,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="11"/>
+      <c r="G157" s="10"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -5306,7 +5306,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="11"/>
+      <c r="G158" s="10"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -5334,7 +5334,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="11"/>
+      <c r="G159" s="10"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -5362,7 +5362,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="11"/>
+      <c r="G160" s="10"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -5390,7 +5390,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="11"/>
+      <c r="G161" s="10"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -5418,7 +5418,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="11"/>
+      <c r="G162" s="10"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -5446,7 +5446,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="11"/>
+      <c r="G163" s="10"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -5474,7 +5474,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="11"/>
+      <c r="G164" s="10"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5502,7 +5502,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="11"/>
+      <c r="G165" s="10"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -5530,7 +5530,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="11"/>
+      <c r="G166" s="10"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -5558,7 +5558,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="11"/>
+      <c r="G167" s="10"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -5586,7 +5586,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="11"/>
+      <c r="G168" s="10"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -5614,7 +5614,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="11"/>
+      <c r="G169" s="10"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -5642,7 +5642,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="11"/>
+      <c r="G170" s="10"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -5670,7 +5670,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="11"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -5698,7 +5698,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="11"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -5726,7 +5726,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="11"/>
+      <c r="G173" s="10"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -5754,7 +5754,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="11"/>
+      <c r="G174" s="10"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -5782,7 +5782,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="11"/>
+      <c r="G175" s="10"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -5810,7 +5810,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="11"/>
+      <c r="G176" s="10"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -5838,7 +5838,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="11"/>
+      <c r="G177" s="10"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -5866,7 +5866,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="11"/>
+      <c r="G178" s="10"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -5894,7 +5894,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="11"/>
+      <c r="G179" s="10"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -5922,7 +5922,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="11"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -5950,7 +5950,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="11"/>
+      <c r="G181" s="10"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -5978,7 +5978,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="11"/>
+      <c r="G182" s="10"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -6006,7 +6006,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="11"/>
+      <c r="G183" s="10"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -6034,7 +6034,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="11"/>
+      <c r="G184" s="10"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -6062,7 +6062,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="11"/>
+      <c r="G185" s="10"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -6090,7 +6090,7 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="11"/>
+      <c r="G186" s="10"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -6118,7 +6118,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="11"/>
+      <c r="G187" s="10"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -6146,7 +6146,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="11"/>
+      <c r="G188" s="10"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -6174,7 +6174,7 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="11"/>
+      <c r="G189" s="10"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -6202,7 +6202,7 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="11"/>
+      <c r="G190" s="10"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -6230,7 +6230,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="11"/>
+      <c r="G191" s="10"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -6258,7 +6258,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="11"/>
+      <c r="G192" s="10"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -6286,7 +6286,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="11"/>
+      <c r="G193" s="10"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -6314,7 +6314,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="11"/>
+      <c r="G194" s="10"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -6342,7 +6342,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="11"/>
+      <c r="G195" s="10"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -6370,7 +6370,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="11"/>
+      <c r="G196" s="10"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -6398,7 +6398,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="11"/>
+      <c r="G197" s="10"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -6426,7 +6426,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="11"/>
+      <c r="G198" s="10"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -6454,7 +6454,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="11"/>
+      <c r="G199" s="10"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -6482,7 +6482,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="11"/>
+      <c r="G200" s="10"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -6510,7 +6510,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="11"/>
+      <c r="G201" s="10"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -6538,7 +6538,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="11"/>
+      <c r="G202" s="10"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -6566,7 +6566,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="11"/>
+      <c r="G203" s="10"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -6594,7 +6594,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="11"/>
+      <c r="G204" s="10"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -6622,7 +6622,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="11"/>
+      <c r="G205" s="10"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -6650,7 +6650,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="11"/>
+      <c r="G206" s="10"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -6678,7 +6678,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="11"/>
+      <c r="G207" s="10"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -6706,7 +6706,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="11"/>
+      <c r="G208" s="10"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -6734,7 +6734,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="11"/>
+      <c r="G209" s="10"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -6762,7 +6762,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="11"/>
+      <c r="G210" s="10"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -6790,7 +6790,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="11"/>
+      <c r="G211" s="10"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -6818,7 +6818,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-      <c r="G212" s="11"/>
+      <c r="G212" s="10"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -6846,7 +6846,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="11"/>
+      <c r="G213" s="10"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -6874,7 +6874,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="11"/>
+      <c r="G214" s="10"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -6902,7 +6902,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="11"/>
+      <c r="G215" s="10"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -6930,7 +6930,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="11"/>
+      <c r="G216" s="10"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -6958,7 +6958,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="11"/>
+      <c r="G217" s="10"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -6986,7 +6986,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="11"/>
+      <c r="G218" s="10"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -7014,7 +7014,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-      <c r="G219" s="11"/>
+      <c r="G219" s="10"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -7042,7 +7042,7 @@
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-      <c r="G220" s="11"/>
+      <c r="G220" s="10"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -7070,7 +7070,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="11"/>
+      <c r="G221" s="10"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -7098,7 +7098,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-      <c r="G222" s="11"/>
+      <c r="G222" s="10"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -7126,7 +7126,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-      <c r="G223" s="11"/>
+      <c r="G223" s="10"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -7154,7 +7154,7 @@
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-      <c r="G224" s="11"/>
+      <c r="G224" s="10"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -7182,7 +7182,7 @@
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-      <c r="G225" s="11"/>
+      <c r="G225" s="10"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -7210,7 +7210,7 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="11"/>
+      <c r="G226" s="10"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -7238,7 +7238,7 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="11"/>
+      <c r="G227" s="10"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -7266,7 +7266,7 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-      <c r="G228" s="11"/>
+      <c r="G228" s="10"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -7294,7 +7294,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-      <c r="G229" s="11"/>
+      <c r="G229" s="10"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -7322,7 +7322,7 @@
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-      <c r="G230" s="11"/>
+      <c r="G230" s="10"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -7350,7 +7350,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-      <c r="G231" s="11"/>
+      <c r="G231" s="10"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -7378,7 +7378,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-      <c r="G232" s="11"/>
+      <c r="G232" s="10"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -7406,7 +7406,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-      <c r="G233" s="11"/>
+      <c r="G233" s="10"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -7434,7 +7434,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-      <c r="G234" s="11"/>
+      <c r="G234" s="10"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -7462,7 +7462,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="11"/>
+      <c r="G235" s="10"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -7490,7 +7490,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="11"/>
+      <c r="G236" s="10"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -7518,7 +7518,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="11"/>
+      <c r="G237" s="10"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -7546,7 +7546,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-      <c r="G238" s="11"/>
+      <c r="G238" s="10"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -7574,7 +7574,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-      <c r="G239" s="11"/>
+      <c r="G239" s="10"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -7602,7 +7602,7 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-      <c r="G240" s="11"/>
+      <c r="G240" s="10"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -7630,7 +7630,7 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-      <c r="G241" s="11"/>
+      <c r="G241" s="10"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -7658,7 +7658,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-      <c r="G242" s="11"/>
+      <c r="G242" s="10"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -7686,7 +7686,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-      <c r="G243" s="11"/>
+      <c r="G243" s="10"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -7714,7 +7714,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-      <c r="G244" s="11"/>
+      <c r="G244" s="10"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -7742,7 +7742,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-      <c r="G245" s="11"/>
+      <c r="G245" s="10"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -7770,7 +7770,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-      <c r="G246" s="11"/>
+      <c r="G246" s="10"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -7798,7 +7798,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-      <c r="G247" s="11"/>
+      <c r="G247" s="10"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -7826,7 +7826,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-      <c r="G248" s="11"/>
+      <c r="G248" s="10"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -7854,7 +7854,7 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-      <c r="G249" s="11"/>
+      <c r="G249" s="10"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -7882,7 +7882,7 @@
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-      <c r="G250" s="11"/>
+      <c r="G250" s="10"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -7910,7 +7910,7 @@
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
-      <c r="G251" s="11"/>
+      <c r="G251" s="10"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -7938,7 +7938,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
-      <c r="G252" s="11"/>
+      <c r="G252" s="10"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -7966,7 +7966,7 @@
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
-      <c r="G253" s="11"/>
+      <c r="G253" s="10"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -7994,7 +7994,7 @@
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
-      <c r="G254" s="11"/>
+      <c r="G254" s="10"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -8022,7 +8022,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
-      <c r="G255" s="11"/>
+      <c r="G255" s="10"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -8050,7 +8050,7 @@
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
-      <c r="G256" s="11"/>
+      <c r="G256" s="10"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -8078,7 +8078,7 @@
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-      <c r="G257" s="11"/>
+      <c r="G257" s="10"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -8106,7 +8106,7 @@
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
-      <c r="G258" s="11"/>
+      <c r="G258" s="10"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -8134,7 +8134,7 @@
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
-      <c r="G259" s="11"/>
+      <c r="G259" s="10"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -8162,7 +8162,7 @@
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
-      <c r="G260" s="11"/>
+      <c r="G260" s="10"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -8190,7 +8190,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
-      <c r="G261" s="11"/>
+      <c r="G261" s="10"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -8218,7 +8218,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
-      <c r="G262" s="11"/>
+      <c r="G262" s="10"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -8246,7 +8246,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-      <c r="G263" s="11"/>
+      <c r="G263" s="10"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
@@ -8274,7 +8274,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-      <c r="G264" s="11"/>
+      <c r="G264" s="10"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
@@ -8302,7 +8302,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-      <c r="G265" s="11"/>
+      <c r="G265" s="10"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -8330,7 +8330,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-      <c r="G266" s="11"/>
+      <c r="G266" s="10"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
@@ -8358,7 +8358,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-      <c r="G267" s="11"/>
+      <c r="G267" s="10"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -8386,7 +8386,7 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-      <c r="G268" s="11"/>
+      <c r="G268" s="10"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -8414,7 +8414,7 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-      <c r="G269" s="11"/>
+      <c r="G269" s="10"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -8442,7 +8442,7 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-      <c r="G270" s="11"/>
+      <c r="G270" s="10"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -8470,7 +8470,7 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-      <c r="G271" s="11"/>
+      <c r="G271" s="10"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -8498,7 +8498,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-      <c r="G272" s="11"/>
+      <c r="G272" s="10"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -8526,7 +8526,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-      <c r="G273" s="11"/>
+      <c r="G273" s="10"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -8554,7 +8554,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-      <c r="G274" s="11"/>
+      <c r="G274" s="10"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -8582,7 +8582,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-      <c r="G275" s="11"/>
+      <c r="G275" s="10"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -8610,7 +8610,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-      <c r="G276" s="11"/>
+      <c r="G276" s="10"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -8638,7 +8638,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-      <c r="G277" s="11"/>
+      <c r="G277" s="10"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -8666,7 +8666,7 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-      <c r="G278" s="11"/>
+      <c r="G278" s="10"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -8694,7 +8694,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-      <c r="G279" s="11"/>
+      <c r="G279" s="10"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -8722,7 +8722,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-      <c r="G280" s="11"/>
+      <c r="G280" s="10"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -8750,7 +8750,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-      <c r="G281" s="11"/>
+      <c r="G281" s="10"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -8778,7 +8778,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-      <c r="G282" s="11"/>
+      <c r="G282" s="10"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -8806,7 +8806,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-      <c r="G283" s="11"/>
+      <c r="G283" s="10"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -8834,7 +8834,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-      <c r="G284" s="11"/>
+      <c r="G284" s="10"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -8862,7 +8862,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-      <c r="G285" s="11"/>
+      <c r="G285" s="10"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -8890,7 +8890,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="11"/>
+      <c r="G286" s="10"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -8918,7 +8918,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="11"/>
+      <c r="G287" s="10"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -8946,7 +8946,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="11"/>
+      <c r="G288" s="10"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -8974,7 +8974,7 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-      <c r="G289" s="11"/>
+      <c r="G289" s="10"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -9002,7 +9002,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="11"/>
+      <c r="G290" s="10"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -9030,7 +9030,7 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="11"/>
+      <c r="G291" s="10"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -9058,7 +9058,7 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-      <c r="G292" s="11"/>
+      <c r="G292" s="10"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
@@ -9086,7 +9086,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-      <c r="G293" s="11"/>
+      <c r="G293" s="10"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
@@ -9114,7 +9114,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-      <c r="G294" s="11"/>
+      <c r="G294" s="10"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
@@ -9142,7 +9142,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-      <c r="G295" s="11"/>
+      <c r="G295" s="10"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
@@ -9170,7 +9170,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="11"/>
+      <c r="G296" s="10"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
@@ -9198,7 +9198,7 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-      <c r="G297" s="11"/>
+      <c r="G297" s="10"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
@@ -9226,7 +9226,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-      <c r="G298" s="11"/>
+      <c r="G298" s="10"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
@@ -9254,7 +9254,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-      <c r="G299" s="11"/>
+      <c r="G299" s="10"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
@@ -9282,7 +9282,7 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-      <c r="G300" s="11"/>
+      <c r="G300" s="10"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
@@ -9310,7 +9310,7 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-      <c r="G301" s="11"/>
+      <c r="G301" s="10"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
@@ -9338,7 +9338,7 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-      <c r="G302" s="11"/>
+      <c r="G302" s="10"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
@@ -9366,7 +9366,7 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-      <c r="G303" s="11"/>
+      <c r="G303" s="10"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -9394,7 +9394,7 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-      <c r="G304" s="11"/>
+      <c r="G304" s="10"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -9422,7 +9422,7 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-      <c r="G305" s="11"/>
+      <c r="G305" s="10"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -9450,7 +9450,7 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-      <c r="G306" s="11"/>
+      <c r="G306" s="10"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -9478,7 +9478,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-      <c r="G307" s="11"/>
+      <c r="G307" s="10"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -9506,7 +9506,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-      <c r="G308" s="11"/>
+      <c r="G308" s="10"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -9534,7 +9534,7 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-      <c r="G309" s="11"/>
+      <c r="G309" s="10"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -9562,7 +9562,7 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-      <c r="G310" s="11"/>
+      <c r="G310" s="10"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -9590,7 +9590,7 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-      <c r="G311" s="11"/>
+      <c r="G311" s="10"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -9618,7 +9618,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-      <c r="G312" s="11"/>
+      <c r="G312" s="10"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -9646,7 +9646,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-      <c r="G313" s="11"/>
+      <c r="G313" s="10"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -9674,7 +9674,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-      <c r="G314" s="11"/>
+      <c r="G314" s="10"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -9702,7 +9702,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-      <c r="G315" s="11"/>
+      <c r="G315" s="10"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -9730,7 +9730,7 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-      <c r="G316" s="11"/>
+      <c r="G316" s="10"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -9758,7 +9758,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-      <c r="G317" s="11"/>
+      <c r="G317" s="10"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -9786,7 +9786,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-      <c r="G318" s="11"/>
+      <c r="G318" s="10"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -9814,7 +9814,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-      <c r="G319" s="11"/>
+      <c r="G319" s="10"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -9842,7 +9842,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-      <c r="G320" s="11"/>
+      <c r="G320" s="10"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -9870,7 +9870,7 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-      <c r="G321" s="11"/>
+      <c r="G321" s="10"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
@@ -9898,7 +9898,7 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-      <c r="G322" s="11"/>
+      <c r="G322" s="10"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
@@ -9926,7 +9926,7 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-      <c r="G323" s="11"/>
+      <c r="G323" s="10"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
@@ -9954,7 +9954,7 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-      <c r="G324" s="11"/>
+      <c r="G324" s="10"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
@@ -9982,7 +9982,7 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-      <c r="G325" s="11"/>
+      <c r="G325" s="10"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
@@ -10010,7 +10010,7 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-      <c r="G326" s="11"/>
+      <c r="G326" s="10"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
@@ -10038,7 +10038,7 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-      <c r="G327" s="11"/>
+      <c r="G327" s="10"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
@@ -10066,7 +10066,7 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-      <c r="G328" s="11"/>
+      <c r="G328" s="10"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
@@ -10094,7 +10094,7 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-      <c r="G329" s="11"/>
+      <c r="G329" s="10"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
@@ -10122,7 +10122,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-      <c r="G330" s="11"/>
+      <c r="G330" s="10"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
@@ -10150,7 +10150,7 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-      <c r="G331" s="11"/>
+      <c r="G331" s="10"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
@@ -10178,7 +10178,7 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-      <c r="G332" s="11"/>
+      <c r="G332" s="10"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -10206,7 +10206,7 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-      <c r="G333" s="11"/>
+      <c r="G333" s="10"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -10234,7 +10234,7 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-      <c r="G334" s="11"/>
+      <c r="G334" s="10"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -10262,7 +10262,7 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-      <c r="G335" s="11"/>
+      <c r="G335" s="10"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -10290,7 +10290,7 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-      <c r="G336" s="11"/>
+      <c r="G336" s="10"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -10318,7 +10318,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-      <c r="G337" s="11"/>
+      <c r="G337" s="10"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -10346,7 +10346,7 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-      <c r="G338" s="11"/>
+      <c r="G338" s="10"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -10374,7 +10374,7 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-      <c r="G339" s="11"/>
+      <c r="G339" s="10"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -10402,7 +10402,7 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-      <c r="G340" s="11"/>
+      <c r="G340" s="10"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -10430,7 +10430,7 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-      <c r="G341" s="11"/>
+      <c r="G341" s="10"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -10458,7 +10458,7 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-      <c r="G342" s="11"/>
+      <c r="G342" s="10"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -10486,7 +10486,7 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-      <c r="G343" s="11"/>
+      <c r="G343" s="10"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -10514,7 +10514,7 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-      <c r="G344" s="11"/>
+      <c r="G344" s="10"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -10542,7 +10542,7 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-      <c r="G345" s="11"/>
+      <c r="G345" s="10"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -10570,7 +10570,7 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-      <c r="G346" s="11"/>
+      <c r="G346" s="10"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -10598,7 +10598,7 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-      <c r="G347" s="11"/>
+      <c r="G347" s="10"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -10626,7 +10626,7 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-      <c r="G348" s="11"/>
+      <c r="G348" s="10"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -10654,7 +10654,7 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-      <c r="G349" s="11"/>
+      <c r="G349" s="10"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -10682,7 +10682,7 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-      <c r="G350" s="11"/>
+      <c r="G350" s="10"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
@@ -10710,7 +10710,7 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-      <c r="G351" s="11"/>
+      <c r="G351" s="10"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
@@ -10738,7 +10738,7 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-      <c r="G352" s="11"/>
+      <c r="G352" s="10"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
@@ -10766,7 +10766,7 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-      <c r="G353" s="11"/>
+      <c r="G353" s="10"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
@@ -10794,7 +10794,7 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-      <c r="G354" s="11"/>
+      <c r="G354" s="10"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
@@ -10822,7 +10822,7 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-      <c r="G355" s="11"/>
+      <c r="G355" s="10"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
@@ -10850,7 +10850,7 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-      <c r="G356" s="11"/>
+      <c r="G356" s="10"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
@@ -10878,7 +10878,7 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
-      <c r="G357" s="11"/>
+      <c r="G357" s="10"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
@@ -10906,7 +10906,7 @@
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
-      <c r="G358" s="11"/>
+      <c r="G358" s="10"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
@@ -10934,7 +10934,7 @@
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
-      <c r="G359" s="11"/>
+      <c r="G359" s="10"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
@@ -10962,7 +10962,7 @@
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
-      <c r="G360" s="11"/>
+      <c r="G360" s="10"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
@@ -10990,7 +10990,7 @@
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
-      <c r="G361" s="11"/>
+      <c r="G361" s="10"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -11018,7 +11018,7 @@
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
-      <c r="G362" s="11"/>
+      <c r="G362" s="10"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -11046,7 +11046,7 @@
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
-      <c r="G363" s="11"/>
+      <c r="G363" s="10"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -11074,7 +11074,7 @@
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
-      <c r="G364" s="11"/>
+      <c r="G364" s="10"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -11102,7 +11102,7 @@
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
-      <c r="G365" s="11"/>
+      <c r="G365" s="10"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -11130,7 +11130,7 @@
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
-      <c r="G366" s="11"/>
+      <c r="G366" s="10"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -11158,7 +11158,7 @@
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
-      <c r="G367" s="11"/>
+      <c r="G367" s="10"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -11186,7 +11186,7 @@
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
-      <c r="G368" s="11"/>
+      <c r="G368" s="10"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -11214,7 +11214,7 @@
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
-      <c r="G369" s="11"/>
+      <c r="G369" s="10"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -11242,7 +11242,7 @@
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
-      <c r="G370" s="11"/>
+      <c r="G370" s="10"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -11270,7 +11270,7 @@
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
-      <c r="G371" s="11"/>
+      <c r="G371" s="10"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -11298,7 +11298,7 @@
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
-      <c r="G372" s="11"/>
+      <c r="G372" s="10"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -11326,7 +11326,7 @@
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
-      <c r="G373" s="11"/>
+      <c r="G373" s="10"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -11354,7 +11354,7 @@
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
-      <c r="G374" s="11"/>
+      <c r="G374" s="10"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -11382,7 +11382,7 @@
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
-      <c r="G375" s="11"/>
+      <c r="G375" s="10"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -11410,7 +11410,7 @@
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
-      <c r="G376" s="11"/>
+      <c r="G376" s="10"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -11438,7 +11438,7 @@
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
-      <c r="G377" s="11"/>
+      <c r="G377" s="10"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -11466,7 +11466,7 @@
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
-      <c r="G378" s="11"/>
+      <c r="G378" s="10"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -11494,7 +11494,7 @@
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
-      <c r="G379" s="11"/>
+      <c r="G379" s="10"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
@@ -11522,7 +11522,7 @@
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
-      <c r="G380" s="11"/>
+      <c r="G380" s="10"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
@@ -11550,7 +11550,7 @@
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
-      <c r="G381" s="11"/>
+      <c r="G381" s="10"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
@@ -11578,7 +11578,7 @@
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
-      <c r="G382" s="11"/>
+      <c r="G382" s="10"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
@@ -11606,7 +11606,7 @@
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
-      <c r="G383" s="11"/>
+      <c r="G383" s="10"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
@@ -11634,7 +11634,7 @@
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
-      <c r="G384" s="11"/>
+      <c r="G384" s="10"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
@@ -11662,7 +11662,7 @@
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
-      <c r="G385" s="11"/>
+      <c r="G385" s="10"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
@@ -11690,7 +11690,7 @@
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
-      <c r="G386" s="11"/>
+      <c r="G386" s="10"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
@@ -11718,7 +11718,7 @@
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
-      <c r="G387" s="11"/>
+      <c r="G387" s="10"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
@@ -11746,7 +11746,7 @@
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
-      <c r="G388" s="11"/>
+      <c r="G388" s="10"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
@@ -11774,7 +11774,7 @@
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
-      <c r="G389" s="11"/>
+      <c r="G389" s="10"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
@@ -11802,7 +11802,7 @@
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
-      <c r="G390" s="11"/>
+      <c r="G390" s="10"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -11830,7 +11830,7 @@
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
-      <c r="G391" s="11"/>
+      <c r="G391" s="10"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -11858,7 +11858,7 @@
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
-      <c r="G392" s="11"/>
+      <c r="G392" s="10"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -11886,7 +11886,7 @@
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
-      <c r="G393" s="11"/>
+      <c r="G393" s="10"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -11914,7 +11914,7 @@
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
-      <c r="G394" s="11"/>
+      <c r="G394" s="10"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -11942,7 +11942,7 @@
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
-      <c r="G395" s="11"/>
+      <c r="G395" s="10"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -11970,7 +11970,7 @@
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
-      <c r="G396" s="11"/>
+      <c r="G396" s="10"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -11998,7 +11998,7 @@
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
-      <c r="G397" s="11"/>
+      <c r="G397" s="10"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -12026,7 +12026,7 @@
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
-      <c r="G398" s="11"/>
+      <c r="G398" s="10"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -12054,7 +12054,7 @@
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
-      <c r="G399" s="11"/>
+      <c r="G399" s="10"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -12082,7 +12082,7 @@
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
-      <c r="G400" s="11"/>
+      <c r="G400" s="10"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -12110,7 +12110,7 @@
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
-      <c r="G401" s="11"/>
+      <c r="G401" s="10"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -12138,7 +12138,7 @@
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
-      <c r="G402" s="11"/>
+      <c r="G402" s="10"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -12166,7 +12166,7 @@
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
-      <c r="G403" s="11"/>
+      <c r="G403" s="10"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -12194,7 +12194,7 @@
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
-      <c r="G404" s="11"/>
+      <c r="G404" s="10"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -12222,7 +12222,7 @@
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
-      <c r="G405" s="11"/>
+      <c r="G405" s="10"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -12250,7 +12250,7 @@
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
-      <c r="G406" s="11"/>
+      <c r="G406" s="10"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -12278,7 +12278,7 @@
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
-      <c r="G407" s="11"/>
+      <c r="G407" s="10"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
@@ -12306,7 +12306,7 @@
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
-      <c r="G408" s="11"/>
+      <c r="G408" s="10"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
@@ -12334,7 +12334,7 @@
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
-      <c r="G409" s="11"/>
+      <c r="G409" s="10"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
@@ -12362,7 +12362,7 @@
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
-      <c r="G410" s="11"/>
+      <c r="G410" s="10"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
@@ -12390,7 +12390,7 @@
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
-      <c r="G411" s="11"/>
+      <c r="G411" s="10"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
@@ -12418,7 +12418,7 @@
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
-      <c r="G412" s="11"/>
+      <c r="G412" s="10"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
@@ -12446,7 +12446,7 @@
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
-      <c r="G413" s="11"/>
+      <c r="G413" s="10"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
@@ -12474,7 +12474,7 @@
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
-      <c r="G414" s="11"/>
+      <c r="G414" s="10"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
@@ -12502,7 +12502,7 @@
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
-      <c r="G415" s="11"/>
+      <c r="G415" s="10"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
@@ -12530,7 +12530,7 @@
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
-      <c r="G416" s="11"/>
+      <c r="G416" s="10"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
@@ -12558,7 +12558,7 @@
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
-      <c r="G417" s="11"/>
+      <c r="G417" s="10"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
@@ -12586,7 +12586,7 @@
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
-      <c r="G418" s="11"/>
+      <c r="G418" s="10"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
@@ -12614,7 +12614,7 @@
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
-      <c r="G419" s="11"/>
+      <c r="G419" s="10"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
@@ -12642,7 +12642,7 @@
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
-      <c r="G420" s="11"/>
+      <c r="G420" s="10"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -12670,7 +12670,7 @@
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
-      <c r="G421" s="11"/>
+      <c r="G421" s="10"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -12698,7 +12698,7 @@
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
-      <c r="G422" s="11"/>
+      <c r="G422" s="10"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -12726,7 +12726,7 @@
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
-      <c r="G423" s="11"/>
+      <c r="G423" s="10"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -12754,7 +12754,7 @@
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
-      <c r="G424" s="11"/>
+      <c r="G424" s="10"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -12782,7 +12782,7 @@
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
-      <c r="G425" s="11"/>
+      <c r="G425" s="10"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -12810,7 +12810,7 @@
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
-      <c r="G426" s="11"/>
+      <c r="G426" s="10"/>
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -12838,7 +12838,7 @@
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
-      <c r="G427" s="11"/>
+      <c r="G427" s="10"/>
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -12866,7 +12866,7 @@
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
-      <c r="G428" s="11"/>
+      <c r="G428" s="10"/>
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -12894,7 +12894,7 @@
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
-      <c r="G429" s="11"/>
+      <c r="G429" s="10"/>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -12922,7 +12922,7 @@
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
-      <c r="G430" s="11"/>
+      <c r="G430" s="10"/>
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -12950,7 +12950,7 @@
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
-      <c r="G431" s="11"/>
+      <c r="G431" s="10"/>
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -12978,7 +12978,7 @@
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
-      <c r="G432" s="11"/>
+      <c r="G432" s="10"/>
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -13006,7 +13006,7 @@
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
-      <c r="G433" s="11"/>
+      <c r="G433" s="10"/>
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -13034,7 +13034,7 @@
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
-      <c r="G434" s="11"/>
+      <c r="G434" s="10"/>
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -13062,7 +13062,7 @@
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
-      <c r="G435" s="11"/>
+      <c r="G435" s="10"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -13090,7 +13090,7 @@
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
-      <c r="G436" s="11"/>
+      <c r="G436" s="10"/>
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
@@ -13118,7 +13118,7 @@
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
-      <c r="G437" s="11"/>
+      <c r="G437" s="10"/>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
@@ -13146,7 +13146,7 @@
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
-      <c r="G438" s="11"/>
+      <c r="G438" s="10"/>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
@@ -13174,7 +13174,7 @@
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
-      <c r="G439" s="11"/>
+      <c r="G439" s="10"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
@@ -13202,7 +13202,7 @@
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
-      <c r="G440" s="11"/>
+      <c r="G440" s="10"/>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
@@ -13230,7 +13230,7 @@
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
-      <c r="G441" s="11"/>
+      <c r="G441" s="10"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
@@ -13258,7 +13258,7 @@
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
-      <c r="G442" s="11"/>
+      <c r="G442" s="10"/>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
@@ -13286,7 +13286,7 @@
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
-      <c r="G443" s="11"/>
+      <c r="G443" s="10"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
@@ -13314,7 +13314,7 @@
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
-      <c r="G444" s="11"/>
+      <c r="G444" s="10"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
@@ -13342,7 +13342,7 @@
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
-      <c r="G445" s="11"/>
+      <c r="G445" s="10"/>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
@@ -13370,7 +13370,7 @@
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
-      <c r="G446" s="11"/>
+      <c r="G446" s="10"/>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
@@ -13398,7 +13398,7 @@
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
-      <c r="G447" s="11"/>
+      <c r="G447" s="10"/>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
@@ -13426,7 +13426,7 @@
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
-      <c r="G448" s="11"/>
+      <c r="G448" s="10"/>
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
@@ -13454,7 +13454,7 @@
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
-      <c r="G449" s="11"/>
+      <c r="G449" s="10"/>
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -13482,7 +13482,7 @@
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
-      <c r="G450" s="11"/>
+      <c r="G450" s="10"/>
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -13510,7 +13510,7 @@
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
-      <c r="G451" s="11"/>
+      <c r="G451" s="10"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -13538,7 +13538,7 @@
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
-      <c r="G452" s="11"/>
+      <c r="G452" s="10"/>
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -13566,7 +13566,7 @@
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
-      <c r="G453" s="11"/>
+      <c r="G453" s="10"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -13594,7 +13594,7 @@
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
-      <c r="G454" s="11"/>
+      <c r="G454" s="10"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -13622,7 +13622,7 @@
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
-      <c r="G455" s="11"/>
+      <c r="G455" s="10"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -13650,7 +13650,7 @@
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
-      <c r="G456" s="11"/>
+      <c r="G456" s="10"/>
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -13678,7 +13678,7 @@
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
-      <c r="G457" s="11"/>
+      <c r="G457" s="10"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -13706,7 +13706,7 @@
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
-      <c r="G458" s="11"/>
+      <c r="G458" s="10"/>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -13734,7 +13734,7 @@
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
-      <c r="G459" s="11"/>
+      <c r="G459" s="10"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -13762,7 +13762,7 @@
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
-      <c r="G460" s="11"/>
+      <c r="G460" s="10"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -13790,7 +13790,7 @@
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
-      <c r="G461" s="11"/>
+      <c r="G461" s="10"/>
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -13818,7 +13818,7 @@
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
-      <c r="G462" s="11"/>
+      <c r="G462" s="10"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -13846,7 +13846,7 @@
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
-      <c r="G463" s="11"/>
+      <c r="G463" s="10"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -13874,7 +13874,7 @@
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
-      <c r="G464" s="11"/>
+      <c r="G464" s="10"/>
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -13902,7 +13902,7 @@
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
-      <c r="G465" s="11"/>
+      <c r="G465" s="10"/>
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
@@ -13930,7 +13930,7 @@
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
-      <c r="G466" s="11"/>
+      <c r="G466" s="10"/>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
@@ -13958,7 +13958,7 @@
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
-      <c r="G467" s="11"/>
+      <c r="G467" s="10"/>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
@@ -13986,7 +13986,7 @@
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
-      <c r="G468" s="11"/>
+      <c r="G468" s="10"/>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
@@ -14014,7 +14014,7 @@
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
-      <c r="G469" s="11"/>
+      <c r="G469" s="10"/>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
@@ -14042,7 +14042,7 @@
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
-      <c r="G470" s="11"/>
+      <c r="G470" s="10"/>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
@@ -14070,7 +14070,7 @@
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
-      <c r="G471" s="11"/>
+      <c r="G471" s="10"/>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
@@ -14098,7 +14098,7 @@
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
-      <c r="G472" s="11"/>
+      <c r="G472" s="10"/>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
@@ -14126,7 +14126,7 @@
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
-      <c r="G473" s="11"/>
+      <c r="G473" s="10"/>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
@@ -14154,7 +14154,7 @@
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
-      <c r="G474" s="11"/>
+      <c r="G474" s="10"/>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
@@ -14182,7 +14182,7 @@
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
-      <c r="G475" s="11"/>
+      <c r="G475" s="10"/>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
@@ -14210,7 +14210,7 @@
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
-      <c r="G476" s="11"/>
+      <c r="G476" s="10"/>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
@@ -14238,7 +14238,7 @@
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
-      <c r="G477" s="11"/>
+      <c r="G477" s="10"/>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
@@ -14266,7 +14266,7 @@
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
-      <c r="G478" s="11"/>
+      <c r="G478" s="10"/>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -14294,7 +14294,7 @@
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
-      <c r="G479" s="11"/>
+      <c r="G479" s="10"/>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -14322,7 +14322,7 @@
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
-      <c r="G480" s="11"/>
+      <c r="G480" s="10"/>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -14350,7 +14350,7 @@
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
-      <c r="G481" s="11"/>
+      <c r="G481" s="10"/>
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -14378,7 +14378,7 @@
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
-      <c r="G482" s="11"/>
+      <c r="G482" s="10"/>
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -14406,7 +14406,7 @@
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
-      <c r="G483" s="11"/>
+      <c r="G483" s="10"/>
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -14434,7 +14434,7 @@
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
-      <c r="G484" s="11"/>
+      <c r="G484" s="10"/>
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -14462,7 +14462,7 @@
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
-      <c r="G485" s="11"/>
+      <c r="G485" s="10"/>
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -14490,7 +14490,7 @@
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
-      <c r="G486" s="11"/>
+      <c r="G486" s="10"/>
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -14518,7 +14518,7 @@
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
-      <c r="G487" s="11"/>
+      <c r="G487" s="10"/>
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -14546,7 +14546,7 @@
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
-      <c r="G488" s="11"/>
+      <c r="G488" s="10"/>
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -14574,7 +14574,7 @@
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
-      <c r="G489" s="11"/>
+      <c r="G489" s="10"/>
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -14602,7 +14602,7 @@
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
-      <c r="G490" s="11"/>
+      <c r="G490" s="10"/>
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -14630,7 +14630,7 @@
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
-      <c r="G491" s="11"/>
+      <c r="G491" s="10"/>
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -14658,7 +14658,7 @@
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
-      <c r="G492" s="11"/>
+      <c r="G492" s="10"/>
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -14686,7 +14686,7 @@
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
-      <c r="G493" s="11"/>
+      <c r="G493" s="10"/>
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -14714,7 +14714,7 @@
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
-      <c r="G494" s="11"/>
+      <c r="G494" s="10"/>
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
@@ -14742,7 +14742,7 @@
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
-      <c r="G495" s="11"/>
+      <c r="G495" s="10"/>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
@@ -14770,7 +14770,7 @@
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
-      <c r="G496" s="11"/>
+      <c r="G496" s="10"/>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
@@ -14798,7 +14798,7 @@
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
-      <c r="G497" s="11"/>
+      <c r="G497" s="10"/>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
@@ -14826,7 +14826,7 @@
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
-      <c r="G498" s="11"/>
+      <c r="G498" s="10"/>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
@@ -14854,7 +14854,7 @@
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
-      <c r="G499" s="11"/>
+      <c r="G499" s="10"/>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
@@ -14882,7 +14882,7 @@
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
-      <c r="G500" s="11"/>
+      <c r="G500" s="10"/>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
@@ -14910,7 +14910,7 @@
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
-      <c r="G501" s="11"/>
+      <c r="G501" s="10"/>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
@@ -14938,7 +14938,7 @@
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
-      <c r="G502" s="11"/>
+      <c r="G502" s="10"/>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
@@ -14966,7 +14966,7 @@
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
-      <c r="G503" s="11"/>
+      <c r="G503" s="10"/>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
       <c r="J503" s="1"/>
@@ -14994,7 +14994,7 @@
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
-      <c r="G504" s="11"/>
+      <c r="G504" s="10"/>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
@@ -15022,7 +15022,7 @@
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
-      <c r="G505" s="11"/>
+      <c r="G505" s="10"/>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
@@ -15050,7 +15050,7 @@
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
-      <c r="G506" s="11"/>
+      <c r="G506" s="10"/>
       <c r="H506" s="1"/>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
@@ -15078,7 +15078,7 @@
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
-      <c r="G507" s="11"/>
+      <c r="G507" s="10"/>
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
@@ -15106,7 +15106,7 @@
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
-      <c r="G508" s="11"/>
+      <c r="G508" s="10"/>
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
@@ -15134,7 +15134,7 @@
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
-      <c r="G509" s="11"/>
+      <c r="G509" s="10"/>
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
@@ -15162,7 +15162,7 @@
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
-      <c r="G510" s="11"/>
+      <c r="G510" s="10"/>
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
@@ -15190,7 +15190,7 @@
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
-      <c r="G511" s="11"/>
+      <c r="G511" s="10"/>
       <c r="H511" s="1"/>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
@@ -15218,7 +15218,7 @@
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
-      <c r="G512" s="11"/>
+      <c r="G512" s="10"/>
       <c r="H512" s="1"/>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
@@ -15246,7 +15246,7 @@
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
-      <c r="G513" s="11"/>
+      <c r="G513" s="10"/>
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
@@ -15274,7 +15274,7 @@
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
-      <c r="G514" s="11"/>
+      <c r="G514" s="10"/>
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
@@ -15302,7 +15302,7 @@
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
-      <c r="G515" s="11"/>
+      <c r="G515" s="10"/>
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
@@ -15330,7 +15330,7 @@
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
-      <c r="G516" s="11"/>
+      <c r="G516" s="10"/>
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
@@ -15358,7 +15358,7 @@
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
-      <c r="G517" s="11"/>
+      <c r="G517" s="10"/>
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
@@ -15386,7 +15386,7 @@
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
-      <c r="G518" s="11"/>
+      <c r="G518" s="10"/>
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -15414,7 +15414,7 @@
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
-      <c r="G519" s="11"/>
+      <c r="G519" s="10"/>
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -15442,7 +15442,7 @@
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
-      <c r="G520" s="11"/>
+      <c r="G520" s="10"/>
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -15470,7 +15470,7 @@
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
-      <c r="G521" s="11"/>
+      <c r="G521" s="10"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -15498,7 +15498,7 @@
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
-      <c r="G522" s="11"/>
+      <c r="G522" s="10"/>
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -15526,7 +15526,7 @@
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
-      <c r="G523" s="11"/>
+      <c r="G523" s="10"/>
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
@@ -15554,7 +15554,7 @@
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
-      <c r="G524" s="11"/>
+      <c r="G524" s="10"/>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
       <c r="J524" s="1"/>
@@ -15582,7 +15582,7 @@
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
-      <c r="G525" s="11"/>
+      <c r="G525" s="10"/>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
@@ -15610,7 +15610,7 @@
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
-      <c r="G526" s="11"/>
+      <c r="G526" s="10"/>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
@@ -15638,7 +15638,7 @@
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
-      <c r="G527" s="11"/>
+      <c r="G527" s="10"/>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
@@ -15666,7 +15666,7 @@
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
-      <c r="G528" s="11"/>
+      <c r="G528" s="10"/>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
@@ -15694,7 +15694,7 @@
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
-      <c r="G529" s="11"/>
+      <c r="G529" s="10"/>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
@@ -15722,7 +15722,7 @@
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
-      <c r="G530" s="11"/>
+      <c r="G530" s="10"/>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
@@ -15750,7 +15750,7 @@
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
-      <c r="G531" s="11"/>
+      <c r="G531" s="10"/>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
@@ -15778,7 +15778,7 @@
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
-      <c r="G532" s="11"/>
+      <c r="G532" s="10"/>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
@@ -15806,7 +15806,7 @@
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
-      <c r="G533" s="11"/>
+      <c r="G533" s="10"/>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
@@ -15834,7 +15834,7 @@
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
-      <c r="G534" s="11"/>
+      <c r="G534" s="10"/>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
@@ -15862,7 +15862,7 @@
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
-      <c r="G535" s="11"/>
+      <c r="G535" s="10"/>
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
@@ -15890,7 +15890,7 @@
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
-      <c r="G536" s="11"/>
+      <c r="G536" s="10"/>
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -15918,7 +15918,7 @@
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
-      <c r="G537" s="11"/>
+      <c r="G537" s="10"/>
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -15946,7 +15946,7 @@
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
-      <c r="G538" s="11"/>
+      <c r="G538" s="10"/>
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -15974,7 +15974,7 @@
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
-      <c r="G539" s="11"/>
+      <c r="G539" s="10"/>
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -16002,7 +16002,7 @@
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
-      <c r="G540" s="11"/>
+      <c r="G540" s="10"/>
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -16030,7 +16030,7 @@
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
-      <c r="G541" s="11"/>
+      <c r="G541" s="10"/>
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -16058,7 +16058,7 @@
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
-      <c r="G542" s="11"/>
+      <c r="G542" s="10"/>
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -16086,7 +16086,7 @@
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
-      <c r="G543" s="11"/>
+      <c r="G543" s="10"/>
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -16114,7 +16114,7 @@
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
-      <c r="G544" s="11"/>
+      <c r="G544" s="10"/>
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -16142,7 +16142,7 @@
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
-      <c r="G545" s="11"/>
+      <c r="G545" s="10"/>
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -16170,7 +16170,7 @@
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
-      <c r="G546" s="11"/>
+      <c r="G546" s="10"/>
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -16198,7 +16198,7 @@
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
-      <c r="G547" s="11"/>
+      <c r="G547" s="10"/>
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -16226,7 +16226,7 @@
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
-      <c r="G548" s="11"/>
+      <c r="G548" s="10"/>
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -16254,7 +16254,7 @@
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
-      <c r="G549" s="11"/>
+      <c r="G549" s="10"/>
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -16282,7 +16282,7 @@
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
-      <c r="G550" s="11"/>
+      <c r="G550" s="10"/>
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -16310,7 +16310,7 @@
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
-      <c r="G551" s="11"/>
+      <c r="G551" s="10"/>
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -16338,7 +16338,7 @@
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
-      <c r="G552" s="11"/>
+      <c r="G552" s="10"/>
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
@@ -16366,7 +16366,7 @@
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
-      <c r="G553" s="11"/>
+      <c r="G553" s="10"/>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
@@ -16394,7 +16394,7 @@
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
-      <c r="G554" s="11"/>
+      <c r="G554" s="10"/>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
@@ -16422,7 +16422,7 @@
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
-      <c r="G555" s="11"/>
+      <c r="G555" s="10"/>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
@@ -16450,7 +16450,7 @@
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
-      <c r="G556" s="11"/>
+      <c r="G556" s="10"/>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
@@ -16478,7 +16478,7 @@
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
-      <c r="G557" s="11"/>
+      <c r="G557" s="10"/>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
@@ -16506,7 +16506,7 @@
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
-      <c r="G558" s="11"/>
+      <c r="G558" s="10"/>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
@@ -16534,7 +16534,7 @@
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
-      <c r="G559" s="11"/>
+      <c r="G559" s="10"/>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
@@ -16562,7 +16562,7 @@
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
-      <c r="G560" s="11"/>
+      <c r="G560" s="10"/>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
@@ -16590,7 +16590,7 @@
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
-      <c r="G561" s="11"/>
+      <c r="G561" s="10"/>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
@@ -16618,7 +16618,7 @@
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
-      <c r="G562" s="11"/>
+      <c r="G562" s="10"/>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
@@ -16646,7 +16646,7 @@
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
-      <c r="G563" s="11"/>
+      <c r="G563" s="10"/>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
@@ -16674,7 +16674,7 @@
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
-      <c r="G564" s="11"/>
+      <c r="G564" s="10"/>
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
@@ -16702,7 +16702,7 @@
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
-      <c r="G565" s="11"/>
+      <c r="G565" s="10"/>
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -16730,7 +16730,7 @@
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
-      <c r="G566" s="11"/>
+      <c r="G566" s="10"/>
       <c r="H566" s="1"/>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -16758,7 +16758,7 @@
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
-      <c r="G567" s="11"/>
+      <c r="G567" s="10"/>
       <c r="H567" s="1"/>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -16786,7 +16786,7 @@
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
-      <c r="G568" s="11"/>
+      <c r="G568" s="10"/>
       <c r="H568" s="1"/>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -16814,7 +16814,7 @@
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
-      <c r="G569" s="11"/>
+      <c r="G569" s="10"/>
       <c r="H569" s="1"/>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -16842,7 +16842,7 @@
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
-      <c r="G570" s="11"/>
+      <c r="G570" s="10"/>
       <c r="H570" s="1"/>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -16870,7 +16870,7 @@
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
-      <c r="G571" s="11"/>
+      <c r="G571" s="10"/>
       <c r="H571" s="1"/>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -16898,7 +16898,7 @@
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
-      <c r="G572" s="11"/>
+      <c r="G572" s="10"/>
       <c r="H572" s="1"/>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -16926,7 +16926,7 @@
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
-      <c r="G573" s="11"/>
+      <c r="G573" s="10"/>
       <c r="H573" s="1"/>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -16954,7 +16954,7 @@
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
-      <c r="G574" s="11"/>
+      <c r="G574" s="10"/>
       <c r="H574" s="1"/>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -16982,7 +16982,7 @@
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
-      <c r="G575" s="11"/>
+      <c r="G575" s="10"/>
       <c r="H575" s="1"/>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -17010,7 +17010,7 @@
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
-      <c r="G576" s="11"/>
+      <c r="G576" s="10"/>
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -17038,7 +17038,7 @@
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
-      <c r="G577" s="11"/>
+      <c r="G577" s="10"/>
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -17066,7 +17066,7 @@
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
-      <c r="G578" s="11"/>
+      <c r="G578" s="10"/>
       <c r="H578" s="1"/>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -17094,7 +17094,7 @@
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
-      <c r="G579" s="11"/>
+      <c r="G579" s="10"/>
       <c r="H579" s="1"/>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -17122,7 +17122,7 @@
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
-      <c r="G580" s="11"/>
+      <c r="G580" s="10"/>
       <c r="H580" s="1"/>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -17150,7 +17150,7 @@
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
-      <c r="G581" s="11"/>
+      <c r="G581" s="10"/>
       <c r="H581" s="1"/>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
@@ -17178,7 +17178,7 @@
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
-      <c r="G582" s="11"/>
+      <c r="G582" s="10"/>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
@@ -17206,7 +17206,7 @@
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
-      <c r="G583" s="11"/>
+      <c r="G583" s="10"/>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
@@ -17234,7 +17234,7 @@
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
-      <c r="G584" s="11"/>
+      <c r="G584" s="10"/>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
@@ -17262,7 +17262,7 @@
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
-      <c r="G585" s="11"/>
+      <c r="G585" s="10"/>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
@@ -17290,7 +17290,7 @@
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
-      <c r="G586" s="11"/>
+      <c r="G586" s="10"/>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
@@ -17318,7 +17318,7 @@
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
-      <c r="G587" s="11"/>
+      <c r="G587" s="10"/>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
@@ -17346,7 +17346,7 @@
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
-      <c r="G588" s="11"/>
+      <c r="G588" s="10"/>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
@@ -17374,7 +17374,7 @@
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
-      <c r="G589" s="11"/>
+      <c r="G589" s="10"/>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
@@ -17402,7 +17402,7 @@
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
-      <c r="G590" s="11"/>
+      <c r="G590" s="10"/>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
@@ -17430,7 +17430,7 @@
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
-      <c r="G591" s="11"/>
+      <c r="G591" s="10"/>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
@@ -17458,7 +17458,7 @@
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
-      <c r="G592" s="11"/>
+      <c r="G592" s="10"/>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
@@ -17486,7 +17486,7 @@
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
-      <c r="G593" s="11"/>
+      <c r="G593" s="10"/>
       <c r="H593" s="1"/>
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
@@ -17514,7 +17514,7 @@
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
-      <c r="G594" s="11"/>
+      <c r="G594" s="10"/>
       <c r="H594" s="1"/>
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
@@ -17542,7 +17542,7 @@
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
-      <c r="G595" s="11"/>
+      <c r="G595" s="10"/>
       <c r="H595" s="1"/>
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
@@ -17570,7 +17570,7 @@
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
-      <c r="G596" s="11"/>
+      <c r="G596" s="10"/>
       <c r="H596" s="1"/>
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
@@ -17598,7 +17598,7 @@
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
-      <c r="G597" s="11"/>
+      <c r="G597" s="10"/>
       <c r="H597" s="1"/>
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
@@ -17626,7 +17626,7 @@
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
-      <c r="G598" s="11"/>
+      <c r="G598" s="10"/>
       <c r="H598" s="1"/>
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
@@ -17654,7 +17654,7 @@
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
-      <c r="G599" s="11"/>
+      <c r="G599" s="10"/>
       <c r="H599" s="1"/>
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
@@ -17682,7 +17682,7 @@
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
-      <c r="G600" s="11"/>
+      <c r="G600" s="10"/>
       <c r="H600" s="1"/>
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
@@ -17710,7 +17710,7 @@
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
-      <c r="G601" s="11"/>
+      <c r="G601" s="10"/>
       <c r="H601" s="1"/>
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
@@ -17738,7 +17738,7 @@
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
-      <c r="G602" s="11"/>
+      <c r="G602" s="10"/>
       <c r="H602" s="1"/>
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
@@ -17766,7 +17766,7 @@
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
-      <c r="G603" s="11"/>
+      <c r="G603" s="10"/>
       <c r="H603" s="1"/>
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
@@ -17794,7 +17794,7 @@
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
-      <c r="G604" s="11"/>
+      <c r="G604" s="10"/>
       <c r="H604" s="1"/>
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
@@ -17822,7 +17822,7 @@
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
-      <c r="G605" s="11"/>
+      <c r="G605" s="10"/>
       <c r="H605" s="1"/>
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
@@ -17850,7 +17850,7 @@
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
-      <c r="G606" s="11"/>
+      <c r="G606" s="10"/>
       <c r="H606" s="1"/>
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
@@ -17878,7 +17878,7 @@
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
-      <c r="G607" s="11"/>
+      <c r="G607" s="10"/>
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
@@ -17906,7 +17906,7 @@
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
-      <c r="G608" s="11"/>
+      <c r="G608" s="10"/>
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
@@ -17934,7 +17934,7 @@
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
-      <c r="G609" s="11"/>
+      <c r="G609" s="10"/>
       <c r="H609" s="1"/>
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
@@ -17962,7 +17962,7 @@
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
-      <c r="G610" s="11"/>
+      <c r="G610" s="10"/>
       <c r="H610" s="1"/>
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
@@ -17990,7 +17990,7 @@
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
-      <c r="G611" s="11"/>
+      <c r="G611" s="10"/>
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
@@ -18018,7 +18018,7 @@
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
-      <c r="G612" s="11"/>
+      <c r="G612" s="10"/>
       <c r="H612" s="1"/>
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
@@ -18046,7 +18046,7 @@
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
-      <c r="G613" s="11"/>
+      <c r="G613" s="10"/>
       <c r="H613" s="1"/>
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
@@ -18074,7 +18074,7 @@
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
-      <c r="G614" s="11"/>
+      <c r="G614" s="10"/>
       <c r="H614" s="1"/>
       <c r="I614" s="1"/>
       <c r="J614" s="1"/>
@@ -18102,7 +18102,7 @@
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
-      <c r="G615" s="11"/>
+      <c r="G615" s="10"/>
       <c r="H615" s="1"/>
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
@@ -18130,7 +18130,7 @@
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
-      <c r="G616" s="11"/>
+      <c r="G616" s="10"/>
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
@@ -18158,7 +18158,7 @@
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
-      <c r="G617" s="11"/>
+      <c r="G617" s="10"/>
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
@@ -18186,7 +18186,7 @@
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
-      <c r="G618" s="11"/>
+      <c r="G618" s="10"/>
       <c r="H618" s="1"/>
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
@@ -18214,7 +18214,7 @@
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
-      <c r="G619" s="11"/>
+      <c r="G619" s="10"/>
       <c r="H619" s="1"/>
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
@@ -18242,7 +18242,7 @@
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
-      <c r="G620" s="11"/>
+      <c r="G620" s="10"/>
       <c r="H620" s="1"/>
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
@@ -18270,7 +18270,7 @@
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
-      <c r="G621" s="11"/>
+      <c r="G621" s="10"/>
       <c r="H621" s="1"/>
       <c r="I621" s="1"/>
       <c r="J621" s="1"/>
@@ -18298,7 +18298,7 @@
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
-      <c r="G622" s="11"/>
+      <c r="G622" s="10"/>
       <c r="H622" s="1"/>
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
@@ -18326,7 +18326,7 @@
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
-      <c r="G623" s="11"/>
+      <c r="G623" s="10"/>
       <c r="H623" s="1"/>
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
@@ -18354,7 +18354,7 @@
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
-      <c r="G624" s="11"/>
+      <c r="G624" s="10"/>
       <c r="H624" s="1"/>
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
@@ -18382,7 +18382,7 @@
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
-      <c r="G625" s="11"/>
+      <c r="G625" s="10"/>
       <c r="H625" s="1"/>
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
@@ -18410,7 +18410,7 @@
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
-      <c r="G626" s="11"/>
+      <c r="G626" s="10"/>
       <c r="H626" s="1"/>
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
@@ -18438,7 +18438,7 @@
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
-      <c r="G627" s="11"/>
+      <c r="G627" s="10"/>
       <c r="H627" s="1"/>
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
@@ -18466,7 +18466,7 @@
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
-      <c r="G628" s="11"/>
+      <c r="G628" s="10"/>
       <c r="H628" s="1"/>
       <c r="I628" s="1"/>
       <c r="J628" s="1"/>
@@ -18494,7 +18494,7 @@
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
-      <c r="G629" s="11"/>
+      <c r="G629" s="10"/>
       <c r="H629" s="1"/>
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
@@ -18522,7 +18522,7 @@
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
-      <c r="G630" s="11"/>
+      <c r="G630" s="10"/>
       <c r="H630" s="1"/>
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
@@ -18550,7 +18550,7 @@
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
-      <c r="G631" s="11"/>
+      <c r="G631" s="10"/>
       <c r="H631" s="1"/>
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
@@ -18578,7 +18578,7 @@
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
-      <c r="G632" s="11"/>
+      <c r="G632" s="10"/>
       <c r="H632" s="1"/>
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
@@ -18606,7 +18606,7 @@
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
-      <c r="G633" s="11"/>
+      <c r="G633" s="10"/>
       <c r="H633" s="1"/>
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
@@ -18634,7 +18634,7 @@
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
-      <c r="G634" s="11"/>
+      <c r="G634" s="10"/>
       <c r="H634" s="1"/>
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
@@ -18662,7 +18662,7 @@
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
-      <c r="G635" s="11"/>
+      <c r="G635" s="10"/>
       <c r="H635" s="1"/>
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
@@ -18690,7 +18690,7 @@
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
-      <c r="G636" s="11"/>
+      <c r="G636" s="10"/>
       <c r="H636" s="1"/>
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
@@ -18718,7 +18718,7 @@
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
-      <c r="G637" s="11"/>
+      <c r="G637" s="10"/>
       <c r="H637" s="1"/>
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
@@ -18746,7 +18746,7 @@
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
-      <c r="G638" s="11"/>
+      <c r="G638" s="10"/>
       <c r="H638" s="1"/>
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
@@ -18774,7 +18774,7 @@
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
-      <c r="G639" s="11"/>
+      <c r="G639" s="10"/>
       <c r="H639" s="1"/>
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
@@ -18802,7 +18802,7 @@
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
-      <c r="G640" s="11"/>
+      <c r="G640" s="10"/>
       <c r="H640" s="1"/>
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
@@ -18830,7 +18830,7 @@
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
-      <c r="G641" s="11"/>
+      <c r="G641" s="10"/>
       <c r="H641" s="1"/>
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
@@ -18858,7 +18858,7 @@
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
-      <c r="G642" s="11"/>
+      <c r="G642" s="10"/>
       <c r="H642" s="1"/>
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
@@ -18886,7 +18886,7 @@
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
-      <c r="G643" s="11"/>
+      <c r="G643" s="10"/>
       <c r="H643" s="1"/>
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
@@ -18914,7 +18914,7 @@
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
-      <c r="G644" s="11"/>
+      <c r="G644" s="10"/>
       <c r="H644" s="1"/>
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
@@ -18942,7 +18942,7 @@
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
-      <c r="G645" s="11"/>
+      <c r="G645" s="10"/>
       <c r="H645" s="1"/>
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
@@ -18970,7 +18970,7 @@
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
-      <c r="G646" s="11"/>
+      <c r="G646" s="10"/>
       <c r="H646" s="1"/>
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
@@ -18998,7 +18998,7 @@
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
-      <c r="G647" s="11"/>
+      <c r="G647" s="10"/>
       <c r="H647" s="1"/>
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
@@ -19026,7 +19026,7 @@
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
-      <c r="G648" s="11"/>
+      <c r="G648" s="10"/>
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
@@ -19054,7 +19054,7 @@
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
-      <c r="G649" s="11"/>
+      <c r="G649" s="10"/>
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
@@ -19082,7 +19082,7 @@
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
-      <c r="G650" s="11"/>
+      <c r="G650" s="10"/>
       <c r="H650" s="1"/>
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
@@ -19110,7 +19110,7 @@
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
-      <c r="G651" s="11"/>
+      <c r="G651" s="10"/>
       <c r="H651" s="1"/>
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
@@ -19138,7 +19138,7 @@
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
-      <c r="G652" s="11"/>
+      <c r="G652" s="10"/>
       <c r="H652" s="1"/>
       <c r="I652" s="1"/>
       <c r="J652" s="1"/>
@@ -19166,7 +19166,7 @@
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
-      <c r="G653" s="11"/>
+      <c r="G653" s="10"/>
       <c r="H653" s="1"/>
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
@@ -19194,7 +19194,7 @@
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
-      <c r="G654" s="11"/>
+      <c r="G654" s="10"/>
       <c r="H654" s="1"/>
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
@@ -19222,7 +19222,7 @@
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
-      <c r="G655" s="11"/>
+      <c r="G655" s="10"/>
       <c r="H655" s="1"/>
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
@@ -19250,7 +19250,7 @@
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
-      <c r="G656" s="11"/>
+      <c r="G656" s="10"/>
       <c r="H656" s="1"/>
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
@@ -19278,7 +19278,7 @@
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
-      <c r="G657" s="11"/>
+      <c r="G657" s="10"/>
       <c r="H657" s="1"/>
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
@@ -19306,7 +19306,7 @@
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
-      <c r="G658" s="11"/>
+      <c r="G658" s="10"/>
       <c r="H658" s="1"/>
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
@@ -19334,7 +19334,7 @@
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
-      <c r="G659" s="11"/>
+      <c r="G659" s="10"/>
       <c r="H659" s="1"/>
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
@@ -19362,7 +19362,7 @@
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
-      <c r="G660" s="11"/>
+      <c r="G660" s="10"/>
       <c r="H660" s="1"/>
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
@@ -19390,7 +19390,7 @@
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
-      <c r="G661" s="11"/>
+      <c r="G661" s="10"/>
       <c r="H661" s="1"/>
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
@@ -19418,7 +19418,7 @@
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
-      <c r="G662" s="11"/>
+      <c r="G662" s="10"/>
       <c r="H662" s="1"/>
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
@@ -19446,7 +19446,7 @@
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
-      <c r="G663" s="11"/>
+      <c r="G663" s="10"/>
       <c r="H663" s="1"/>
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
@@ -19474,7 +19474,7 @@
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
-      <c r="G664" s="11"/>
+      <c r="G664" s="10"/>
       <c r="H664" s="1"/>
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
@@ -19502,7 +19502,7 @@
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
-      <c r="G665" s="11"/>
+      <c r="G665" s="10"/>
       <c r="H665" s="1"/>
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
@@ -19530,7 +19530,7 @@
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
-      <c r="G666" s="11"/>
+      <c r="G666" s="10"/>
       <c r="H666" s="1"/>
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
@@ -19558,7 +19558,7 @@
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
-      <c r="G667" s="11"/>
+      <c r="G667" s="10"/>
       <c r="H667" s="1"/>
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
@@ -19586,7 +19586,7 @@
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
-      <c r="G668" s="11"/>
+      <c r="G668" s="10"/>
       <c r="H668" s="1"/>
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
@@ -19614,7 +19614,7 @@
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
-      <c r="G669" s="11"/>
+      <c r="G669" s="10"/>
       <c r="H669" s="1"/>
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
@@ -19642,7 +19642,7 @@
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
-      <c r="G670" s="11"/>
+      <c r="G670" s="10"/>
       <c r="H670" s="1"/>
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
@@ -19670,7 +19670,7 @@
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
-      <c r="G671" s="11"/>
+      <c r="G671" s="10"/>
       <c r="H671" s="1"/>
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
@@ -19698,7 +19698,7 @@
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
-      <c r="G672" s="11"/>
+      <c r="G672" s="10"/>
       <c r="H672" s="1"/>
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
@@ -19726,7 +19726,7 @@
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
-      <c r="G673" s="11"/>
+      <c r="G673" s="10"/>
       <c r="H673" s="1"/>
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
@@ -19754,7 +19754,7 @@
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
-      <c r="G674" s="11"/>
+      <c r="G674" s="10"/>
       <c r="H674" s="1"/>
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
@@ -19782,7 +19782,7 @@
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
-      <c r="G675" s="11"/>
+      <c r="G675" s="10"/>
       <c r="H675" s="1"/>
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
@@ -19810,7 +19810,7 @@
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
-      <c r="G676" s="11"/>
+      <c r="G676" s="10"/>
       <c r="H676" s="1"/>
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
@@ -19838,7 +19838,7 @@
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
-      <c r="G677" s="11"/>
+      <c r="G677" s="10"/>
       <c r="H677" s="1"/>
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
@@ -19866,7 +19866,7 @@
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
-      <c r="G678" s="11"/>
+      <c r="G678" s="10"/>
       <c r="H678" s="1"/>
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
@@ -19894,7 +19894,7 @@
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
-      <c r="G679" s="11"/>
+      <c r="G679" s="10"/>
       <c r="H679" s="1"/>
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
@@ -19922,7 +19922,7 @@
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
-      <c r="G680" s="11"/>
+      <c r="G680" s="10"/>
       <c r="H680" s="1"/>
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
@@ -19950,7 +19950,7 @@
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
-      <c r="G681" s="11"/>
+      <c r="G681" s="10"/>
       <c r="H681" s="1"/>
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
@@ -19978,7 +19978,7 @@
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
-      <c r="G682" s="11"/>
+      <c r="G682" s="10"/>
       <c r="H682" s="1"/>
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
@@ -20006,7 +20006,7 @@
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
-      <c r="G683" s="11"/>
+      <c r="G683" s="10"/>
       <c r="H683" s="1"/>
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
@@ -20034,7 +20034,7 @@
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
-      <c r="G684" s="11"/>
+      <c r="G684" s="10"/>
       <c r="H684" s="1"/>
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
@@ -20062,7 +20062,7 @@
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
-      <c r="G685" s="11"/>
+      <c r="G685" s="10"/>
       <c r="H685" s="1"/>
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
@@ -20090,7 +20090,7 @@
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
-      <c r="G686" s="11"/>
+      <c r="G686" s="10"/>
       <c r="H686" s="1"/>
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
@@ -20118,7 +20118,7 @@
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
-      <c r="G687" s="11"/>
+      <c r="G687" s="10"/>
       <c r="H687" s="1"/>
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
@@ -20146,7 +20146,7 @@
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
-      <c r="G688" s="11"/>
+      <c r="G688" s="10"/>
       <c r="H688" s="1"/>
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
@@ -20174,7 +20174,7 @@
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
-      <c r="G689" s="11"/>
+      <c r="G689" s="10"/>
       <c r="H689" s="1"/>
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
@@ -20202,7 +20202,7 @@
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
-      <c r="G690" s="11"/>
+      <c r="G690" s="10"/>
       <c r="H690" s="1"/>
       <c r="I690" s="1"/>
       <c r="J690" s="1"/>
@@ -20230,7 +20230,7 @@
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
-      <c r="G691" s="11"/>
+      <c r="G691" s="10"/>
       <c r="H691" s="1"/>
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
@@ -20258,7 +20258,7 @@
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
-      <c r="G692" s="11"/>
+      <c r="G692" s="10"/>
       <c r="H692" s="1"/>
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
@@ -20286,7 +20286,7 @@
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
-      <c r="G693" s="11"/>
+      <c r="G693" s="10"/>
       <c r="H693" s="1"/>
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
@@ -20314,7 +20314,7 @@
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
-      <c r="G694" s="11"/>
+      <c r="G694" s="10"/>
       <c r="H694" s="1"/>
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
@@ -20342,7 +20342,7 @@
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
-      <c r="G695" s="11"/>
+      <c r="G695" s="10"/>
       <c r="H695" s="1"/>
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
@@ -20370,7 +20370,7 @@
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
-      <c r="G696" s="11"/>
+      <c r="G696" s="10"/>
       <c r="H696" s="1"/>
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
@@ -20398,7 +20398,7 @@
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
-      <c r="G697" s="11"/>
+      <c r="G697" s="10"/>
       <c r="H697" s="1"/>
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
@@ -20426,7 +20426,7 @@
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
-      <c r="G698" s="11"/>
+      <c r="G698" s="10"/>
       <c r="H698" s="1"/>
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
@@ -20454,7 +20454,7 @@
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
-      <c r="G699" s="11"/>
+      <c r="G699" s="10"/>
       <c r="H699" s="1"/>
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
@@ -20482,7 +20482,7 @@
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
-      <c r="G700" s="11"/>
+      <c r="G700" s="10"/>
       <c r="H700" s="1"/>
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
@@ -20510,7 +20510,7 @@
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
-      <c r="G701" s="11"/>
+      <c r="G701" s="10"/>
       <c r="H701" s="1"/>
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
@@ -20538,7 +20538,7 @@
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
-      <c r="G702" s="11"/>
+      <c r="G702" s="10"/>
       <c r="H702" s="1"/>
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
@@ -20566,7 +20566,7 @@
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
-      <c r="G703" s="11"/>
+      <c r="G703" s="10"/>
       <c r="H703" s="1"/>
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
@@ -20594,7 +20594,7 @@
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
-      <c r="G704" s="11"/>
+      <c r="G704" s="10"/>
       <c r="H704" s="1"/>
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
@@ -20622,7 +20622,7 @@
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
-      <c r="G705" s="11"/>
+      <c r="G705" s="10"/>
       <c r="H705" s="1"/>
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
@@ -20650,7 +20650,7 @@
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
-      <c r="G706" s="11"/>
+      <c r="G706" s="10"/>
       <c r="H706" s="1"/>
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
@@ -20678,7 +20678,7 @@
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
-      <c r="G707" s="11"/>
+      <c r="G707" s="10"/>
       <c r="H707" s="1"/>
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
@@ -20706,7 +20706,7 @@
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
-      <c r="G708" s="11"/>
+      <c r="G708" s="10"/>
       <c r="H708" s="1"/>
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
@@ -20734,7 +20734,7 @@
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
-      <c r="G709" s="11"/>
+      <c r="G709" s="10"/>
       <c r="H709" s="1"/>
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
@@ -20762,7 +20762,7 @@
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
-      <c r="G710" s="11"/>
+      <c r="G710" s="10"/>
       <c r="H710" s="1"/>
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
@@ -20790,7 +20790,7 @@
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
-      <c r="G711" s="11"/>
+      <c r="G711" s="10"/>
       <c r="H711" s="1"/>
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
@@ -20818,7 +20818,7 @@
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
-      <c r="G712" s="11"/>
+      <c r="G712" s="10"/>
       <c r="H712" s="1"/>
       <c r="I712" s="1"/>
       <c r="J712" s="1"/>
@@ -20846,7 +20846,7 @@
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
-      <c r="G713" s="11"/>
+      <c r="G713" s="10"/>
       <c r="H713" s="1"/>
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
@@ -20874,7 +20874,7 @@
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
-      <c r="G714" s="11"/>
+      <c r="G714" s="10"/>
       <c r="H714" s="1"/>
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
@@ -20902,7 +20902,7 @@
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
-      <c r="G715" s="11"/>
+      <c r="G715" s="10"/>
       <c r="H715" s="1"/>
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
@@ -20930,7 +20930,7 @@
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
-      <c r="G716" s="11"/>
+      <c r="G716" s="10"/>
       <c r="H716" s="1"/>
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
@@ -20958,7 +20958,7 @@
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
-      <c r="G717" s="11"/>
+      <c r="G717" s="10"/>
       <c r="H717" s="1"/>
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
@@ -20986,7 +20986,7 @@
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
-      <c r="G718" s="11"/>
+      <c r="G718" s="10"/>
       <c r="H718" s="1"/>
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
@@ -21014,7 +21014,7 @@
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
-      <c r="G719" s="11"/>
+      <c r="G719" s="10"/>
       <c r="H719" s="1"/>
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
@@ -21042,7 +21042,7 @@
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
-      <c r="G720" s="11"/>
+      <c r="G720" s="10"/>
       <c r="H720" s="1"/>
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
@@ -21070,7 +21070,7 @@
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
-      <c r="G721" s="11"/>
+      <c r="G721" s="10"/>
       <c r="H721" s="1"/>
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
@@ -21098,7 +21098,7 @@
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
-      <c r="G722" s="11"/>
+      <c r="G722" s="10"/>
       <c r="H722" s="1"/>
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
@@ -21126,7 +21126,7 @@
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
-      <c r="G723" s="11"/>
+      <c r="G723" s="10"/>
       <c r="H723" s="1"/>
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
@@ -21154,7 +21154,7 @@
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
-      <c r="G724" s="11"/>
+      <c r="G724" s="10"/>
       <c r="H724" s="1"/>
       <c r="I724" s="1"/>
       <c r="J724" s="1"/>
@@ -21182,7 +21182,7 @@
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
-      <c r="G725" s="11"/>
+      <c r="G725" s="10"/>
       <c r="H725" s="1"/>
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
@@ -21210,7 +21210,7 @@
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
-      <c r="G726" s="11"/>
+      <c r="G726" s="10"/>
       <c r="H726" s="1"/>
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
@@ -21238,7 +21238,7 @@
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
-      <c r="G727" s="11"/>
+      <c r="G727" s="10"/>
       <c r="H727" s="1"/>
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
@@ -21266,7 +21266,7 @@
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
-      <c r="G728" s="11"/>
+      <c r="G728" s="10"/>
       <c r="H728" s="1"/>
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
@@ -21294,7 +21294,7 @@
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
-      <c r="G729" s="11"/>
+      <c r="G729" s="10"/>
       <c r="H729" s="1"/>
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
@@ -21322,7 +21322,7 @@
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
-      <c r="G730" s="11"/>
+      <c r="G730" s="10"/>
       <c r="H730" s="1"/>
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
@@ -21350,7 +21350,7 @@
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
-      <c r="G731" s="11"/>
+      <c r="G731" s="10"/>
       <c r="H731" s="1"/>
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
@@ -21378,7 +21378,7 @@
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
-      <c r="G732" s="11"/>
+      <c r="G732" s="10"/>
       <c r="H732" s="1"/>
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
@@ -21406,7 +21406,7 @@
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
-      <c r="G733" s="11"/>
+      <c r="G733" s="10"/>
       <c r="H733" s="1"/>
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
@@ -21434,7 +21434,7 @@
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
-      <c r="G734" s="11"/>
+      <c r="G734" s="10"/>
       <c r="H734" s="1"/>
       <c r="I734" s="1"/>
       <c r="J734" s="1"/>
@@ -21462,7 +21462,7 @@
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
-      <c r="G735" s="11"/>
+      <c r="G735" s="10"/>
       <c r="H735" s="1"/>
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
@@ -21490,7 +21490,7 @@
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
-      <c r="G736" s="11"/>
+      <c r="G736" s="10"/>
       <c r="H736" s="1"/>
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
@@ -21518,7 +21518,7 @@
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
-      <c r="G737" s="11"/>
+      <c r="G737" s="10"/>
       <c r="H737" s="1"/>
       <c r="I737" s="1"/>
       <c r="J737" s="1"/>
@@ -21546,7 +21546,7 @@
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
-      <c r="G738" s="11"/>
+      <c r="G738" s="10"/>
       <c r="H738" s="1"/>
       <c r="I738" s="1"/>
       <c r="J738" s="1"/>
@@ -21574,7 +21574,7 @@
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
-      <c r="G739" s="11"/>
+      <c r="G739" s="10"/>
       <c r="H739" s="1"/>
       <c r="I739" s="1"/>
       <c r="J739" s="1"/>
@@ -21602,7 +21602,7 @@
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
-      <c r="G740" s="11"/>
+      <c r="G740" s="10"/>
       <c r="H740" s="1"/>
       <c r="I740" s="1"/>
       <c r="J740" s="1"/>
@@ -21630,7 +21630,7 @@
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
-      <c r="G741" s="11"/>
+      <c r="G741" s="10"/>
       <c r="H741" s="1"/>
       <c r="I741" s="1"/>
       <c r="J741" s="1"/>
@@ -21658,7 +21658,7 @@
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
-      <c r="G742" s="11"/>
+      <c r="G742" s="10"/>
       <c r="H742" s="1"/>
       <c r="I742" s="1"/>
       <c r="J742" s="1"/>
@@ -21686,7 +21686,7 @@
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
-      <c r="G743" s="11"/>
+      <c r="G743" s="10"/>
       <c r="H743" s="1"/>
       <c r="I743" s="1"/>
       <c r="J743" s="1"/>
@@ -21714,7 +21714,7 @@
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
-      <c r="G744" s="11"/>
+      <c r="G744" s="10"/>
       <c r="H744" s="1"/>
       <c r="I744" s="1"/>
       <c r="J744" s="1"/>
@@ -21742,7 +21742,7 @@
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
-      <c r="G745" s="11"/>
+      <c r="G745" s="10"/>
       <c r="H745" s="1"/>
       <c r="I745" s="1"/>
       <c r="J745" s="1"/>
@@ -21770,7 +21770,7 @@
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
-      <c r="G746" s="11"/>
+      <c r="G746" s="10"/>
       <c r="H746" s="1"/>
       <c r="I746" s="1"/>
       <c r="J746" s="1"/>
@@ -21798,7 +21798,7 @@
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
-      <c r="G747" s="11"/>
+      <c r="G747" s="10"/>
       <c r="H747" s="1"/>
       <c r="I747" s="1"/>
       <c r="J747" s="1"/>
@@ -21826,7 +21826,7 @@
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
-      <c r="G748" s="11"/>
+      <c r="G748" s="10"/>
       <c r="H748" s="1"/>
       <c r="I748" s="1"/>
       <c r="J748" s="1"/>
@@ -21854,7 +21854,7 @@
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
-      <c r="G749" s="11"/>
+      <c r="G749" s="10"/>
       <c r="H749" s="1"/>
       <c r="I749" s="1"/>
       <c r="J749" s="1"/>
@@ -21882,7 +21882,7 @@
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
-      <c r="G750" s="11"/>
+      <c r="G750" s="10"/>
       <c r="H750" s="1"/>
       <c r="I750" s="1"/>
       <c r="J750" s="1"/>
@@ -21910,7 +21910,7 @@
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
-      <c r="G751" s="11"/>
+      <c r="G751" s="10"/>
       <c r="H751" s="1"/>
       <c r="I751" s="1"/>
       <c r="J751" s="1"/>
@@ -21938,7 +21938,7 @@
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
-      <c r="G752" s="11"/>
+      <c r="G752" s="10"/>
       <c r="H752" s="1"/>
       <c r="I752" s="1"/>
       <c r="J752" s="1"/>
@@ -21966,7 +21966,7 @@
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
-      <c r="G753" s="11"/>
+      <c r="G753" s="10"/>
       <c r="H753" s="1"/>
       <c r="I753" s="1"/>
       <c r="J753" s="1"/>
@@ -21994,7 +21994,7 @@
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
-      <c r="G754" s="11"/>
+      <c r="G754" s="10"/>
       <c r="H754" s="1"/>
       <c r="I754" s="1"/>
       <c r="J754" s="1"/>
@@ -22022,7 +22022,7 @@
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
-      <c r="G755" s="11"/>
+      <c r="G755" s="10"/>
       <c r="H755" s="1"/>
       <c r="I755" s="1"/>
       <c r="J755" s="1"/>
@@ -22050,7 +22050,7 @@
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
-      <c r="G756" s="11"/>
+      <c r="G756" s="10"/>
       <c r="H756" s="1"/>
       <c r="I756" s="1"/>
       <c r="J756" s="1"/>
@@ -22078,7 +22078,7 @@
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
-      <c r="G757" s="11"/>
+      <c r="G757" s="10"/>
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
       <c r="J757" s="1"/>
@@ -22106,7 +22106,7 @@
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
-      <c r="G758" s="11"/>
+      <c r="G758" s="10"/>
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
       <c r="J758" s="1"/>
@@ -22134,7 +22134,7 @@
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
-      <c r="G759" s="11"/>
+      <c r="G759" s="10"/>
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
       <c r="J759" s="1"/>
@@ -22162,7 +22162,7 @@
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
-      <c r="G760" s="11"/>
+      <c r="G760" s="10"/>
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
       <c r="J760" s="1"/>
@@ -22190,7 +22190,7 @@
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
-      <c r="G761" s="11"/>
+      <c r="G761" s="10"/>
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
       <c r="J761" s="1"/>
@@ -22218,7 +22218,7 @@
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
-      <c r="G762" s="11"/>
+      <c r="G762" s="10"/>
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
       <c r="J762" s="1"/>
@@ -22246,7 +22246,7 @@
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
-      <c r="G763" s="11"/>
+      <c r="G763" s="10"/>
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
       <c r="J763" s="1"/>
@@ -22274,7 +22274,7 @@
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
-      <c r="G764" s="11"/>
+      <c r="G764" s="10"/>
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
       <c r="J764" s="1"/>
@@ -22302,7 +22302,7 @@
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
-      <c r="G765" s="11"/>
+      <c r="G765" s="10"/>
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
       <c r="J765" s="1"/>
@@ -22330,7 +22330,7 @@
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
-      <c r="G766" s="11"/>
+      <c r="G766" s="10"/>
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
       <c r="J766" s="1"/>
@@ -22358,7 +22358,7 @@
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
-      <c r="G767" s="11"/>
+      <c r="G767" s="10"/>
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
       <c r="J767" s="1"/>
@@ -22386,7 +22386,7 @@
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
-      <c r="G768" s="11"/>
+      <c r="G768" s="10"/>
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
       <c r="J768" s="1"/>
@@ -22414,7 +22414,7 @@
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
-      <c r="G769" s="11"/>
+      <c r="G769" s="10"/>
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
       <c r="J769" s="1"/>
@@ -22442,7 +22442,7 @@
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
-      <c r="G770" s="11"/>
+      <c r="G770" s="10"/>
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
       <c r="J770" s="1"/>
@@ -22470,7 +22470,7 @@
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
-      <c r="G771" s="11"/>
+      <c r="G771" s="10"/>
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
       <c r="J771" s="1"/>
@@ -22498,7 +22498,7 @@
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
-      <c r="G772" s="11"/>
+      <c r="G772" s="10"/>
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
@@ -22526,7 +22526,7 @@
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
-      <c r="G773" s="11"/>
+      <c r="G773" s="10"/>
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
       <c r="J773" s="1"/>
@@ -22554,7 +22554,7 @@
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
-      <c r="G774" s="11"/>
+      <c r="G774" s="10"/>
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
       <c r="J774" s="1"/>
@@ -22582,7 +22582,7 @@
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
-      <c r="G775" s="11"/>
+      <c r="G775" s="10"/>
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
       <c r="J775" s="1"/>
@@ -22610,7 +22610,7 @@
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
-      <c r="G776" s="11"/>
+      <c r="G776" s="10"/>
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
       <c r="J776" s="1"/>
@@ -22638,7 +22638,7 @@
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
-      <c r="G777" s="11"/>
+      <c r="G777" s="10"/>
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
       <c r="J777" s="1"/>
@@ -22666,7 +22666,7 @@
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
-      <c r="G778" s="11"/>
+      <c r="G778" s="10"/>
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
       <c r="J778" s="1"/>
@@ -22694,7 +22694,7 @@
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
-      <c r="G779" s="11"/>
+      <c r="G779" s="10"/>
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
       <c r="J779" s="1"/>
@@ -22722,7 +22722,7 @@
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
-      <c r="G780" s="11"/>
+      <c r="G780" s="10"/>
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
       <c r="J780" s="1"/>
@@ -22750,7 +22750,7 @@
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
-      <c r="G781" s="11"/>
+      <c r="G781" s="10"/>
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
       <c r="J781" s="1"/>
@@ -22778,7 +22778,7 @@
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
-      <c r="G782" s="11"/>
+      <c r="G782" s="10"/>
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
       <c r="J782" s="1"/>
@@ -22806,7 +22806,7 @@
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
-      <c r="G783" s="11"/>
+      <c r="G783" s="10"/>
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
       <c r="J783" s="1"/>
@@ -22834,7 +22834,7 @@
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
-      <c r="G784" s="11"/>
+      <c r="G784" s="10"/>
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
       <c r="J784" s="1"/>
@@ -22862,7 +22862,7 @@
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
-      <c r="G785" s="11"/>
+      <c r="G785" s="10"/>
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
       <c r="J785" s="1"/>
@@ -22890,7 +22890,7 @@
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
-      <c r="G786" s="11"/>
+      <c r="G786" s="10"/>
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
       <c r="J786" s="1"/>
@@ -22918,7 +22918,7 @@
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
-      <c r="G787" s="11"/>
+      <c r="G787" s="10"/>
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
       <c r="J787" s="1"/>
@@ -22946,7 +22946,7 @@
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
-      <c r="G788" s="11"/>
+      <c r="G788" s="10"/>
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
       <c r="J788" s="1"/>
@@ -22974,7 +22974,7 @@
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
-      <c r="G789" s="11"/>
+      <c r="G789" s="10"/>
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
       <c r="J789" s="1"/>
@@ -23002,7 +23002,7 @@
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
-      <c r="G790" s="11"/>
+      <c r="G790" s="10"/>
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
       <c r="J790" s="1"/>
@@ -23030,7 +23030,7 @@
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
-      <c r="G791" s="11"/>
+      <c r="G791" s="10"/>
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
       <c r="J791" s="1"/>
@@ -23058,7 +23058,7 @@
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
-      <c r="G792" s="11"/>
+      <c r="G792" s="10"/>
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
       <c r="J792" s="1"/>
@@ -23086,7 +23086,7 @@
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
-      <c r="G793" s="11"/>
+      <c r="G793" s="10"/>
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
       <c r="J793" s="1"/>
@@ -23114,7 +23114,7 @@
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
-      <c r="G794" s="11"/>
+      <c r="G794" s="10"/>
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
       <c r="J794" s="1"/>
@@ -23142,7 +23142,7 @@
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
-      <c r="G795" s="11"/>
+      <c r="G795" s="10"/>
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
       <c r="J795" s="1"/>
@@ -23170,7 +23170,7 @@
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
-      <c r="G796" s="11"/>
+      <c r="G796" s="10"/>
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
       <c r="J796" s="1"/>
@@ -23198,7 +23198,7 @@
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
-      <c r="G797" s="11"/>
+      <c r="G797" s="10"/>
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
       <c r="J797" s="1"/>
@@ -23226,7 +23226,7 @@
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
-      <c r="G798" s="11"/>
+      <c r="G798" s="10"/>
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
       <c r="J798" s="1"/>
@@ -23254,7 +23254,7 @@
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
-      <c r="G799" s="11"/>
+      <c r="G799" s="10"/>
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
       <c r="J799" s="1"/>
@@ -23282,7 +23282,7 @@
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
-      <c r="G800" s="11"/>
+      <c r="G800" s="10"/>
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
       <c r="J800" s="1"/>
@@ -23310,7 +23310,7 @@
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
-      <c r="G801" s="11"/>
+      <c r="G801" s="10"/>
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
       <c r="J801" s="1"/>
@@ -23338,7 +23338,7 @@
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
-      <c r="G802" s="11"/>
+      <c r="G802" s="10"/>
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
       <c r="J802" s="1"/>
@@ -23366,7 +23366,7 @@
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
-      <c r="G803" s="11"/>
+      <c r="G803" s="10"/>
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
       <c r="J803" s="1"/>
@@ -23394,7 +23394,7 @@
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
-      <c r="G804" s="11"/>
+      <c r="G804" s="10"/>
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
       <c r="J804" s="1"/>
@@ -23422,7 +23422,7 @@
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
-      <c r="G805" s="11"/>
+      <c r="G805" s="10"/>
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
       <c r="J805" s="1"/>
@@ -23450,7 +23450,7 @@
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
-      <c r="G806" s="11"/>
+      <c r="G806" s="10"/>
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
       <c r="J806" s="1"/>
@@ -23478,7 +23478,7 @@
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
-      <c r="G807" s="11"/>
+      <c r="G807" s="10"/>
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
       <c r="J807" s="1"/>
@@ -23506,7 +23506,7 @@
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
-      <c r="G808" s="11"/>
+      <c r="G808" s="10"/>
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
       <c r="J808" s="1"/>
@@ -23534,7 +23534,7 @@
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
-      <c r="G809" s="11"/>
+      <c r="G809" s="10"/>
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
       <c r="J809" s="1"/>
@@ -23562,7 +23562,7 @@
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
-      <c r="G810" s="11"/>
+      <c r="G810" s="10"/>
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
       <c r="J810" s="1"/>
@@ -23590,7 +23590,7 @@
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
-      <c r="G811" s="11"/>
+      <c r="G811" s="10"/>
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
       <c r="J811" s="1"/>
@@ -23618,7 +23618,7 @@
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
-      <c r="G812" s="11"/>
+      <c r="G812" s="10"/>
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
       <c r="J812" s="1"/>
@@ -23646,7 +23646,7 @@
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
-      <c r="G813" s="11"/>
+      <c r="G813" s="10"/>
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
       <c r="J813" s="1"/>
@@ -23674,7 +23674,7 @@
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
-      <c r="G814" s="11"/>
+      <c r="G814" s="10"/>
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
       <c r="J814" s="1"/>
@@ -23702,7 +23702,7 @@
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
-      <c r="G815" s="11"/>
+      <c r="G815" s="10"/>
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
       <c r="J815" s="1"/>
@@ -23730,7 +23730,7 @@
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
-      <c r="G816" s="11"/>
+      <c r="G816" s="10"/>
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
       <c r="J816" s="1"/>
@@ -23758,7 +23758,7 @@
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
-      <c r="G817" s="11"/>
+      <c r="G817" s="10"/>
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
       <c r="J817" s="1"/>
@@ -23786,7 +23786,7 @@
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
-      <c r="G818" s="11"/>
+      <c r="G818" s="10"/>
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
       <c r="J818" s="1"/>
@@ -23814,7 +23814,7 @@
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
-      <c r="G819" s="11"/>
+      <c r="G819" s="10"/>
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
       <c r="J819" s="1"/>
@@ -23842,7 +23842,7 @@
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
-      <c r="G820" s="11"/>
+      <c r="G820" s="10"/>
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
       <c r="J820" s="1"/>
@@ -23870,7 +23870,7 @@
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
-      <c r="G821" s="11"/>
+      <c r="G821" s="10"/>
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
       <c r="J821" s="1"/>
@@ -23898,7 +23898,7 @@
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
-      <c r="G822" s="11"/>
+      <c r="G822" s="10"/>
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
       <c r="J822" s="1"/>
@@ -23926,7 +23926,7 @@
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
-      <c r="G823" s="11"/>
+      <c r="G823" s="10"/>
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
       <c r="J823" s="1"/>
@@ -23954,7 +23954,7 @@
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
-      <c r="G824" s="11"/>
+      <c r="G824" s="10"/>
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
       <c r="J824" s="1"/>
@@ -23982,7 +23982,7 @@
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
-      <c r="G825" s="11"/>
+      <c r="G825" s="10"/>
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
       <c r="J825" s="1"/>
@@ -24010,7 +24010,7 @@
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
-      <c r="G826" s="11"/>
+      <c r="G826" s="10"/>
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
       <c r="J826" s="1"/>
@@ -24038,7 +24038,7 @@
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
-      <c r="G827" s="11"/>
+      <c r="G827" s="10"/>
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
       <c r="J827" s="1"/>
@@ -24066,7 +24066,7 @@
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
-      <c r="G828" s="11"/>
+      <c r="G828" s="10"/>
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
       <c r="J828" s="1"/>
@@ -24094,7 +24094,7 @@
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
-      <c r="G829" s="11"/>
+      <c r="G829" s="10"/>
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
       <c r="J829" s="1"/>
@@ -24122,7 +24122,7 @@
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
-      <c r="G830" s="11"/>
+      <c r="G830" s="10"/>
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
       <c r="J830" s="1"/>
@@ -24150,7 +24150,7 @@
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
-      <c r="G831" s="11"/>
+      <c r="G831" s="10"/>
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
       <c r="J831" s="1"/>
@@ -24178,7 +24178,7 @@
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
-      <c r="G832" s="11"/>
+      <c r="G832" s="10"/>
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
       <c r="J832" s="1"/>
@@ -24206,7 +24206,7 @@
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
-      <c r="G833" s="11"/>
+      <c r="G833" s="10"/>
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
       <c r="J833" s="1"/>
@@ -24234,7 +24234,7 @@
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
-      <c r="G834" s="11"/>
+      <c r="G834" s="10"/>
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
       <c r="J834" s="1"/>
@@ -24262,7 +24262,7 @@
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
-      <c r="G835" s="11"/>
+      <c r="G835" s="10"/>
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
       <c r="J835" s="1"/>
@@ -24290,7 +24290,7 @@
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
-      <c r="G836" s="11"/>
+      <c r="G836" s="10"/>
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
       <c r="J836" s="1"/>
@@ -24318,7 +24318,7 @@
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
-      <c r="G837" s="11"/>
+      <c r="G837" s="10"/>
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
       <c r="J837" s="1"/>
@@ -24346,7 +24346,7 @@
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
-      <c r="G838" s="11"/>
+      <c r="G838" s="10"/>
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
       <c r="J838" s="1"/>
@@ -24374,7 +24374,7 @@
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
-      <c r="G839" s="11"/>
+      <c r="G839" s="10"/>
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
       <c r="J839" s="1"/>
@@ -24402,7 +24402,7 @@
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
-      <c r="G840" s="11"/>
+      <c r="G840" s="10"/>
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
       <c r="J840" s="1"/>
@@ -24430,7 +24430,7 @@
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
-      <c r="G841" s="11"/>
+      <c r="G841" s="10"/>
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
       <c r="J841" s="1"/>
@@ -24458,7 +24458,7 @@
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
-      <c r="G842" s="11"/>
+      <c r="G842" s="10"/>
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
       <c r="J842" s="1"/>
@@ -24486,7 +24486,7 @@
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
-      <c r="G843" s="11"/>
+      <c r="G843" s="10"/>
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
       <c r="J843" s="1"/>
@@ -24514,7 +24514,7 @@
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
-      <c r="G844" s="11"/>
+      <c r="G844" s="10"/>
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
       <c r="J844" s="1"/>
@@ -24542,7 +24542,7 @@
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
-      <c r="G845" s="11"/>
+      <c r="G845" s="10"/>
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
       <c r="J845" s="1"/>
@@ -24570,7 +24570,7 @@
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
-      <c r="G846" s="11"/>
+      <c r="G846" s="10"/>
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
       <c r="J846" s="1"/>
@@ -24598,7 +24598,7 @@
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
-      <c r="G847" s="11"/>
+      <c r="G847" s="10"/>
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
       <c r="J847" s="1"/>
@@ -24626,7 +24626,7 @@
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
-      <c r="G848" s="11"/>
+      <c r="G848" s="10"/>
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
       <c r="J848" s="1"/>
@@ -24654,7 +24654,7 @@
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
-      <c r="G849" s="11"/>
+      <c r="G849" s="10"/>
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
       <c r="J849" s="1"/>
@@ -24682,7 +24682,7 @@
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
-      <c r="G850" s="11"/>
+      <c r="G850" s="10"/>
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
       <c r="J850" s="1"/>
@@ -24710,7 +24710,7 @@
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
-      <c r="G851" s="11"/>
+      <c r="G851" s="10"/>
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
       <c r="J851" s="1"/>
@@ -24738,7 +24738,7 @@
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
-      <c r="G852" s="11"/>
+      <c r="G852" s="10"/>
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
       <c r="J852" s="1"/>
@@ -24766,7 +24766,7 @@
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
-      <c r="G853" s="11"/>
+      <c r="G853" s="10"/>
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
       <c r="J853" s="1"/>
@@ -24794,7 +24794,7 @@
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
-      <c r="G854" s="11"/>
+      <c r="G854" s="10"/>
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
       <c r="J854" s="1"/>
@@ -24822,7 +24822,7 @@
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
-      <c r="G855" s="11"/>
+      <c r="G855" s="10"/>
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
       <c r="J855" s="1"/>
@@ -24850,7 +24850,7 @@
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
-      <c r="G856" s="11"/>
+      <c r="G856" s="10"/>
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
       <c r="J856" s="1"/>
@@ -24878,7 +24878,7 @@
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
-      <c r="G857" s="11"/>
+      <c r="G857" s="10"/>
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
       <c r="J857" s="1"/>
@@ -24906,7 +24906,7 @@
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
-      <c r="G858" s="11"/>
+      <c r="G858" s="10"/>
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
       <c r="J858" s="1"/>
@@ -24934,7 +24934,7 @@
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
-      <c r="G859" s="11"/>
+      <c r="G859" s="10"/>
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
       <c r="J859" s="1"/>
@@ -24962,7 +24962,7 @@
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
-      <c r="G860" s="11"/>
+      <c r="G860" s="10"/>
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
       <c r="J860" s="1"/>
@@ -24990,7 +24990,7 @@
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
-      <c r="G861" s="11"/>
+      <c r="G861" s="10"/>
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
       <c r="J861" s="1"/>
@@ -25018,7 +25018,7 @@
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
-      <c r="G862" s="11"/>
+      <c r="G862" s="10"/>
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
       <c r="J862" s="1"/>
@@ -25046,7 +25046,7 @@
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
-      <c r="G863" s="11"/>
+      <c r="G863" s="10"/>
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
       <c r="J863" s="1"/>
@@ -25074,7 +25074,7 @@
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
-      <c r="G864" s="11"/>
+      <c r="G864" s="10"/>
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
       <c r="J864" s="1"/>
@@ -25102,7 +25102,7 @@
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
-      <c r="G865" s="11"/>
+      <c r="G865" s="10"/>
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
       <c r="J865" s="1"/>
@@ -25130,7 +25130,7 @@
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
-      <c r="G866" s="11"/>
+      <c r="G866" s="10"/>
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
       <c r="J866" s="1"/>
@@ -25158,7 +25158,7 @@
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
-      <c r="G867" s="11"/>
+      <c r="G867" s="10"/>
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
       <c r="J867" s="1"/>
@@ -25186,7 +25186,7 @@
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
-      <c r="G868" s="11"/>
+      <c r="G868" s="10"/>
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
       <c r="J868" s="1"/>
@@ -25214,7 +25214,7 @@
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
-      <c r="G869" s="11"/>
+      <c r="G869" s="10"/>
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
       <c r="J869" s="1"/>
@@ -25242,7 +25242,7 @@
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
-      <c r="G870" s="11"/>
+      <c r="G870" s="10"/>
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
       <c r="J870" s="1"/>
@@ -25270,7 +25270,7 @@
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
-      <c r="G871" s="11"/>
+      <c r="G871" s="10"/>
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
       <c r="J871" s="1"/>
@@ -25298,7 +25298,7 @@
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
-      <c r="G872" s="11"/>
+      <c r="G872" s="10"/>
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
       <c r="J872" s="1"/>
@@ -25326,7 +25326,7 @@
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
-      <c r="G873" s="11"/>
+      <c r="G873" s="10"/>
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
       <c r="J873" s="1"/>
@@ -25354,7 +25354,7 @@
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
-      <c r="G874" s="11"/>
+      <c r="G874" s="10"/>
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
       <c r="J874" s="1"/>
@@ -25382,7 +25382,7 @@
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
-      <c r="G875" s="11"/>
+      <c r="G875" s="10"/>
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
       <c r="J875" s="1"/>
@@ -25410,7 +25410,7 @@
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
-      <c r="G876" s="11"/>
+      <c r="G876" s="10"/>
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
       <c r="J876" s="1"/>
@@ -25438,7 +25438,7 @@
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
-      <c r="G877" s="11"/>
+      <c r="G877" s="10"/>
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
       <c r="J877" s="1"/>
@@ -25466,7 +25466,7 @@
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
-      <c r="G878" s="11"/>
+      <c r="G878" s="10"/>
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
       <c r="J878" s="1"/>
@@ -25494,7 +25494,7 @@
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
-      <c r="G879" s="11"/>
+      <c r="G879" s="10"/>
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
       <c r="J879" s="1"/>
@@ -25522,7 +25522,7 @@
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
-      <c r="G880" s="11"/>
+      <c r="G880" s="10"/>
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
       <c r="J880" s="1"/>
@@ -25550,7 +25550,7 @@
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
-      <c r="G881" s="11"/>
+      <c r="G881" s="10"/>
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
       <c r="J881" s="1"/>
@@ -25578,7 +25578,7 @@
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
-      <c r="G882" s="11"/>
+      <c r="G882" s="10"/>
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
       <c r="J882" s="1"/>
@@ -25606,7 +25606,7 @@
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
-      <c r="G883" s="11"/>
+      <c r="G883" s="10"/>
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
       <c r="J883" s="1"/>
@@ -25634,7 +25634,7 @@
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
-      <c r="G884" s="11"/>
+      <c r="G884" s="10"/>
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
       <c r="J884" s="1"/>
@@ -25662,7 +25662,7 @@
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
-      <c r="G885" s="11"/>
+      <c r="G885" s="10"/>
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
       <c r="J885" s="1"/>
@@ -25690,7 +25690,7 @@
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
-      <c r="G886" s="11"/>
+      <c r="G886" s="10"/>
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
       <c r="J886" s="1"/>
@@ -25718,7 +25718,7 @@
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
-      <c r="G887" s="11"/>
+      <c r="G887" s="10"/>
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
       <c r="J887" s="1"/>
@@ -25746,7 +25746,7 @@
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
-      <c r="G888" s="11"/>
+      <c r="G888" s="10"/>
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
       <c r="J888" s="1"/>
@@ -25774,7 +25774,7 @@
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
-      <c r="G889" s="11"/>
+      <c r="G889" s="10"/>
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
       <c r="J889" s="1"/>
@@ -25802,7 +25802,7 @@
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
-      <c r="G890" s="11"/>
+      <c r="G890" s="10"/>
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
       <c r="J890" s="1"/>
@@ -25830,7 +25830,7 @@
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
-      <c r="G891" s="11"/>
+      <c r="G891" s="10"/>
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
       <c r="J891" s="1"/>
@@ -25858,7 +25858,7 @@
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
-      <c r="G892" s="11"/>
+      <c r="G892" s="10"/>
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
       <c r="J892" s="1"/>
@@ -25886,7 +25886,7 @@
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
-      <c r="G893" s="11"/>
+      <c r="G893" s="10"/>
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
       <c r="J893" s="1"/>
@@ -25914,7 +25914,7 @@
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
-      <c r="G894" s="11"/>
+      <c r="G894" s="10"/>
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
       <c r="J894" s="1"/>
@@ -25942,7 +25942,7 @@
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
-      <c r="G895" s="11"/>
+      <c r="G895" s="10"/>
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
       <c r="J895" s="1"/>
@@ -25970,7 +25970,7 @@
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
-      <c r="G896" s="11"/>
+      <c r="G896" s="10"/>
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
       <c r="J896" s="1"/>
@@ -25998,7 +25998,7 @@
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
-      <c r="G897" s="11"/>
+      <c r="G897" s="10"/>
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
       <c r="J897" s="1"/>
@@ -26026,7 +26026,7 @@
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
-      <c r="G898" s="11"/>
+      <c r="G898" s="10"/>
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
       <c r="J898" s="1"/>
@@ -26054,7 +26054,7 @@
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
-      <c r="G899" s="11"/>
+      <c r="G899" s="10"/>
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
       <c r="J899" s="1"/>
@@ -26082,7 +26082,7 @@
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
-      <c r="G900" s="11"/>
+      <c r="G900" s="10"/>
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
       <c r="J900" s="1"/>
@@ -26110,7 +26110,7 @@
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
-      <c r="G901" s="11"/>
+      <c r="G901" s="10"/>
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
       <c r="J901" s="1"/>
@@ -26138,7 +26138,7 @@
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
-      <c r="G902" s="11"/>
+      <c r="G902" s="10"/>
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
       <c r="J902" s="1"/>
@@ -26166,7 +26166,7 @@
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
-      <c r="G903" s="11"/>
+      <c r="G903" s="10"/>
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
       <c r="J903" s="1"/>
@@ -26194,7 +26194,7 @@
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
-      <c r="G904" s="11"/>
+      <c r="G904" s="10"/>
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
       <c r="J904" s="1"/>
@@ -26222,7 +26222,7 @@
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
-      <c r="G905" s="11"/>
+      <c r="G905" s="10"/>
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
       <c r="J905" s="1"/>
@@ -26250,7 +26250,7 @@
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
-      <c r="G906" s="11"/>
+      <c r="G906" s="10"/>
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
       <c r="J906" s="1"/>
@@ -26278,7 +26278,7 @@
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
-      <c r="G907" s="11"/>
+      <c r="G907" s="10"/>
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
       <c r="J907" s="1"/>
@@ -26306,7 +26306,7 @@
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
-      <c r="G908" s="11"/>
+      <c r="G908" s="10"/>
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
       <c r="J908" s="1"/>
@@ -26334,7 +26334,7 @@
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
-      <c r="G909" s="11"/>
+      <c r="G909" s="10"/>
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
       <c r="J909" s="1"/>
@@ -26362,7 +26362,7 @@
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
-      <c r="G910" s="11"/>
+      <c r="G910" s="10"/>
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
       <c r="J910" s="1"/>
@@ -26390,7 +26390,7 @@
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
-      <c r="G911" s="11"/>
+      <c r="G911" s="10"/>
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
       <c r="J911" s="1"/>
@@ -26418,7 +26418,7 @@
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
-      <c r="G912" s="11"/>
+      <c r="G912" s="10"/>
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
       <c r="J912" s="1"/>
@@ -26446,7 +26446,7 @@
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
-      <c r="G913" s="11"/>
+      <c r="G913" s="10"/>
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
       <c r="J913" s="1"/>
@@ -26474,7 +26474,7 @@
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
-      <c r="G914" s="11"/>
+      <c r="G914" s="10"/>
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
       <c r="J914" s="1"/>
@@ -26502,7 +26502,7 @@
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
-      <c r="G915" s="11"/>
+      <c r="G915" s="10"/>
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
       <c r="J915" s="1"/>
@@ -26530,7 +26530,7 @@
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
-      <c r="G916" s="11"/>
+      <c r="G916" s="10"/>
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
       <c r="J916" s="1"/>
@@ -26558,7 +26558,7 @@
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
-      <c r="G917" s="11"/>
+      <c r="G917" s="10"/>
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
       <c r="J917" s="1"/>
@@ -26586,7 +26586,7 @@
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
-      <c r="G918" s="11"/>
+      <c r="G918" s="10"/>
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
       <c r="J918" s="1"/>
@@ -26614,7 +26614,7 @@
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
-      <c r="G919" s="11"/>
+      <c r="G919" s="10"/>
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
       <c r="J919" s="1"/>
@@ -26642,7 +26642,7 @@
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
-      <c r="G920" s="11"/>
+      <c r="G920" s="10"/>
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
       <c r="J920" s="1"/>
@@ -26670,7 +26670,7 @@
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
-      <c r="G921" s="11"/>
+      <c r="G921" s="10"/>
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
       <c r="J921" s="1"/>
@@ -26698,7 +26698,7 @@
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
-      <c r="G922" s="11"/>
+      <c r="G922" s="10"/>
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
       <c r="J922" s="1"/>
@@ -26726,7 +26726,7 @@
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
-      <c r="G923" s="11"/>
+      <c r="G923" s="10"/>
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
       <c r="J923" s="1"/>
@@ -26754,7 +26754,7 @@
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
-      <c r="G924" s="11"/>
+      <c r="G924" s="10"/>
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
       <c r="J924" s="1"/>
@@ -26782,7 +26782,7 @@
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
-      <c r="G925" s="11"/>
+      <c r="G925" s="10"/>
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
       <c r="J925" s="1"/>
@@ -26810,7 +26810,7 @@
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
-      <c r="G926" s="11"/>
+      <c r="G926" s="10"/>
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
       <c r="J926" s="1"/>
@@ -26838,7 +26838,7 @@
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
-      <c r="G927" s="11"/>
+      <c r="G927" s="10"/>
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
       <c r="J927" s="1"/>
@@ -26866,7 +26866,7 @@
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
-      <c r="G928" s="11"/>
+      <c r="G928" s="10"/>
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
       <c r="J928" s="1"/>
@@ -26894,7 +26894,7 @@
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
-      <c r="G929" s="11"/>
+      <c r="G929" s="10"/>
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
       <c r="J929" s="1"/>
@@ -26922,7 +26922,7 @@
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
-      <c r="G930" s="11"/>
+      <c r="G930" s="10"/>
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
       <c r="J930" s="1"/>
@@ -26950,7 +26950,7 @@
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
-      <c r="G931" s="11"/>
+      <c r="G931" s="10"/>
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
       <c r="J931" s="1"/>
@@ -26978,7 +26978,7 @@
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
-      <c r="G932" s="11"/>
+      <c r="G932" s="10"/>
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
       <c r="J932" s="1"/>
@@ -27006,7 +27006,7 @@
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
-      <c r="G933" s="11"/>
+      <c r="G933" s="10"/>
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
       <c r="J933" s="1"/>
@@ -27034,7 +27034,7 @@
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
-      <c r="G934" s="11"/>
+      <c r="G934" s="10"/>
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
       <c r="J934" s="1"/>
@@ -27062,7 +27062,7 @@
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
-      <c r="G935" s="11"/>
+      <c r="G935" s="10"/>
       <c r="H935" s="1"/>
       <c r="I935" s="1"/>
       <c r="J935" s="1"/>
@@ -27090,7 +27090,7 @@
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
-      <c r="G936" s="11"/>
+      <c r="G936" s="10"/>
       <c r="H936" s="1"/>
       <c r="I936" s="1"/>
       <c r="J936" s="1"/>
@@ -27118,7 +27118,7 @@
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
-      <c r="G937" s="11"/>
+      <c r="G937" s="10"/>
       <c r="H937" s="1"/>
       <c r="I937" s="1"/>
       <c r="J937" s="1"/>
@@ -27146,7 +27146,7 @@
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
-      <c r="G938" s="11"/>
+      <c r="G938" s="10"/>
       <c r="H938" s="1"/>
       <c r="I938" s="1"/>
       <c r="J938" s="1"/>
@@ -27174,7 +27174,7 @@
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
-      <c r="G939" s="11"/>
+      <c r="G939" s="10"/>
       <c r="H939" s="1"/>
       <c r="I939" s="1"/>
       <c r="J939" s="1"/>
@@ -27202,7 +27202,7 @@
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
-      <c r="G940" s="11"/>
+      <c r="G940" s="10"/>
       <c r="H940" s="1"/>
       <c r="I940" s="1"/>
       <c r="J940" s="1"/>
@@ -27230,7 +27230,7 @@
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
-      <c r="G941" s="11"/>
+      <c r="G941" s="10"/>
       <c r="H941" s="1"/>
       <c r="I941" s="1"/>
       <c r="J941" s="1"/>
@@ -27258,7 +27258,7 @@
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
-      <c r="G942" s="11"/>
+      <c r="G942" s="10"/>
       <c r="H942" s="1"/>
       <c r="I942" s="1"/>
       <c r="J942" s="1"/>
@@ -27286,7 +27286,7 @@
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
-      <c r="G943" s="11"/>
+      <c r="G943" s="10"/>
       <c r="H943" s="1"/>
       <c r="I943" s="1"/>
       <c r="J943" s="1"/>
@@ -27314,7 +27314,7 @@
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
-      <c r="G944" s="11"/>
+      <c r="G944" s="10"/>
       <c r="H944" s="1"/>
       <c r="I944" s="1"/>
       <c r="J944" s="1"/>
@@ -27342,7 +27342,7 @@
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
-      <c r="G945" s="11"/>
+      <c r="G945" s="10"/>
       <c r="H945" s="1"/>
       <c r="I945" s="1"/>
       <c r="J945" s="1"/>
@@ -27370,7 +27370,7 @@
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>
-      <c r="G946" s="11"/>
+      <c r="G946" s="10"/>
       <c r="H946" s="1"/>
       <c r="I946" s="1"/>
       <c r="J946" s="1"/>
@@ -27398,7 +27398,7 @@
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
       <c r="F947" s="1"/>
-      <c r="G947" s="11"/>
+      <c r="G947" s="10"/>
       <c r="H947" s="1"/>
       <c r="I947" s="1"/>
       <c r="J947" s="1"/>
@@ -27426,7 +27426,7 @@
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
       <c r="F948" s="1"/>
-      <c r="G948" s="11"/>
+      <c r="G948" s="10"/>
       <c r="H948" s="1"/>
       <c r="I948" s="1"/>
       <c r="J948" s="1"/>
@@ -27454,7 +27454,7 @@
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
       <c r="F949" s="1"/>
-      <c r="G949" s="11"/>
+      <c r="G949" s="10"/>
       <c r="H949" s="1"/>
       <c r="I949" s="1"/>
       <c r="J949" s="1"/>
@@ -27482,7 +27482,7 @@
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
       <c r="F950" s="1"/>
-      <c r="G950" s="11"/>
+      <c r="G950" s="10"/>
       <c r="H950" s="1"/>
       <c r="I950" s="1"/>
       <c r="J950" s="1"/>
@@ -27510,7 +27510,7 @@
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
       <c r="F951" s="1"/>
-      <c r="G951" s="11"/>
+      <c r="G951" s="10"/>
       <c r="H951" s="1"/>
       <c r="I951" s="1"/>
       <c r="J951" s="1"/>
@@ -27538,7 +27538,7 @@
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
       <c r="F952" s="1"/>
-      <c r="G952" s="11"/>
+      <c r="G952" s="10"/>
       <c r="H952" s="1"/>
       <c r="I952" s="1"/>
       <c r="J952" s="1"/>
@@ -27566,7 +27566,7 @@
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
       <c r="F953" s="1"/>
-      <c r="G953" s="11"/>
+      <c r="G953" s="10"/>
       <c r="H953" s="1"/>
       <c r="I953" s="1"/>
       <c r="J953" s="1"/>
@@ -27594,7 +27594,7 @@
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
       <c r="F954" s="1"/>
-      <c r="G954" s="11"/>
+      <c r="G954" s="10"/>
       <c r="H954" s="1"/>
       <c r="I954" s="1"/>
       <c r="J954" s="1"/>
@@ -27622,7 +27622,7 @@
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
       <c r="F955" s="1"/>
-      <c r="G955" s="11"/>
+      <c r="G955" s="10"/>
       <c r="H955" s="1"/>
       <c r="I955" s="1"/>
       <c r="J955" s="1"/>
@@ -27650,7 +27650,7 @@
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
       <c r="F956" s="1"/>
-      <c r="G956" s="11"/>
+      <c r="G956" s="10"/>
       <c r="H956" s="1"/>
       <c r="I956" s="1"/>
       <c r="J956" s="1"/>
@@ -27678,7 +27678,7 @@
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
       <c r="F957" s="1"/>
-      <c r="G957" s="11"/>
+      <c r="G957" s="10"/>
       <c r="H957" s="1"/>
       <c r="I957" s="1"/>
       <c r="J957" s="1"/>
@@ -27706,7 +27706,7 @@
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
       <c r="F958" s="1"/>
-      <c r="G958" s="11"/>
+      <c r="G958" s="10"/>
       <c r="H958" s="1"/>
       <c r="I958" s="1"/>
       <c r="J958" s="1"/>
@@ -27734,7 +27734,7 @@
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
       <c r="F959" s="1"/>
-      <c r="G959" s="11"/>
+      <c r="G959" s="10"/>
       <c r="H959" s="1"/>
       <c r="I959" s="1"/>
       <c r="J959" s="1"/>
@@ -27762,7 +27762,7 @@
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
       <c r="F960" s="1"/>
-      <c r="G960" s="11"/>
+      <c r="G960" s="10"/>
       <c r="H960" s="1"/>
       <c r="I960" s="1"/>
       <c r="J960" s="1"/>
@@ -27790,7 +27790,7 @@
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
       <c r="F961" s="1"/>
-      <c r="G961" s="11"/>
+      <c r="G961" s="10"/>
       <c r="H961" s="1"/>
       <c r="I961" s="1"/>
       <c r="J961" s="1"/>
@@ -27818,7 +27818,7 @@
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
       <c r="F962" s="1"/>
-      <c r="G962" s="11"/>
+      <c r="G962" s="10"/>
       <c r="H962" s="1"/>
       <c r="I962" s="1"/>
       <c r="J962" s="1"/>
@@ -27846,7 +27846,7 @@
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
       <c r="F963" s="1"/>
-      <c r="G963" s="11"/>
+      <c r="G963" s="10"/>
       <c r="H963" s="1"/>
       <c r="I963" s="1"/>
       <c r="J963" s="1"/>
@@ -27874,7 +27874,7 @@
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
       <c r="F964" s="1"/>
-      <c r="G964" s="11"/>
+      <c r="G964" s="10"/>
       <c r="H964" s="1"/>
       <c r="I964" s="1"/>
       <c r="J964" s="1"/>
@@ -27902,7 +27902,7 @@
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
       <c r="F965" s="1"/>
-      <c r="G965" s="11"/>
+      <c r="G965" s="10"/>
       <c r="H965" s="1"/>
       <c r="I965" s="1"/>
       <c r="J965" s="1"/>
@@ -27930,7 +27930,7 @@
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
       <c r="F966" s="1"/>
-      <c r="G966" s="11"/>
+      <c r="G966" s="10"/>
       <c r="H966" s="1"/>
       <c r="I966" s="1"/>
       <c r="J966" s="1"/>
@@ -27958,7 +27958,7 @@
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
       <c r="F967" s="1"/>
-      <c r="G967" s="11"/>
+      <c r="G967" s="10"/>
       <c r="H967" s="1"/>
       <c r="I967" s="1"/>
       <c r="J967" s="1"/>
@@ -27986,7 +27986,7 @@
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
       <c r="F968" s="1"/>
-      <c r="G968" s="11"/>
+      <c r="G968" s="10"/>
       <c r="H968" s="1"/>
       <c r="I968" s="1"/>
       <c r="J968" s="1"/>
@@ -28014,7 +28014,7 @@
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
       <c r="F969" s="1"/>
-      <c r="G969" s="11"/>
+      <c r="G969" s="10"/>
       <c r="H969" s="1"/>
       <c r="I969" s="1"/>
       <c r="J969" s="1"/>
@@ -28042,7 +28042,7 @@
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
       <c r="F970" s="1"/>
-      <c r="G970" s="11"/>
+      <c r="G970" s="10"/>
       <c r="H970" s="1"/>
       <c r="I970" s="1"/>
       <c r="J970" s="1"/>
@@ -28070,7 +28070,7 @@
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
       <c r="F971" s="1"/>
-      <c r="G971" s="11"/>
+      <c r="G971" s="10"/>
       <c r="H971" s="1"/>
       <c r="I971" s="1"/>
       <c r="J971" s="1"/>
@@ -28098,7 +28098,7 @@
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
       <c r="F972" s="1"/>
-      <c r="G972" s="11"/>
+      <c r="G972" s="10"/>
       <c r="H972" s="1"/>
       <c r="I972" s="1"/>
       <c r="J972" s="1"/>
@@ -28126,7 +28126,7 @@
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
       <c r="F973" s="1"/>
-      <c r="G973" s="11"/>
+      <c r="G973" s="10"/>
       <c r="H973" s="1"/>
       <c r="I973" s="1"/>
       <c r="J973" s="1"/>
@@ -28154,7 +28154,7 @@
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
       <c r="F974" s="1"/>
-      <c r="G974" s="11"/>
+      <c r="G974" s="10"/>
       <c r="H974" s="1"/>
       <c r="I974" s="1"/>
       <c r="J974" s="1"/>
@@ -28182,7 +28182,7 @@
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
       <c r="F975" s="1"/>
-      <c r="G975" s="11"/>
+      <c r="G975" s="10"/>
       <c r="H975" s="1"/>
       <c r="I975" s="1"/>
       <c r="J975" s="1"/>
@@ -28210,7 +28210,7 @@
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
       <c r="F976" s="1"/>
-      <c r="G976" s="11"/>
+      <c r="G976" s="10"/>
       <c r="H976" s="1"/>
       <c r="I976" s="1"/>
       <c r="J976" s="1"/>
@@ -28238,7 +28238,7 @@
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
       <c r="F977" s="1"/>
-      <c r="G977" s="11"/>
+      <c r="G977" s="10"/>
       <c r="H977" s="1"/>
       <c r="I977" s="1"/>
       <c r="J977" s="1"/>
@@ -28266,7 +28266,7 @@
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
       <c r="F978" s="1"/>
-      <c r="G978" s="11"/>
+      <c r="G978" s="10"/>
       <c r="H978" s="1"/>
       <c r="I978" s="1"/>
       <c r="J978" s="1"/>
@@ -28294,7 +28294,7 @@
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
       <c r="F979" s="1"/>
-      <c r="G979" s="11"/>
+      <c r="G979" s="10"/>
       <c r="H979" s="1"/>
       <c r="I979" s="1"/>
       <c r="J979" s="1"/>
@@ -28322,7 +28322,7 @@
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
       <c r="F980" s="1"/>
-      <c r="G980" s="11"/>
+      <c r="G980" s="10"/>
       <c r="H980" s="1"/>
       <c r="I980" s="1"/>
       <c r="J980" s="1"/>
@@ -28350,7 +28350,7 @@
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
       <c r="F981" s="1"/>
-      <c r="G981" s="11"/>
+      <c r="G981" s="10"/>
       <c r="H981" s="1"/>
       <c r="I981" s="1"/>
       <c r="J981" s="1"/>
@@ -28378,7 +28378,7 @@
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
       <c r="F982" s="1"/>
-      <c r="G982" s="11"/>
+      <c r="G982" s="10"/>
       <c r="H982" s="1"/>
       <c r="I982" s="1"/>
       <c r="J982" s="1"/>
@@ -28406,7 +28406,7 @@
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
-      <c r="G983" s="11"/>
+      <c r="G983" s="10"/>
       <c r="H983" s="1"/>
       <c r="I983" s="1"/>
       <c r="J983" s="1"/>
@@ -28434,7 +28434,7 @@
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
-      <c r="G984" s="11"/>
+      <c r="G984" s="10"/>
       <c r="H984" s="1"/>
       <c r="I984" s="1"/>
       <c r="J984" s="1"/>
@@ -28462,7 +28462,7 @@
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>
-      <c r="G985" s="11"/>
+      <c r="G985" s="10"/>
       <c r="H985" s="1"/>
       <c r="I985" s="1"/>
       <c r="J985" s="1"/>
@@ -28490,7 +28490,7 @@
       <c r="D986" s="1"/>
       <c r="E986" s="1"/>
       <c r="F986" s="1"/>
-      <c r="G986" s="11"/>
+      <c r="G986" s="10"/>
       <c r="H986" s="1"/>
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
@@ -28518,7 +28518,7 @@
       <c r="D987" s="1"/>
       <c r="E987" s="1"/>
       <c r="F987" s="1"/>
-      <c r="G987" s="11"/>
+      <c r="G987" s="10"/>
       <c r="H987" s="1"/>
       <c r="I987" s="1"/>
       <c r="J987" s="1"/>
@@ -28546,7 +28546,7 @@
       <c r="D988" s="1"/>
       <c r="E988" s="1"/>
       <c r="F988" s="1"/>
-      <c r="G988" s="11"/>
+      <c r="G988" s="10"/>
       <c r="H988" s="1"/>
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
@@ -28574,7 +28574,7 @@
       <c r="D989" s="1"/>
       <c r="E989" s="1"/>
       <c r="F989" s="1"/>
-      <c r="G989" s="11"/>
+      <c r="G989" s="10"/>
       <c r="H989" s="1"/>
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
@@ -28602,7 +28602,7 @@
       <c r="D990" s="1"/>
       <c r="E990" s="1"/>
       <c r="F990" s="1"/>
-      <c r="G990" s="11"/>
+      <c r="G990" s="10"/>
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
@@ -28630,7 +28630,7 @@
       <c r="D991" s="1"/>
       <c r="E991" s="1"/>
       <c r="F991" s="1"/>
-      <c r="G991" s="11"/>
+      <c r="G991" s="10"/>
       <c r="H991" s="1"/>
       <c r="I991" s="1"/>
       <c r="J991" s="1"/>
@@ -28658,7 +28658,7 @@
       <c r="D992" s="1"/>
       <c r="E992" s="1"/>
       <c r="F992" s="1"/>
-      <c r="G992" s="11"/>
+      <c r="G992" s="10"/>
       <c r="H992" s="1"/>
       <c r="I992" s="1"/>
       <c r="J992" s="1"/>
@@ -28686,7 +28686,7 @@
       <c r="D993" s="1"/>
       <c r="E993" s="1"/>
       <c r="F993" s="1"/>
-      <c r="G993" s="11"/>
+      <c r="G993" s="10"/>
       <c r="H993" s="1"/>
       <c r="I993" s="1"/>
       <c r="J993" s="1"/>
@@ -28714,7 +28714,7 @@
       <c r="D994" s="1"/>
       <c r="E994" s="1"/>
       <c r="F994" s="1"/>
-      <c r="G994" s="11"/>
+      <c r="G994" s="10"/>
       <c r="H994" s="1"/>
       <c r="I994" s="1"/>
       <c r="J994" s="1"/>
@@ -28742,7 +28742,7 @@
       <c r="D995" s="1"/>
       <c r="E995" s="1"/>
       <c r="F995" s="1"/>
-      <c r="G995" s="11"/>
+      <c r="G995" s="10"/>
       <c r="H995" s="1"/>
       <c r="I995" s="1"/>
       <c r="J995" s="1"/>
@@ -28770,7 +28770,7 @@
       <c r="D996" s="1"/>
       <c r="E996" s="1"/>
       <c r="F996" s="1"/>
-      <c r="G996" s="11"/>
+      <c r="G996" s="10"/>
       <c r="H996" s="1"/>
       <c r="I996" s="1"/>
       <c r="J996" s="1"/>
@@ -28798,7 +28798,7 @@
       <c r="D997" s="1"/>
       <c r="E997" s="1"/>
       <c r="F997" s="1"/>
-      <c r="G997" s="11"/>
+      <c r="G997" s="10"/>
       <c r="H997" s="1"/>
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
@@ -28826,7 +28826,7 @@
       <c r="D998" s="1"/>
       <c r="E998" s="1"/>
       <c r="F998" s="1"/>
-      <c r="G998" s="11"/>
+      <c r="G998" s="10"/>
       <c r="H998" s="1"/>
       <c r="I998" s="1"/>
       <c r="J998" s="1"/>
@@ -28854,7 +28854,7 @@
       <c r="D999" s="1"/>
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
-      <c r="G999" s="11"/>
+      <c r="G999" s="10"/>
       <c r="H999" s="1"/>
       <c r="I999" s="1"/>
       <c r="J999" s="1"/>
@@ -28882,7 +28882,7 @@
       <c r="D1000" s="1"/>
       <c r="E1000" s="1"/>
       <c r="F1000" s="1"/>
-      <c r="G1000" s="11"/>
+      <c r="G1000" s="10"/>
       <c r="H1000" s="1"/>
       <c r="I1000" s="1"/>
       <c r="J1000" s="1"/>
@@ -28955,46 +28955,46 @@
     <row r="3" ht="12.75" customHeight="1"/>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="37" t="s">
+        <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
+      <c r="C5" s="37" t="s">
+        <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
+      <c r="E5" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="37" t="s">
+        <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+      <c r="C6" s="37" t="s">
+        <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
+      <c r="E6" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
+      <c r="A7" s="37" t="s">
+        <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
+      <c r="C7" s="37" t="s">
+        <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
+      <c r="E7" s="37" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>

--- a/ExamplePolicyPricing.xlsx
+++ b/ExamplePolicyPricing.xlsx
@@ -58,7 +58,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
+    <t>Insurance Types</t>
+  </si>
+  <si>
+    <t>Pricing Brackets</t>
+  </si>
+  <si>
+    <t>Location risk</t>
+  </si>
+  <si>
+    <t>COMPREHENSIVE</t>
+  </si>
+  <si>
     <t>RuleSet</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>FIRE_THEFT</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>THIRD_PARTY</t>
+  </si>
+  <si>
+    <t>HIGH</t>
   </si>
   <si>
     <t>com.quicksign.drools.server</t>
@@ -130,34 +157,7 @@
     <t>18, 24</t>
   </si>
   <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>COMPREHENSIVE</t>
-  </si>
-  <si>
-    <t>MED</t>
-  </si>
-  <si>
-    <t>FIRE_THEFT</t>
-  </si>
-  <si>
     <t>Priors not relevant</t>
-  </si>
-  <si>
-    <t>Insurance Types</t>
-  </si>
-  <si>
-    <t>Pricing Brackets</t>
-  </si>
-  <si>
-    <t>Location risk</t>
-  </si>
-  <si>
-    <t>THIRD_PARTY</t>
-  </si>
-  <si>
-    <t>HIGH</t>
   </si>
   <si>
     <t>Safe driver discount</t>
@@ -215,6 +215,11 @@
     </font>
     <font>
       <b/>
+      <sz val="7.0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -231,11 +236,6 @@
       <name val="Calibri"/>
     </font>
     <font/>
-    <font>
-      <b/>
-      <sz val="7.0"/>
-      <name val="Tahoma"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -290,6 +290,20 @@
       <bottom/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -323,20 +337,6 @@
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -493,31 +493,34 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -526,24 +529,24 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -552,81 +555,78 @@
     <xf borderId="12" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="5" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="6" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,17 +698,17 @@
     <row r="2" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="8"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -728,20 +728,20 @@
     <row r="3" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -764,7 +764,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -787,19 +787,19 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>4</v>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -817,24 +817,24 @@
     </row>
     <row r="6" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>5</v>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>14</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>5</v>
+      <c r="D6" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
+      <c r="E6" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>5</v>
+      <c r="F6" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>6</v>
+      <c r="G6" s="18" t="s">
+        <v>15</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>6</v>
+      <c r="H6" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -857,17 +857,17 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="18" t="s">
-        <v>7</v>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="17" t="s">
-        <v>8</v>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18" t="s">
+        <v>17</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -888,67 +888,67 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
-        <v>9</v>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
+        <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>10</v>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>11</v>
+      <c r="E8" s="25" t="s">
+        <v>20</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>12</v>
+      <c r="F8" s="25" t="s">
+        <v>21</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>13</v>
+      <c r="G8" s="25" t="s">
+        <v>22</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>14</v>
+      <c r="H8" s="25" t="s">
+        <v>23</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
     </row>
     <row r="9" ht="28.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="25" t="s">
-        <v>15</v>
+      <c r="B9" s="26" t="s">
+        <v>24</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>16</v>
+      <c r="C9" s="27" t="s">
+        <v>25</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>17</v>
+      <c r="D9" s="27" t="s">
+        <v>26</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>18</v>
+      <c r="E9" s="27" t="s">
+        <v>27</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>19</v>
+      <c r="F9" s="27" t="s">
+        <v>28</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>20</v>
+      <c r="G9" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>21</v>
+      <c r="H9" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -971,25 +971,25 @@
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="28" t="s">
-        <v>22</v>
+      <c r="B10" s="29" t="s">
+        <v>31</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>23</v>
+      <c r="C10" s="30" t="s">
+        <v>32</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>24</v>
+      <c r="D10" s="31" t="s">
+        <v>5</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="31">
         <v>1.0</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>25</v>
+      <c r="F10" s="31" t="s">
+        <v>3</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="32">
         <v>450.0</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1011,19 +1011,19 @@
     </row>
     <row r="11" ht="46.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="33"/>
-      <c r="D11" s="34" t="s">
-        <v>26</v>
+      <c r="B11" s="34"/>
+      <c r="D11" s="35" t="s">
+        <v>7</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
-        <v>27</v>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>6</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="36">
         <v>200.0</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>28</v>
+      <c r="H11" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1046,20 +1046,20 @@
     </row>
     <row r="12" ht="46.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="33"/>
-      <c r="D12" s="34" t="s">
-        <v>26</v>
+      <c r="B12" s="34"/>
+      <c r="D12" s="35" t="s">
+        <v>7</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="35">
         <v>0.0</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>25</v>
+      <c r="F12" s="35" t="s">
+        <v>3</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="36">
         <v>300.0</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1081,18 +1081,18 @@
     </row>
     <row r="13" ht="46.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="33"/>
-      <c r="D13" s="34" t="s">
-        <v>24</v>
+      <c r="B13" s="34"/>
+      <c r="D13" s="35" t="s">
+        <v>5</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34" t="s">
-        <v>27</v>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>6</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="36">
         <v>150.0</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1116,15 +1116,15 @@
       <c r="A14" s="1"/>
       <c r="B14" s="38"/>
       <c r="D14" s="39" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E14" s="39">
         <v>0.0</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="36">
         <v>150.0</v>
       </c>
       <c r="H14" s="40" t="s">
@@ -1151,22 +1151,22 @@
     </row>
     <row r="15" ht="46.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E15" s="41">
         <v>1.0</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="32">
         <v>700.0</v>
       </c>
       <c r="H15" s="42"/>
@@ -1191,24 +1191,24 @@
     </row>
     <row r="16" ht="36.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>33</v>
+      <c r="D16" s="35" t="s">
+        <v>9</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="35">
         <v>0.0</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>25</v>
+      <c r="F16" s="35" t="s">
+        <v>3</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="36">
         <v>700.0</v>
       </c>
-      <c r="H16" s="36" t="s">
-        <v>31</v>
+      <c r="H16" s="37" t="s">
+        <v>2</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -1236,17 +1236,17 @@
         <v>36</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="39" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G17" s="47">
         <v>550.0</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="18" ht="33.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="41"/>
@@ -1280,9 +1280,9 @@
         <v>0.0</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="32">
         <v>120.0</v>
       </c>
       <c r="H18" s="42" t="s">
@@ -1309,18 +1309,18 @@
     </row>
     <row r="19" ht="29.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35">
         <v>1.0</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>25</v>
+      <c r="F19" s="35" t="s">
+        <v>3</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="36">
         <v>300.0</v>
       </c>
       <c r="H19" s="48"/>
@@ -1345,18 +1345,18 @@
     </row>
     <row r="20" ht="39.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="33"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35">
         <v>2.0</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>25</v>
+      <c r="F20" s="35" t="s">
+        <v>3</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="36">
         <v>590.0</v>
       </c>
       <c r="H20" s="48"/>
@@ -1390,7 +1390,7 @@
         <v>3.0</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G21" s="47">
         <v>800.0</v>
@@ -1424,7 +1424,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="25" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1533,18 +1533,18 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16" t="s">
-        <v>5</v>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17" t="s">
+        <v>14</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>5</v>
+      <c r="D26" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>5</v>
+      <c r="E26" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>6</v>
+      <c r="F26" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1569,15 +1569,15 @@
     </row>
     <row r="27" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="18" t="s">
-        <v>7</v>
+      <c r="B27" s="16"/>
+      <c r="C27" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="17" t="s">
-        <v>8</v>
+      <c r="D27" s="21"/>
+      <c r="E27" s="18" t="s">
+        <v>17</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1601,17 +1601,17 @@
     </row>
     <row r="28" ht="30.0" customHeight="1" outlineLevel="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23" t="s">
-        <v>9</v>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>18</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>11</v>
+      <c r="D28" s="25" t="s">
+        <v>20</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>12</v>
+      <c r="E28" s="25" t="s">
+        <v>21</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="1"/>
@@ -1637,19 +1637,19 @@
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>16</v>
+      <c r="C29" s="27" t="s">
+        <v>25</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>18</v>
+      <c r="D29" s="27" t="s">
+        <v>27</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>19</v>
+      <c r="E29" s="27" t="s">
+        <v>28</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="28" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="1"/>
@@ -1675,17 +1675,17 @@
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="31">
         <v>0.0</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>25</v>
+      <c r="E30" s="31" t="s">
+        <v>3</v>
       </c>
       <c r="F30" s="49">
         <v>1.0</v>
@@ -1713,15 +1713,15 @@
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="35">
         <v>0.0</v>
       </c>
-      <c r="E31" s="34" t="s">
-        <v>27</v>
+      <c r="E31" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="F31" s="50">
         <v>2.0</v>
@@ -1749,15 +1749,15 @@
     </row>
     <row r="32" ht="20.25" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="33"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="35">
         <v>1.0</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>25</v>
+      <c r="E32" s="35" t="s">
+        <v>3</v>
       </c>
       <c r="F32" s="50">
         <v>5.0</v>
@@ -1785,15 +1785,15 @@
     </row>
     <row r="33" ht="24.0" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="35">
         <v>2.0</v>
       </c>
-      <c r="E33" s="34" t="s">
-        <v>25</v>
+      <c r="E33" s="35" t="s">
+        <v>3</v>
       </c>
       <c r="F33" s="50">
         <v>1.0</v>
@@ -1829,7 +1829,7 @@
         <v>0.0</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F34" s="51">
         <v>20.0</v>
@@ -1862,7 +1862,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1890,7 +1890,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1918,7 +1918,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1946,7 +1946,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1974,7 +1974,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2002,7 +2002,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2030,7 +2030,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2058,7 +2058,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2086,7 +2086,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2114,7 +2114,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2142,7 +2142,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2170,7 +2170,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2198,7 +2198,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2226,7 +2226,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2254,7 +2254,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2282,7 +2282,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="11"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2310,7 +2310,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2338,7 +2338,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2366,7 +2366,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2394,7 +2394,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2422,7 +2422,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2450,7 +2450,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2478,7 +2478,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2506,7 +2506,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2534,7 +2534,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="10"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2562,7 +2562,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="10"/>
+      <c r="G60" s="11"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2590,7 +2590,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="11"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2618,7 +2618,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="10"/>
+      <c r="G62" s="11"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2646,7 +2646,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="11"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2674,7 +2674,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="10"/>
+      <c r="G64" s="11"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2702,7 +2702,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="10"/>
+      <c r="G65" s="11"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2730,7 +2730,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="10"/>
+      <c r="G66" s="11"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2758,7 +2758,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="10"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2786,7 +2786,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2814,7 +2814,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="11"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2842,7 +2842,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="10"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2870,7 +2870,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="10"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -2898,7 +2898,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="10"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2926,7 +2926,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="10"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2954,7 +2954,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="10"/>
+      <c r="G74" s="11"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2982,7 +2982,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="10"/>
+      <c r="G75" s="11"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3010,7 +3010,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="10"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3038,7 +3038,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="10"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3066,7 +3066,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="10"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3094,7 +3094,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="10"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3122,7 +3122,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="10"/>
+      <c r="G80" s="11"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3150,7 +3150,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="10"/>
+      <c r="G81" s="11"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3178,7 +3178,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="10"/>
+      <c r="G82" s="11"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3206,7 +3206,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="10"/>
+      <c r="G83" s="11"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3234,7 +3234,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="10"/>
+      <c r="G84" s="11"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3262,7 +3262,7 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="10"/>
+      <c r="G85" s="11"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3290,7 +3290,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="10"/>
+      <c r="G86" s="11"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3318,7 +3318,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="10"/>
+      <c r="G87" s="11"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3346,7 +3346,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="10"/>
+      <c r="G88" s="11"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3374,7 +3374,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="10"/>
+      <c r="G89" s="11"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -3402,7 +3402,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="10"/>
+      <c r="G90" s="11"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -3430,7 +3430,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="10"/>
+      <c r="G91" s="11"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -3458,7 +3458,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="10"/>
+      <c r="G92" s="11"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -3486,7 +3486,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="10"/>
+      <c r="G93" s="11"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -3514,7 +3514,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="10"/>
+      <c r="G94" s="11"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -3542,7 +3542,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="10"/>
+      <c r="G95" s="11"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -3570,7 +3570,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="10"/>
+      <c r="G96" s="11"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -3598,7 +3598,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="10"/>
+      <c r="G97" s="11"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -3626,7 +3626,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="10"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -3654,7 +3654,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="10"/>
+      <c r="G99" s="11"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -3682,7 +3682,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="10"/>
+      <c r="G100" s="11"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -3710,7 +3710,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="10"/>
+      <c r="G101" s="11"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -3738,7 +3738,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="10"/>
+      <c r="G102" s="11"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -3766,7 +3766,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="10"/>
+      <c r="G103" s="11"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -3794,7 +3794,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="10"/>
+      <c r="G104" s="11"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -3822,7 +3822,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="10"/>
+      <c r="G105" s="11"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -3850,7 +3850,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="10"/>
+      <c r="G106" s="11"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -3878,7 +3878,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="10"/>
+      <c r="G107" s="11"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -3906,7 +3906,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="10"/>
+      <c r="G108" s="11"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -3934,7 +3934,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="10"/>
+      <c r="G109" s="11"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -3962,7 +3962,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="10"/>
+      <c r="G110" s="11"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -3990,7 +3990,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="10"/>
+      <c r="G111" s="11"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -4018,7 +4018,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="10"/>
+      <c r="G112" s="11"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4046,7 +4046,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="10"/>
+      <c r="G113" s="11"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -4074,7 +4074,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="10"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -4102,7 +4102,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="10"/>
+      <c r="G115" s="11"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4130,7 +4130,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="10"/>
+      <c r="G116" s="11"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4158,7 +4158,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="10"/>
+      <c r="G117" s="11"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4186,7 +4186,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="10"/>
+      <c r="G118" s="11"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -4214,7 +4214,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="10"/>
+      <c r="G119" s="11"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -4242,7 +4242,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="10"/>
+      <c r="G120" s="11"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -4270,7 +4270,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="10"/>
+      <c r="G121" s="11"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -4298,7 +4298,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="10"/>
+      <c r="G122" s="11"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -4326,7 +4326,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="10"/>
+      <c r="G123" s="11"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -4354,7 +4354,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="10"/>
+      <c r="G124" s="11"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -4382,7 +4382,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="10"/>
+      <c r="G125" s="11"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -4410,7 +4410,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="10"/>
+      <c r="G126" s="11"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -4438,7 +4438,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="10"/>
+      <c r="G127" s="11"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -4466,7 +4466,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="10"/>
+      <c r="G128" s="11"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -4494,7 +4494,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="10"/>
+      <c r="G129" s="11"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -4522,7 +4522,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="10"/>
+      <c r="G130" s="11"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -4550,7 +4550,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="10"/>
+      <c r="G131" s="11"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -4578,7 +4578,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="10"/>
+      <c r="G132" s="11"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -4606,7 +4606,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="10"/>
+      <c r="G133" s="11"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -4634,7 +4634,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="10"/>
+      <c r="G134" s="11"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -4662,7 +4662,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="10"/>
+      <c r="G135" s="11"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4690,7 +4690,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="10"/>
+      <c r="G136" s="11"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -4718,7 +4718,7 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="10"/>
+      <c r="G137" s="11"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -4746,7 +4746,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="10"/>
+      <c r="G138" s="11"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -4774,7 +4774,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="10"/>
+      <c r="G139" s="11"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -4802,7 +4802,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="10"/>
+      <c r="G140" s="11"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -4830,7 +4830,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="10"/>
+      <c r="G141" s="11"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -4858,7 +4858,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="10"/>
+      <c r="G142" s="11"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -4886,7 +4886,7 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="10"/>
+      <c r="G143" s="11"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -4914,7 +4914,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="10"/>
+      <c r="G144" s="11"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -4942,7 +4942,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="10"/>
+      <c r="G145" s="11"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -4970,7 +4970,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="10"/>
+      <c r="G146" s="11"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -4998,7 +4998,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="10"/>
+      <c r="G147" s="11"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -5026,7 +5026,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="10"/>
+      <c r="G148" s="11"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -5054,7 +5054,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="10"/>
+      <c r="G149" s="11"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -5082,7 +5082,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="10"/>
+      <c r="G150" s="11"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -5110,7 +5110,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="10"/>
+      <c r="G151" s="11"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -5138,7 +5138,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="10"/>
+      <c r="G152" s="11"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -5166,7 +5166,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="10"/>
+      <c r="G153" s="11"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -5194,7 +5194,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="10"/>
+      <c r="G154" s="11"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -5222,7 +5222,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="10"/>
+      <c r="G155" s="11"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -5250,7 +5250,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="10"/>
+      <c r="G156" s="11"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -5278,7 +5278,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="10"/>
+      <c r="G157" s="11"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -5306,7 +5306,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="10"/>
+      <c r="G158" s="11"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -5334,7 +5334,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="10"/>
+      <c r="G159" s="11"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -5362,7 +5362,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="10"/>
+      <c r="G160" s="11"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -5390,7 +5390,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="10"/>
+      <c r="G161" s="11"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -5418,7 +5418,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="10"/>
+      <c r="G162" s="11"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -5446,7 +5446,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="10"/>
+      <c r="G163" s="11"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -5474,7 +5474,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="10"/>
+      <c r="G164" s="11"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5502,7 +5502,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="10"/>
+      <c r="G165" s="11"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -5530,7 +5530,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="10"/>
+      <c r="G166" s="11"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -5558,7 +5558,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="10"/>
+      <c r="G167" s="11"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -5586,7 +5586,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="10"/>
+      <c r="G168" s="11"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -5614,7 +5614,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="10"/>
+      <c r="G169" s="11"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -5642,7 +5642,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="10"/>
+      <c r="G170" s="11"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -5670,7 +5670,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="10"/>
+      <c r="G171" s="11"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -5698,7 +5698,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="10"/>
+      <c r="G172" s="11"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -5726,7 +5726,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="10"/>
+      <c r="G173" s="11"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -5754,7 +5754,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="10"/>
+      <c r="G174" s="11"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -5782,7 +5782,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="10"/>
+      <c r="G175" s="11"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -5810,7 +5810,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="10"/>
+      <c r="G176" s="11"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -5838,7 +5838,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="10"/>
+      <c r="G177" s="11"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -5866,7 +5866,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="10"/>
+      <c r="G178" s="11"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -5894,7 +5894,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="10"/>
+      <c r="G179" s="11"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -5922,7 +5922,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="10"/>
+      <c r="G180" s="11"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -5950,7 +5950,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="10"/>
+      <c r="G181" s="11"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -5978,7 +5978,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="10"/>
+      <c r="G182" s="11"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -6006,7 +6006,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="10"/>
+      <c r="G183" s="11"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -6034,7 +6034,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="10"/>
+      <c r="G184" s="11"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -6062,7 +6062,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="10"/>
+      <c r="G185" s="11"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -6090,7 +6090,7 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="10"/>
+      <c r="G186" s="11"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -6118,7 +6118,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="10"/>
+      <c r="G187" s="11"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -6146,7 +6146,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="10"/>
+      <c r="G188" s="11"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -6174,7 +6174,7 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="10"/>
+      <c r="G189" s="11"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -6202,7 +6202,7 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="10"/>
+      <c r="G190" s="11"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -6230,7 +6230,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="10"/>
+      <c r="G191" s="11"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -6258,7 +6258,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="10"/>
+      <c r="G192" s="11"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -6286,7 +6286,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="10"/>
+      <c r="G193" s="11"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -6314,7 +6314,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="10"/>
+      <c r="G194" s="11"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -6342,7 +6342,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="10"/>
+      <c r="G195" s="11"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -6370,7 +6370,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="10"/>
+      <c r="G196" s="11"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -6398,7 +6398,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="10"/>
+      <c r="G197" s="11"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -6426,7 +6426,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="10"/>
+      <c r="G198" s="11"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -6454,7 +6454,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="10"/>
+      <c r="G199" s="11"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -6482,7 +6482,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="10"/>
+      <c r="G200" s="11"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -6510,7 +6510,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="10"/>
+      <c r="G201" s="11"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -6538,7 +6538,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="10"/>
+      <c r="G202" s="11"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -6566,7 +6566,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="10"/>
+      <c r="G203" s="11"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -6594,7 +6594,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="10"/>
+      <c r="G204" s="11"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -6622,7 +6622,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="10"/>
+      <c r="G205" s="11"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -6650,7 +6650,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="10"/>
+      <c r="G206" s="11"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -6678,7 +6678,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="10"/>
+      <c r="G207" s="11"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -6706,7 +6706,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="10"/>
+      <c r="G208" s="11"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -6734,7 +6734,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="10"/>
+      <c r="G209" s="11"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -6762,7 +6762,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="10"/>
+      <c r="G210" s="11"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -6790,7 +6790,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="10"/>
+      <c r="G211" s="11"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -6818,7 +6818,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-      <c r="G212" s="10"/>
+      <c r="G212" s="11"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -6846,7 +6846,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="10"/>
+      <c r="G213" s="11"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -6874,7 +6874,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="10"/>
+      <c r="G214" s="11"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -6902,7 +6902,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="10"/>
+      <c r="G215" s="11"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -6930,7 +6930,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="10"/>
+      <c r="G216" s="11"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -6958,7 +6958,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="10"/>
+      <c r="G217" s="11"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -6986,7 +6986,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="10"/>
+      <c r="G218" s="11"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -7014,7 +7014,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-      <c r="G219" s="10"/>
+      <c r="G219" s="11"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -7042,7 +7042,7 @@
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-      <c r="G220" s="10"/>
+      <c r="G220" s="11"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -7070,7 +7070,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="10"/>
+      <c r="G221" s="11"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -7098,7 +7098,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-      <c r="G222" s="10"/>
+      <c r="G222" s="11"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -7126,7 +7126,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-      <c r="G223" s="10"/>
+      <c r="G223" s="11"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -7154,7 +7154,7 @@
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-      <c r="G224" s="10"/>
+      <c r="G224" s="11"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -7182,7 +7182,7 @@
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-      <c r="G225" s="10"/>
+      <c r="G225" s="11"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -7210,7 +7210,7 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="10"/>
+      <c r="G226" s="11"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -7238,7 +7238,7 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="10"/>
+      <c r="G227" s="11"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -7266,7 +7266,7 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-      <c r="G228" s="10"/>
+      <c r="G228" s="11"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -7294,7 +7294,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-      <c r="G229" s="10"/>
+      <c r="G229" s="11"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -7322,7 +7322,7 @@
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-      <c r="G230" s="10"/>
+      <c r="G230" s="11"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -7350,7 +7350,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-      <c r="G231" s="10"/>
+      <c r="G231" s="11"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -7378,7 +7378,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-      <c r="G232" s="10"/>
+      <c r="G232" s="11"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -7406,7 +7406,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-      <c r="G233" s="10"/>
+      <c r="G233" s="11"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -7434,7 +7434,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-      <c r="G234" s="10"/>
+      <c r="G234" s="11"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -7462,7 +7462,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="10"/>
+      <c r="G235" s="11"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -7490,7 +7490,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="10"/>
+      <c r="G236" s="11"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -7518,7 +7518,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="10"/>
+      <c r="G237" s="11"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -7546,7 +7546,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-      <c r="G238" s="10"/>
+      <c r="G238" s="11"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -7574,7 +7574,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-      <c r="G239" s="10"/>
+      <c r="G239" s="11"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -7602,7 +7602,7 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-      <c r="G240" s="10"/>
+      <c r="G240" s="11"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -7630,7 +7630,7 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-      <c r="G241" s="10"/>
+      <c r="G241" s="11"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -7658,7 +7658,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-      <c r="G242" s="10"/>
+      <c r="G242" s="11"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -7686,7 +7686,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-      <c r="G243" s="10"/>
+      <c r="G243" s="11"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -7714,7 +7714,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-      <c r="G244" s="10"/>
+      <c r="G244" s="11"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -7742,7 +7742,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-      <c r="G245" s="10"/>
+      <c r="G245" s="11"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -7770,7 +7770,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-      <c r="G246" s="10"/>
+      <c r="G246" s="11"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -7798,7 +7798,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-      <c r="G247" s="10"/>
+      <c r="G247" s="11"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -7826,7 +7826,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-      <c r="G248" s="10"/>
+      <c r="G248" s="11"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -7854,7 +7854,7 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-      <c r="G249" s="10"/>
+      <c r="G249" s="11"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -7882,7 +7882,7 @@
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-      <c r="G250" s="10"/>
+      <c r="G250" s="11"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -7910,7 +7910,7 @@
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
-      <c r="G251" s="10"/>
+      <c r="G251" s="11"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -7938,7 +7938,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
-      <c r="G252" s="10"/>
+      <c r="G252" s="11"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -7966,7 +7966,7 @@
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
-      <c r="G253" s="10"/>
+      <c r="G253" s="11"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -7994,7 +7994,7 @@
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
-      <c r="G254" s="10"/>
+      <c r="G254" s="11"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -8022,7 +8022,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
-      <c r="G255" s="10"/>
+      <c r="G255" s="11"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -8050,7 +8050,7 @@
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
-      <c r="G256" s="10"/>
+      <c r="G256" s="11"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -8078,7 +8078,7 @@
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-      <c r="G257" s="10"/>
+      <c r="G257" s="11"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -8106,7 +8106,7 @@
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
-      <c r="G258" s="10"/>
+      <c r="G258" s="11"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -8134,7 +8134,7 @@
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
-      <c r="G259" s="10"/>
+      <c r="G259" s="11"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -8162,7 +8162,7 @@
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
-      <c r="G260" s="10"/>
+      <c r="G260" s="11"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -8190,7 +8190,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
-      <c r="G261" s="10"/>
+      <c r="G261" s="11"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -8218,7 +8218,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
-      <c r="G262" s="10"/>
+      <c r="G262" s="11"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -8246,7 +8246,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-      <c r="G263" s="10"/>
+      <c r="G263" s="11"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
@@ -8274,7 +8274,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-      <c r="G264" s="10"/>
+      <c r="G264" s="11"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
@@ -8302,7 +8302,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-      <c r="G265" s="10"/>
+      <c r="G265" s="11"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -8330,7 +8330,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-      <c r="G266" s="10"/>
+      <c r="G266" s="11"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
@@ -8358,7 +8358,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-      <c r="G267" s="10"/>
+      <c r="G267" s="11"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -8386,7 +8386,7 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-      <c r="G268" s="10"/>
+      <c r="G268" s="11"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -8414,7 +8414,7 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-      <c r="G269" s="10"/>
+      <c r="G269" s="11"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -8442,7 +8442,7 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-      <c r="G270" s="10"/>
+      <c r="G270" s="11"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -8470,7 +8470,7 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-      <c r="G271" s="10"/>
+      <c r="G271" s="11"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -8498,7 +8498,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-      <c r="G272" s="10"/>
+      <c r="G272" s="11"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -8526,7 +8526,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-      <c r="G273" s="10"/>
+      <c r="G273" s="11"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -8554,7 +8554,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-      <c r="G274" s="10"/>
+      <c r="G274" s="11"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -8582,7 +8582,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-      <c r="G275" s="10"/>
+      <c r="G275" s="11"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -8610,7 +8610,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-      <c r="G276" s="10"/>
+      <c r="G276" s="11"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -8638,7 +8638,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-      <c r="G277" s="10"/>
+      <c r="G277" s="11"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -8666,7 +8666,7 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-      <c r="G278" s="10"/>
+      <c r="G278" s="11"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -8694,7 +8694,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-      <c r="G279" s="10"/>
+      <c r="G279" s="11"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -8722,7 +8722,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-      <c r="G280" s="10"/>
+      <c r="G280" s="11"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -8750,7 +8750,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-      <c r="G281" s="10"/>
+      <c r="G281" s="11"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -8778,7 +8778,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-      <c r="G282" s="10"/>
+      <c r="G282" s="11"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -8806,7 +8806,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-      <c r="G283" s="10"/>
+      <c r="G283" s="11"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -8834,7 +8834,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-      <c r="G284" s="10"/>
+      <c r="G284" s="11"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -8862,7 +8862,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-      <c r="G285" s="10"/>
+      <c r="G285" s="11"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -8890,7 +8890,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="10"/>
+      <c r="G286" s="11"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -8918,7 +8918,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="10"/>
+      <c r="G287" s="11"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -8946,7 +8946,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="10"/>
+      <c r="G288" s="11"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -8974,7 +8974,7 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-      <c r="G289" s="10"/>
+      <c r="G289" s="11"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -9002,7 +9002,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="10"/>
+      <c r="G290" s="11"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -9030,7 +9030,7 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="10"/>
+      <c r="G291" s="11"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -9058,7 +9058,7 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-      <c r="G292" s="10"/>
+      <c r="G292" s="11"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
@@ -9086,7 +9086,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-      <c r="G293" s="10"/>
+      <c r="G293" s="11"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
@@ -9114,7 +9114,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-      <c r="G294" s="10"/>
+      <c r="G294" s="11"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
@@ -9142,7 +9142,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-      <c r="G295" s="10"/>
+      <c r="G295" s="11"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
@@ -9170,7 +9170,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="10"/>
+      <c r="G296" s="11"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
@@ -9198,7 +9198,7 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-      <c r="G297" s="10"/>
+      <c r="G297" s="11"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
@@ -9226,7 +9226,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-      <c r="G298" s="10"/>
+      <c r="G298" s="11"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
@@ -9254,7 +9254,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-      <c r="G299" s="10"/>
+      <c r="G299" s="11"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
@@ -9282,7 +9282,7 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-      <c r="G300" s="10"/>
+      <c r="G300" s="11"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
@@ -9310,7 +9310,7 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-      <c r="G301" s="10"/>
+      <c r="G301" s="11"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
@@ -9338,7 +9338,7 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-      <c r="G302" s="10"/>
+      <c r="G302" s="11"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
@@ -9366,7 +9366,7 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-      <c r="G303" s="10"/>
+      <c r="G303" s="11"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -9394,7 +9394,7 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-      <c r="G304" s="10"/>
+      <c r="G304" s="11"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -9422,7 +9422,7 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-      <c r="G305" s="10"/>
+      <c r="G305" s="11"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -9450,7 +9450,7 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-      <c r="G306" s="10"/>
+      <c r="G306" s="11"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -9478,7 +9478,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-      <c r="G307" s="10"/>
+      <c r="G307" s="11"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -9506,7 +9506,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-      <c r="G308" s="10"/>
+      <c r="G308" s="11"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -9534,7 +9534,7 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-      <c r="G309" s="10"/>
+      <c r="G309" s="11"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -9562,7 +9562,7 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-      <c r="G310" s="10"/>
+      <c r="G310" s="11"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -9590,7 +9590,7 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-      <c r="G311" s="10"/>
+      <c r="G311" s="11"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -9618,7 +9618,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-      <c r="G312" s="10"/>
+      <c r="G312" s="11"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -9646,7 +9646,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-      <c r="G313" s="10"/>
+      <c r="G313" s="11"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -9674,7 +9674,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-      <c r="G314" s="10"/>
+      <c r="G314" s="11"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -9702,7 +9702,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-      <c r="G315" s="10"/>
+      <c r="G315" s="11"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -9730,7 +9730,7 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-      <c r="G316" s="10"/>
+      <c r="G316" s="11"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -9758,7 +9758,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-      <c r="G317" s="10"/>
+      <c r="G317" s="11"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -9786,7 +9786,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-      <c r="G318" s="10"/>
+      <c r="G318" s="11"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -9814,7 +9814,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-      <c r="G319" s="10"/>
+      <c r="G319" s="11"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -9842,7 +9842,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-      <c r="G320" s="10"/>
+      <c r="G320" s="11"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -9870,7 +9870,7 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-      <c r="G321" s="10"/>
+      <c r="G321" s="11"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
@@ -9898,7 +9898,7 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-      <c r="G322" s="10"/>
+      <c r="G322" s="11"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
@@ -9926,7 +9926,7 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-      <c r="G323" s="10"/>
+      <c r="G323" s="11"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
@@ -9954,7 +9954,7 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-      <c r="G324" s="10"/>
+      <c r="G324" s="11"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
@@ -9982,7 +9982,7 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-      <c r="G325" s="10"/>
+      <c r="G325" s="11"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
@@ -10010,7 +10010,7 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-      <c r="G326" s="10"/>
+      <c r="G326" s="11"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
@@ -10038,7 +10038,7 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-      <c r="G327" s="10"/>
+      <c r="G327" s="11"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
@@ -10066,7 +10066,7 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-      <c r="G328" s="10"/>
+      <c r="G328" s="11"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
@@ -10094,7 +10094,7 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-      <c r="G329" s="10"/>
+      <c r="G329" s="11"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
@@ -10122,7 +10122,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-      <c r="G330" s="10"/>
+      <c r="G330" s="11"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
@@ -10150,7 +10150,7 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-      <c r="G331" s="10"/>
+      <c r="G331" s="11"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
@@ -10178,7 +10178,7 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-      <c r="G332" s="10"/>
+      <c r="G332" s="11"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -10206,7 +10206,7 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-      <c r="G333" s="10"/>
+      <c r="G333" s="11"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -10234,7 +10234,7 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-      <c r="G334" s="10"/>
+      <c r="G334" s="11"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -10262,7 +10262,7 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-      <c r="G335" s="10"/>
+      <c r="G335" s="11"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -10290,7 +10290,7 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-      <c r="G336" s="10"/>
+      <c r="G336" s="11"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -10318,7 +10318,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-      <c r="G337" s="10"/>
+      <c r="G337" s="11"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -10346,7 +10346,7 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-      <c r="G338" s="10"/>
+      <c r="G338" s="11"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -10374,7 +10374,7 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-      <c r="G339" s="10"/>
+      <c r="G339" s="11"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -10402,7 +10402,7 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-      <c r="G340" s="10"/>
+      <c r="G340" s="11"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -10430,7 +10430,7 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-      <c r="G341" s="10"/>
+      <c r="G341" s="11"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -10458,7 +10458,7 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-      <c r="G342" s="10"/>
+      <c r="G342" s="11"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -10486,7 +10486,7 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-      <c r="G343" s="10"/>
+      <c r="G343" s="11"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -10514,7 +10514,7 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-      <c r="G344" s="10"/>
+      <c r="G344" s="11"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -10542,7 +10542,7 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-      <c r="G345" s="10"/>
+      <c r="G345" s="11"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -10570,7 +10570,7 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-      <c r="G346" s="10"/>
+      <c r="G346" s="11"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -10598,7 +10598,7 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-      <c r="G347" s="10"/>
+      <c r="G347" s="11"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -10626,7 +10626,7 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-      <c r="G348" s="10"/>
+      <c r="G348" s="11"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -10654,7 +10654,7 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-      <c r="G349" s="10"/>
+      <c r="G349" s="11"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -10682,7 +10682,7 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-      <c r="G350" s="10"/>
+      <c r="G350" s="11"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
@@ -10710,7 +10710,7 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-      <c r="G351" s="10"/>
+      <c r="G351" s="11"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
@@ -10738,7 +10738,7 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-      <c r="G352" s="10"/>
+      <c r="G352" s="11"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
@@ -10766,7 +10766,7 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-      <c r="G353" s="10"/>
+      <c r="G353" s="11"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
@@ -10794,7 +10794,7 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-      <c r="G354" s="10"/>
+      <c r="G354" s="11"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
@@ -10822,7 +10822,7 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-      <c r="G355" s="10"/>
+      <c r="G355" s="11"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
@@ -10850,7 +10850,7 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-      <c r="G356" s="10"/>
+      <c r="G356" s="11"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
@@ -10878,7 +10878,7 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
-      <c r="G357" s="10"/>
+      <c r="G357" s="11"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
@@ -10906,7 +10906,7 @@
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
-      <c r="G358" s="10"/>
+      <c r="G358" s="11"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
@@ -10934,7 +10934,7 @@
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
-      <c r="G359" s="10"/>
+      <c r="G359" s="11"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
@@ -10962,7 +10962,7 @@
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
-      <c r="G360" s="10"/>
+      <c r="G360" s="11"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
@@ -10990,7 +10990,7 @@
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
-      <c r="G361" s="10"/>
+      <c r="G361" s="11"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -11018,7 +11018,7 @@
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
-      <c r="G362" s="10"/>
+      <c r="G362" s="11"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -11046,7 +11046,7 @@
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
-      <c r="G363" s="10"/>
+      <c r="G363" s="11"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -11074,7 +11074,7 @@
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
-      <c r="G364" s="10"/>
+      <c r="G364" s="11"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -11102,7 +11102,7 @@
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
-      <c r="G365" s="10"/>
+      <c r="G365" s="11"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -11130,7 +11130,7 @@
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
-      <c r="G366" s="10"/>
+      <c r="G366" s="11"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -11158,7 +11158,7 @@
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
-      <c r="G367" s="10"/>
+      <c r="G367" s="11"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -11186,7 +11186,7 @@
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
-      <c r="G368" s="10"/>
+      <c r="G368" s="11"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -11214,7 +11214,7 @@
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
-      <c r="G369" s="10"/>
+      <c r="G369" s="11"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -11242,7 +11242,7 @@
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
-      <c r="G370" s="10"/>
+      <c r="G370" s="11"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -11270,7 +11270,7 @@
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
-      <c r="G371" s="10"/>
+      <c r="G371" s="11"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -11298,7 +11298,7 @@
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
-      <c r="G372" s="10"/>
+      <c r="G372" s="11"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -11326,7 +11326,7 @@
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
-      <c r="G373" s="10"/>
+      <c r="G373" s="11"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -11354,7 +11354,7 @@
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
-      <c r="G374" s="10"/>
+      <c r="G374" s="11"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -11382,7 +11382,7 @@
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
-      <c r="G375" s="10"/>
+      <c r="G375" s="11"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -11410,7 +11410,7 @@
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
-      <c r="G376" s="10"/>
+      <c r="G376" s="11"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -11438,7 +11438,7 @@
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
-      <c r="G377" s="10"/>
+      <c r="G377" s="11"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -11466,7 +11466,7 @@
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
-      <c r="G378" s="10"/>
+      <c r="G378" s="11"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -11494,7 +11494,7 @@
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
-      <c r="G379" s="10"/>
+      <c r="G379" s="11"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
@@ -11522,7 +11522,7 @@
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
-      <c r="G380" s="10"/>
+      <c r="G380" s="11"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
@@ -11550,7 +11550,7 @@
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
-      <c r="G381" s="10"/>
+      <c r="G381" s="11"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
@@ -11578,7 +11578,7 @@
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
-      <c r="G382" s="10"/>
+      <c r="G382" s="11"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
@@ -11606,7 +11606,7 @@
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
-      <c r="G383" s="10"/>
+      <c r="G383" s="11"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
@@ -11634,7 +11634,7 @@
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
-      <c r="G384" s="10"/>
+      <c r="G384" s="11"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
@@ -11662,7 +11662,7 @@
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
-      <c r="G385" s="10"/>
+      <c r="G385" s="11"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
@@ -11690,7 +11690,7 @@
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
-      <c r="G386" s="10"/>
+      <c r="G386" s="11"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
@@ -11718,7 +11718,7 @@
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
-      <c r="G387" s="10"/>
+      <c r="G387" s="11"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
@@ -11746,7 +11746,7 @@
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
-      <c r="G388" s="10"/>
+      <c r="G388" s="11"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
@@ -11774,7 +11774,7 @@
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
-      <c r="G389" s="10"/>
+      <c r="G389" s="11"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
@@ -11802,7 +11802,7 @@
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
-      <c r="G390" s="10"/>
+      <c r="G390" s="11"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -11830,7 +11830,7 @@
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
-      <c r="G391" s="10"/>
+      <c r="G391" s="11"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -11858,7 +11858,7 @@
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
-      <c r="G392" s="10"/>
+      <c r="G392" s="11"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -11886,7 +11886,7 @@
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
-      <c r="G393" s="10"/>
+      <c r="G393" s="11"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -11914,7 +11914,7 @@
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
-      <c r="G394" s="10"/>
+      <c r="G394" s="11"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -11942,7 +11942,7 @@
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
-      <c r="G395" s="10"/>
+      <c r="G395" s="11"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -11970,7 +11970,7 @@
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
-      <c r="G396" s="10"/>
+      <c r="G396" s="11"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -11998,7 +11998,7 @@
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
-      <c r="G397" s="10"/>
+      <c r="G397" s="11"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -12026,7 +12026,7 @@
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
-      <c r="G398" s="10"/>
+      <c r="G398" s="11"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -12054,7 +12054,7 @@
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
-      <c r="G399" s="10"/>
+      <c r="G399" s="11"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -12082,7 +12082,7 @@
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
-      <c r="G400" s="10"/>
+      <c r="G400" s="11"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -12110,7 +12110,7 @@
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
-      <c r="G401" s="10"/>
+      <c r="G401" s="11"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -12138,7 +12138,7 @@
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
-      <c r="G402" s="10"/>
+      <c r="G402" s="11"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -12166,7 +12166,7 @@
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
-      <c r="G403" s="10"/>
+      <c r="G403" s="11"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -12194,7 +12194,7 @@
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
-      <c r="G404" s="10"/>
+      <c r="G404" s="11"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -12222,7 +12222,7 @@
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
-      <c r="G405" s="10"/>
+      <c r="G405" s="11"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -12250,7 +12250,7 @@
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
-      <c r="G406" s="10"/>
+      <c r="G406" s="11"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -12278,7 +12278,7 @@
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
-      <c r="G407" s="10"/>
+      <c r="G407" s="11"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
@@ -12306,7 +12306,7 @@
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
-      <c r="G408" s="10"/>
+      <c r="G408" s="11"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
@@ -12334,7 +12334,7 @@
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
-      <c r="G409" s="10"/>
+      <c r="G409" s="11"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
@@ -12362,7 +12362,7 @@
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
-      <c r="G410" s="10"/>
+      <c r="G410" s="11"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
@@ -12390,7 +12390,7 @@
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
-      <c r="G411" s="10"/>
+      <c r="G411" s="11"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
@@ -12418,7 +12418,7 @@
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
-      <c r="G412" s="10"/>
+      <c r="G412" s="11"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
@@ -12446,7 +12446,7 @@
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
-      <c r="G413" s="10"/>
+      <c r="G413" s="11"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
@@ -12474,7 +12474,7 @@
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
-      <c r="G414" s="10"/>
+      <c r="G414" s="11"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
@@ -12502,7 +12502,7 @@
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
-      <c r="G415" s="10"/>
+      <c r="G415" s="11"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
@@ -12530,7 +12530,7 @@
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
-      <c r="G416" s="10"/>
+      <c r="G416" s="11"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
@@ -12558,7 +12558,7 @@
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
-      <c r="G417" s="10"/>
+      <c r="G417" s="11"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
@@ -12586,7 +12586,7 @@
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
-      <c r="G418" s="10"/>
+      <c r="G418" s="11"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
@@ -12614,7 +12614,7 @@
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
-      <c r="G419" s="10"/>
+      <c r="G419" s="11"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
@@ -12642,7 +12642,7 @@
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
-      <c r="G420" s="10"/>
+      <c r="G420" s="11"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -12670,7 +12670,7 @@
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
-      <c r="G421" s="10"/>
+      <c r="G421" s="11"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -12698,7 +12698,7 @@
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
-      <c r="G422" s="10"/>
+      <c r="G422" s="11"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -12726,7 +12726,7 @@
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
-      <c r="G423" s="10"/>
+      <c r="G423" s="11"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -12754,7 +12754,7 @@
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
-      <c r="G424" s="10"/>
+      <c r="G424" s="11"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -12782,7 +12782,7 @@
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
-      <c r="G425" s="10"/>
+      <c r="G425" s="11"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -12810,7 +12810,7 @@
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
-      <c r="G426" s="10"/>
+      <c r="G426" s="11"/>
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -12838,7 +12838,7 @@
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
-      <c r="G427" s="10"/>
+      <c r="G427" s="11"/>
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -12866,7 +12866,7 @@
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
-      <c r="G428" s="10"/>
+      <c r="G428" s="11"/>
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -12894,7 +12894,7 @@
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
-      <c r="G429" s="10"/>
+      <c r="G429" s="11"/>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -12922,7 +12922,7 @@
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
-      <c r="G430" s="10"/>
+      <c r="G430" s="11"/>
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -12950,7 +12950,7 @@
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
-      <c r="G431" s="10"/>
+      <c r="G431" s="11"/>
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -12978,7 +12978,7 @@
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
-      <c r="G432" s="10"/>
+      <c r="G432" s="11"/>
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -13006,7 +13006,7 @@
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
-      <c r="G433" s="10"/>
+      <c r="G433" s="11"/>
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -13034,7 +13034,7 @@
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
-      <c r="G434" s="10"/>
+      <c r="G434" s="11"/>
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -13062,7 +13062,7 @@
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
-      <c r="G435" s="10"/>
+      <c r="G435" s="11"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -13090,7 +13090,7 @@
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
-      <c r="G436" s="10"/>
+      <c r="G436" s="11"/>
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
@@ -13118,7 +13118,7 @@
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
-      <c r="G437" s="10"/>
+      <c r="G437" s="11"/>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
@@ -13146,7 +13146,7 @@
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
-      <c r="G438" s="10"/>
+      <c r="G438" s="11"/>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
@@ -13174,7 +13174,7 @@
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
-      <c r="G439" s="10"/>
+      <c r="G439" s="11"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
@@ -13202,7 +13202,7 @@
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
-      <c r="G440" s="10"/>
+      <c r="G440" s="11"/>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
@@ -13230,7 +13230,7 @@
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
-      <c r="G441" s="10"/>
+      <c r="G441" s="11"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
@@ -13258,7 +13258,7 @@
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
-      <c r="G442" s="10"/>
+      <c r="G442" s="11"/>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
@@ -13286,7 +13286,7 @@
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
-      <c r="G443" s="10"/>
+      <c r="G443" s="11"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
@@ -13314,7 +13314,7 @@
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
-      <c r="G444" s="10"/>
+      <c r="G444" s="11"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
@@ -13342,7 +13342,7 @@
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
-      <c r="G445" s="10"/>
+      <c r="G445" s="11"/>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
@@ -13370,7 +13370,7 @@
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
-      <c r="G446" s="10"/>
+      <c r="G446" s="11"/>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
@@ -13398,7 +13398,7 @@
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
-      <c r="G447" s="10"/>
+      <c r="G447" s="11"/>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
@@ -13426,7 +13426,7 @@
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
-      <c r="G448" s="10"/>
+      <c r="G448" s="11"/>
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
@@ -13454,7 +13454,7 @@
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
-      <c r="G449" s="10"/>
+      <c r="G449" s="11"/>
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -13482,7 +13482,7 @@
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
-      <c r="G450" s="10"/>
+      <c r="G450" s="11"/>
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -13510,7 +13510,7 @@
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
-      <c r="G451" s="10"/>
+      <c r="G451" s="11"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -13538,7 +13538,7 @@
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
-      <c r="G452" s="10"/>
+      <c r="G452" s="11"/>
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -13566,7 +13566,7 @@
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
-      <c r="G453" s="10"/>
+      <c r="G453" s="11"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -13594,7 +13594,7 @@
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
-      <c r="G454" s="10"/>
+      <c r="G454" s="11"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -13622,7 +13622,7 @@
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
-      <c r="G455" s="10"/>
+      <c r="G455" s="11"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -13650,7 +13650,7 @@
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
-      <c r="G456" s="10"/>
+      <c r="G456" s="11"/>
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -13678,7 +13678,7 @@
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
-      <c r="G457" s="10"/>
+      <c r="G457" s="11"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -13706,7 +13706,7 @@
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
-      <c r="G458" s="10"/>
+      <c r="G458" s="11"/>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -13734,7 +13734,7 @@
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
-      <c r="G459" s="10"/>
+      <c r="G459" s="11"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -13762,7 +13762,7 @@
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
-      <c r="G460" s="10"/>
+      <c r="G460" s="11"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -13790,7 +13790,7 @@
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
-      <c r="G461" s="10"/>
+      <c r="G461" s="11"/>
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -13818,7 +13818,7 @@
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
-      <c r="G462" s="10"/>
+      <c r="G462" s="11"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -13846,7 +13846,7 @@
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
-      <c r="G463" s="10"/>
+      <c r="G463" s="11"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -13874,7 +13874,7 @@
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
-      <c r="G464" s="10"/>
+      <c r="G464" s="11"/>
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -13902,7 +13902,7 @@
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
-      <c r="G465" s="10"/>
+      <c r="G465" s="11"/>
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
@@ -13930,7 +13930,7 @@
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
-      <c r="G466" s="10"/>
+      <c r="G466" s="11"/>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
@@ -13958,7 +13958,7 @@
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
-      <c r="G467" s="10"/>
+      <c r="G467" s="11"/>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
@@ -13986,7 +13986,7 @@
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
-      <c r="G468" s="10"/>
+      <c r="G468" s="11"/>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
@@ -14014,7 +14014,7 @@
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
-      <c r="G469" s="10"/>
+      <c r="G469" s="11"/>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
@@ -14042,7 +14042,7 @@
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
-      <c r="G470" s="10"/>
+      <c r="G470" s="11"/>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
@@ -14070,7 +14070,7 @@
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
-      <c r="G471" s="10"/>
+      <c r="G471" s="11"/>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
@@ -14098,7 +14098,7 @@
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
-      <c r="G472" s="10"/>
+      <c r="G472" s="11"/>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
@@ -14126,7 +14126,7 @@
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
-      <c r="G473" s="10"/>
+      <c r="G473" s="11"/>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
@@ -14154,7 +14154,7 @@
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
-      <c r="G474" s="10"/>
+      <c r="G474" s="11"/>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
@@ -14182,7 +14182,7 @@
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
-      <c r="G475" s="10"/>
+      <c r="G475" s="11"/>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
@@ -14210,7 +14210,7 @@
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
-      <c r="G476" s="10"/>
+      <c r="G476" s="11"/>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
@@ -14238,7 +14238,7 @@
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
-      <c r="G477" s="10"/>
+      <c r="G477" s="11"/>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
@@ -14266,7 +14266,7 @@
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
-      <c r="G478" s="10"/>
+      <c r="G478" s="11"/>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -14294,7 +14294,7 @@
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
-      <c r="G479" s="10"/>
+      <c r="G479" s="11"/>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -14322,7 +14322,7 @@
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
-      <c r="G480" s="10"/>
+      <c r="G480" s="11"/>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -14350,7 +14350,7 @@
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
-      <c r="G481" s="10"/>
+      <c r="G481" s="11"/>
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -14378,7 +14378,7 @@
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
-      <c r="G482" s="10"/>
+      <c r="G482" s="11"/>
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -14406,7 +14406,7 @@
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
-      <c r="G483" s="10"/>
+      <c r="G483" s="11"/>
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -14434,7 +14434,7 @@
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
-      <c r="G484" s="10"/>
+      <c r="G484" s="11"/>
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -14462,7 +14462,7 @@
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
-      <c r="G485" s="10"/>
+      <c r="G485" s="11"/>
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -14490,7 +14490,7 @@
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
-      <c r="G486" s="10"/>
+      <c r="G486" s="11"/>
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -14518,7 +14518,7 @@
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
-      <c r="G487" s="10"/>
+      <c r="G487" s="11"/>
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -14546,7 +14546,7 @@
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
-      <c r="G488" s="10"/>
+      <c r="G488" s="11"/>
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -14574,7 +14574,7 @@
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
-      <c r="G489" s="10"/>
+      <c r="G489" s="11"/>
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -14602,7 +14602,7 @@
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
-      <c r="G490" s="10"/>
+      <c r="G490" s="11"/>
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -14630,7 +14630,7 @@
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
-      <c r="G491" s="10"/>
+      <c r="G491" s="11"/>
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -14658,7 +14658,7 @@
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
-      <c r="G492" s="10"/>
+      <c r="G492" s="11"/>
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -14686,7 +14686,7 @@
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
-      <c r="G493" s="10"/>
+      <c r="G493" s="11"/>
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -14714,7 +14714,7 @@
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
-      <c r="G494" s="10"/>
+      <c r="G494" s="11"/>
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
@@ -14742,7 +14742,7 @@
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
-      <c r="G495" s="10"/>
+      <c r="G495" s="11"/>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
@@ -14770,7 +14770,7 @@
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
-      <c r="G496" s="10"/>
+      <c r="G496" s="11"/>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
@@ -14798,7 +14798,7 @@
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
-      <c r="G497" s="10"/>
+      <c r="G497" s="11"/>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
@@ -14826,7 +14826,7 @@
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
-      <c r="G498" s="10"/>
+      <c r="G498" s="11"/>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
@@ -14854,7 +14854,7 @@
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
-      <c r="G499" s="10"/>
+      <c r="G499" s="11"/>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
@@ -14882,7 +14882,7 @@
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
-      <c r="G500" s="10"/>
+      <c r="G500" s="11"/>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
@@ -14910,7 +14910,7 @@
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
-      <c r="G501" s="10"/>
+      <c r="G501" s="11"/>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
@@ -14938,7 +14938,7 @@
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
-      <c r="G502" s="10"/>
+      <c r="G502" s="11"/>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
@@ -14966,7 +14966,7 @@
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
-      <c r="G503" s="10"/>
+      <c r="G503" s="11"/>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
       <c r="J503" s="1"/>
@@ -14994,7 +14994,7 @@
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
-      <c r="G504" s="10"/>
+      <c r="G504" s="11"/>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
@@ -15022,7 +15022,7 @@
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
-      <c r="G505" s="10"/>
+      <c r="G505" s="11"/>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
@@ -15050,7 +15050,7 @@
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
-      <c r="G506" s="10"/>
+      <c r="G506" s="11"/>
       <c r="H506" s="1"/>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
@@ -15078,7 +15078,7 @@
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
-      <c r="G507" s="10"/>
+      <c r="G507" s="11"/>
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
@@ -15106,7 +15106,7 @@
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
-      <c r="G508" s="10"/>
+      <c r="G508" s="11"/>
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
@@ -15134,7 +15134,7 @@
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
-      <c r="G509" s="10"/>
+      <c r="G509" s="11"/>
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
@@ -15162,7 +15162,7 @@
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
-      <c r="G510" s="10"/>
+      <c r="G510" s="11"/>
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
@@ -15190,7 +15190,7 @@
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
-      <c r="G511" s="10"/>
+      <c r="G511" s="11"/>
       <c r="H511" s="1"/>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
@@ -15218,7 +15218,7 @@
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
-      <c r="G512" s="10"/>
+      <c r="G512" s="11"/>
       <c r="H512" s="1"/>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
@@ -15246,7 +15246,7 @@
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
-      <c r="G513" s="10"/>
+      <c r="G513" s="11"/>
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
@@ -15274,7 +15274,7 @@
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
-      <c r="G514" s="10"/>
+      <c r="G514" s="11"/>
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
@@ -15302,7 +15302,7 @@
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
-      <c r="G515" s="10"/>
+      <c r="G515" s="11"/>
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
@@ -15330,7 +15330,7 @@
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
-      <c r="G516" s="10"/>
+      <c r="G516" s="11"/>
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
@@ -15358,7 +15358,7 @@
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
-      <c r="G517" s="10"/>
+      <c r="G517" s="11"/>
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
@@ -15386,7 +15386,7 @@
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
-      <c r="G518" s="10"/>
+      <c r="G518" s="11"/>
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -15414,7 +15414,7 @@
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
-      <c r="G519" s="10"/>
+      <c r="G519" s="11"/>
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -15442,7 +15442,7 @@
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
-      <c r="G520" s="10"/>
+      <c r="G520" s="11"/>
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -15470,7 +15470,7 @@
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
-      <c r="G521" s="10"/>
+      <c r="G521" s="11"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -15498,7 +15498,7 @@
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
-      <c r="G522" s="10"/>
+      <c r="G522" s="11"/>
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -15526,7 +15526,7 @@
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
-      <c r="G523" s="10"/>
+      <c r="G523" s="11"/>
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
@@ -15554,7 +15554,7 @@
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
-      <c r="G524" s="10"/>
+      <c r="G524" s="11"/>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
       <c r="J524" s="1"/>
@@ -15582,7 +15582,7 @@
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
-      <c r="G525" s="10"/>
+      <c r="G525" s="11"/>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
@@ -15610,7 +15610,7 @@
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
-      <c r="G526" s="10"/>
+      <c r="G526" s="11"/>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
@@ -15638,7 +15638,7 @@
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
-      <c r="G527" s="10"/>
+      <c r="G527" s="11"/>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
@@ -15666,7 +15666,7 @@
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
-      <c r="G528" s="10"/>
+      <c r="G528" s="11"/>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
@@ -15694,7 +15694,7 @@
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
-      <c r="G529" s="10"/>
+      <c r="G529" s="11"/>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
@@ -15722,7 +15722,7 @@
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
-      <c r="G530" s="10"/>
+      <c r="G530" s="11"/>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
@@ -15750,7 +15750,7 @@
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
-      <c r="G531" s="10"/>
+      <c r="G531" s="11"/>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
@@ -15778,7 +15778,7 @@
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
-      <c r="G532" s="10"/>
+      <c r="G532" s="11"/>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
@@ -15806,7 +15806,7 @@
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
-      <c r="G533" s="10"/>
+      <c r="G533" s="11"/>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
@@ -15834,7 +15834,7 @@
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
-      <c r="G534" s="10"/>
+      <c r="G534" s="11"/>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
@@ -15862,7 +15862,7 @@
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
-      <c r="G535" s="10"/>
+      <c r="G535" s="11"/>
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
@@ -15890,7 +15890,7 @@
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
-      <c r="G536" s="10"/>
+      <c r="G536" s="11"/>
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -15918,7 +15918,7 @@
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
-      <c r="G537" s="10"/>
+      <c r="G537" s="11"/>
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -15946,7 +15946,7 @@
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
-      <c r="G538" s="10"/>
+      <c r="G538" s="11"/>
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -15974,7 +15974,7 @@
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
-      <c r="G539" s="10"/>
+      <c r="G539" s="11"/>
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -16002,7 +16002,7 @@
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
-      <c r="G540" s="10"/>
+      <c r="G540" s="11"/>
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -16030,7 +16030,7 @@
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
-      <c r="G541" s="10"/>
+      <c r="G541" s="11"/>
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -16058,7 +16058,7 @@
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
-      <c r="G542" s="10"/>
+      <c r="G542" s="11"/>
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -16086,7 +16086,7 @@
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
-      <c r="G543" s="10"/>
+      <c r="G543" s="11"/>
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -16114,7 +16114,7 @@
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
-      <c r="G544" s="10"/>
+      <c r="G544" s="11"/>
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -16142,7 +16142,7 @@
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
-      <c r="G545" s="10"/>
+      <c r="G545" s="11"/>
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -16170,7 +16170,7 @@
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
-      <c r="G546" s="10"/>
+      <c r="G546" s="11"/>
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -16198,7 +16198,7 @@
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
-      <c r="G547" s="10"/>
+      <c r="G547" s="11"/>
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -16226,7 +16226,7 @@
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
-      <c r="G548" s="10"/>
+      <c r="G548" s="11"/>
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -16254,7 +16254,7 @@
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
-      <c r="G549" s="10"/>
+      <c r="G549" s="11"/>
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -16282,7 +16282,7 @@
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
-      <c r="G550" s="10"/>
+      <c r="G550" s="11"/>
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -16310,7 +16310,7 @@
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
-      <c r="G551" s="10"/>
+      <c r="G551" s="11"/>
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -16338,7 +16338,7 @@
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
-      <c r="G552" s="10"/>
+      <c r="G552" s="11"/>
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
@@ -16366,7 +16366,7 @@
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
-      <c r="G553" s="10"/>
+      <c r="G553" s="11"/>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
@@ -16394,7 +16394,7 @@
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
-      <c r="G554" s="10"/>
+      <c r="G554" s="11"/>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
@@ -16422,7 +16422,7 @@
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
-      <c r="G555" s="10"/>
+      <c r="G555" s="11"/>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
@@ -16450,7 +16450,7 @@
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
-      <c r="G556" s="10"/>
+      <c r="G556" s="11"/>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
@@ -16478,7 +16478,7 @@
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
-      <c r="G557" s="10"/>
+      <c r="G557" s="11"/>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
@@ -16506,7 +16506,7 @@
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
-      <c r="G558" s="10"/>
+      <c r="G558" s="11"/>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
@@ -16534,7 +16534,7 @@
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
-      <c r="G559" s="10"/>
+      <c r="G559" s="11"/>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
@@ -16562,7 +16562,7 @@
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
-      <c r="G560" s="10"/>
+      <c r="G560" s="11"/>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
@@ -16590,7 +16590,7 @@
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
-      <c r="G561" s="10"/>
+      <c r="G561" s="11"/>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
@@ -16618,7 +16618,7 @@
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
-      <c r="G562" s="10"/>
+      <c r="G562" s="11"/>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
@@ -16646,7 +16646,7 @@
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
-      <c r="G563" s="10"/>
+      <c r="G563" s="11"/>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
@@ -16674,7 +16674,7 @@
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
-      <c r="G564" s="10"/>
+      <c r="G564" s="11"/>
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
@@ -16702,7 +16702,7 @@
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
-      <c r="G565" s="10"/>
+      <c r="G565" s="11"/>
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -16730,7 +16730,7 @@
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
-      <c r="G566" s="10"/>
+      <c r="G566" s="11"/>
       <c r="H566" s="1"/>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -16758,7 +16758,7 @@
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
-      <c r="G567" s="10"/>
+      <c r="G567" s="11"/>
       <c r="H567" s="1"/>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -16786,7 +16786,7 @@
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
-      <c r="G568" s="10"/>
+      <c r="G568" s="11"/>
       <c r="H568" s="1"/>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -16814,7 +16814,7 @@
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
-      <c r="G569" s="10"/>
+      <c r="G569" s="11"/>
       <c r="H569" s="1"/>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -16842,7 +16842,7 @@
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
-      <c r="G570" s="10"/>
+      <c r="G570" s="11"/>
       <c r="H570" s="1"/>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -16870,7 +16870,7 @@
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
-      <c r="G571" s="10"/>
+      <c r="G571" s="11"/>
       <c r="H571" s="1"/>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -16898,7 +16898,7 @@
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
-      <c r="G572" s="10"/>
+      <c r="G572" s="11"/>
       <c r="H572" s="1"/>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -16926,7 +16926,7 @@
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
-      <c r="G573" s="10"/>
+      <c r="G573" s="11"/>
       <c r="H573" s="1"/>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -16954,7 +16954,7 @@
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
-      <c r="G574" s="10"/>
+      <c r="G574" s="11"/>
       <c r="H574" s="1"/>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -16982,7 +16982,7 @@
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
-      <c r="G575" s="10"/>
+      <c r="G575" s="11"/>
       <c r="H575" s="1"/>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -17010,7 +17010,7 @@
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
-      <c r="G576" s="10"/>
+      <c r="G576" s="11"/>
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -17038,7 +17038,7 @@
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
-      <c r="G577" s="10"/>
+      <c r="G577" s="11"/>
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -17066,7 +17066,7 @@
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
-      <c r="G578" s="10"/>
+      <c r="G578" s="11"/>
       <c r="H578" s="1"/>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -17094,7 +17094,7 @@
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
-      <c r="G579" s="10"/>
+      <c r="G579" s="11"/>
       <c r="H579" s="1"/>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -17122,7 +17122,7 @@
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
-      <c r="G580" s="10"/>
+      <c r="G580" s="11"/>
       <c r="H580" s="1"/>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -17150,7 +17150,7 @@
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
-      <c r="G581" s="10"/>
+      <c r="G581" s="11"/>
       <c r="H581" s="1"/>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
@@ -17178,7 +17178,7 @@
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
-      <c r="G582" s="10"/>
+      <c r="G582" s="11"/>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
@@ -17206,7 +17206,7 @@
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
-      <c r="G583" s="10"/>
+      <c r="G583" s="11"/>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
@@ -17234,7 +17234,7 @@
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
-      <c r="G584" s="10"/>
+      <c r="G584" s="11"/>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
@@ -17262,7 +17262,7 @@
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
-      <c r="G585" s="10"/>
+      <c r="G585" s="11"/>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
@@ -17290,7 +17290,7 @@
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
-      <c r="G586" s="10"/>
+      <c r="G586" s="11"/>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
@@ -17318,7 +17318,7 @@
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
-      <c r="G587" s="10"/>
+      <c r="G587" s="11"/>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
@@ -17346,7 +17346,7 @@
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
-      <c r="G588" s="10"/>
+      <c r="G588" s="11"/>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
@@ -17374,7 +17374,7 @@
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
-      <c r="G589" s="10"/>
+      <c r="G589" s="11"/>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
@@ -17402,7 +17402,7 @@
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
-      <c r="G590" s="10"/>
+      <c r="G590" s="11"/>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
@@ -17430,7 +17430,7 @@
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
-      <c r="G591" s="10"/>
+      <c r="G591" s="11"/>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
@@ -17458,7 +17458,7 @@
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
-      <c r="G592" s="10"/>
+      <c r="G592" s="11"/>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
@@ -17486,7 +17486,7 @@
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
-      <c r="G593" s="10"/>
+      <c r="G593" s="11"/>
       <c r="H593" s="1"/>
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
@@ -17514,7 +17514,7 @@
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
-      <c r="G594" s="10"/>
+      <c r="G594" s="11"/>
       <c r="H594" s="1"/>
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
@@ -17542,7 +17542,7 @@
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
-      <c r="G595" s="10"/>
+      <c r="G595" s="11"/>
       <c r="H595" s="1"/>
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
@@ -17570,7 +17570,7 @@
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
-      <c r="G596" s="10"/>
+      <c r="G596" s="11"/>
       <c r="H596" s="1"/>
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
@@ -17598,7 +17598,7 @@
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
-      <c r="G597" s="10"/>
+      <c r="G597" s="11"/>
       <c r="H597" s="1"/>
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
@@ -17626,7 +17626,7 @@
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
-      <c r="G598" s="10"/>
+      <c r="G598" s="11"/>
       <c r="H598" s="1"/>
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
@@ -17654,7 +17654,7 @@
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
-      <c r="G599" s="10"/>
+      <c r="G599" s="11"/>
       <c r="H599" s="1"/>
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
@@ -17682,7 +17682,7 @@
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
-      <c r="G600" s="10"/>
+      <c r="G600" s="11"/>
       <c r="H600" s="1"/>
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
@@ -17710,7 +17710,7 @@
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
-      <c r="G601" s="10"/>
+      <c r="G601" s="11"/>
       <c r="H601" s="1"/>
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
@@ -17738,7 +17738,7 @@
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
-      <c r="G602" s="10"/>
+      <c r="G602" s="11"/>
       <c r="H602" s="1"/>
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
@@ -17766,7 +17766,7 @@
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
-      <c r="G603" s="10"/>
+      <c r="G603" s="11"/>
       <c r="H603" s="1"/>
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
@@ -17794,7 +17794,7 @@
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
-      <c r="G604" s="10"/>
+      <c r="G604" s="11"/>
       <c r="H604" s="1"/>
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
@@ -17822,7 +17822,7 @@
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
-      <c r="G605" s="10"/>
+      <c r="G605" s="11"/>
       <c r="H605" s="1"/>
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
@@ -17850,7 +17850,7 @@
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
-      <c r="G606" s="10"/>
+      <c r="G606" s="11"/>
       <c r="H606" s="1"/>
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
@@ -17878,7 +17878,7 @@
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
-      <c r="G607" s="10"/>
+      <c r="G607" s="11"/>
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
@@ -17906,7 +17906,7 @@
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
-      <c r="G608" s="10"/>
+      <c r="G608" s="11"/>
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
@@ -17934,7 +17934,7 @@
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
-      <c r="G609" s="10"/>
+      <c r="G609" s="11"/>
       <c r="H609" s="1"/>
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
@@ -17962,7 +17962,7 @@
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
-      <c r="G610" s="10"/>
+      <c r="G610" s="11"/>
       <c r="H610" s="1"/>
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
@@ -17990,7 +17990,7 @@
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
-      <c r="G611" s="10"/>
+      <c r="G611" s="11"/>
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
@@ -18018,7 +18018,7 @@
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
-      <c r="G612" s="10"/>
+      <c r="G612" s="11"/>
       <c r="H612" s="1"/>
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
@@ -18046,7 +18046,7 @@
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
-      <c r="G613" s="10"/>
+      <c r="G613" s="11"/>
       <c r="H613" s="1"/>
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
@@ -18074,7 +18074,7 @@
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
-      <c r="G614" s="10"/>
+      <c r="G614" s="11"/>
       <c r="H614" s="1"/>
       <c r="I614" s="1"/>
       <c r="J614" s="1"/>
@@ -18102,7 +18102,7 @@
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
-      <c r="G615" s="10"/>
+      <c r="G615" s="11"/>
       <c r="H615" s="1"/>
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
@@ -18130,7 +18130,7 @@
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
-      <c r="G616" s="10"/>
+      <c r="G616" s="11"/>
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
@@ -18158,7 +18158,7 @@
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
-      <c r="G617" s="10"/>
+      <c r="G617" s="11"/>
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
@@ -18186,7 +18186,7 @@
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
-      <c r="G618" s="10"/>
+      <c r="G618" s="11"/>
       <c r="H618" s="1"/>
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
@@ -18214,7 +18214,7 @@
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
-      <c r="G619" s="10"/>
+      <c r="G619" s="11"/>
       <c r="H619" s="1"/>
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
@@ -18242,7 +18242,7 @@
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
-      <c r="G620" s="10"/>
+      <c r="G620" s="11"/>
       <c r="H620" s="1"/>
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
@@ -18270,7 +18270,7 @@
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
-      <c r="G621" s="10"/>
+      <c r="G621" s="11"/>
       <c r="H621" s="1"/>
       <c r="I621" s="1"/>
       <c r="J621" s="1"/>
@@ -18298,7 +18298,7 @@
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
-      <c r="G622" s="10"/>
+      <c r="G622" s="11"/>
       <c r="H622" s="1"/>
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
@@ -18326,7 +18326,7 @@
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
-      <c r="G623" s="10"/>
+      <c r="G623" s="11"/>
       <c r="H623" s="1"/>
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
@@ -18354,7 +18354,7 @@
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
-      <c r="G624" s="10"/>
+      <c r="G624" s="11"/>
       <c r="H624" s="1"/>
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
@@ -18382,7 +18382,7 @@
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
-      <c r="G625" s="10"/>
+      <c r="G625" s="11"/>
       <c r="H625" s="1"/>
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
@@ -18410,7 +18410,7 @@
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
-      <c r="G626" s="10"/>
+      <c r="G626" s="11"/>
       <c r="H626" s="1"/>
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
@@ -18438,7 +18438,7 @@
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
-      <c r="G627" s="10"/>
+      <c r="G627" s="11"/>
       <c r="H627" s="1"/>
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
@@ -18466,7 +18466,7 @@
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
-      <c r="G628" s="10"/>
+      <c r="G628" s="11"/>
       <c r="H628" s="1"/>
       <c r="I628" s="1"/>
       <c r="J628" s="1"/>
@@ -18494,7 +18494,7 @@
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
-      <c r="G629" s="10"/>
+      <c r="G629" s="11"/>
       <c r="H629" s="1"/>
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
@@ -18522,7 +18522,7 @@
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
-      <c r="G630" s="10"/>
+      <c r="G630" s="11"/>
       <c r="H630" s="1"/>
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
@@ -18550,7 +18550,7 @@
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
-      <c r="G631" s="10"/>
+      <c r="G631" s="11"/>
       <c r="H631" s="1"/>
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
@@ -18578,7 +18578,7 @@
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
-      <c r="G632" s="10"/>
+      <c r="G632" s="11"/>
       <c r="H632" s="1"/>
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
@@ -18606,7 +18606,7 @@
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
-      <c r="G633" s="10"/>
+      <c r="G633" s="11"/>
       <c r="H633" s="1"/>
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
@@ -18634,7 +18634,7 @@
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
-      <c r="G634" s="10"/>
+      <c r="G634" s="11"/>
       <c r="H634" s="1"/>
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
@@ -18662,7 +18662,7 @@
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
-      <c r="G635" s="10"/>
+      <c r="G635" s="11"/>
       <c r="H635" s="1"/>
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
@@ -18690,7 +18690,7 @@
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
-      <c r="G636" s="10"/>
+      <c r="G636" s="11"/>
       <c r="H636" s="1"/>
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
@@ -18718,7 +18718,7 @@
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
-      <c r="G637" s="10"/>
+      <c r="G637" s="11"/>
       <c r="H637" s="1"/>
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
@@ -18746,7 +18746,7 @@
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
-      <c r="G638" s="10"/>
+      <c r="G638" s="11"/>
       <c r="H638" s="1"/>
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
@@ -18774,7 +18774,7 @@
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
-      <c r="G639" s="10"/>
+      <c r="G639" s="11"/>
       <c r="H639" s="1"/>
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
@@ -18802,7 +18802,7 @@
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
-      <c r="G640" s="10"/>
+      <c r="G640" s="11"/>
       <c r="H640" s="1"/>
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
@@ -18830,7 +18830,7 @@
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
-      <c r="G641" s="10"/>
+      <c r="G641" s="11"/>
       <c r="H641" s="1"/>
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
@@ -18858,7 +18858,7 @@
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
-      <c r="G642" s="10"/>
+      <c r="G642" s="11"/>
       <c r="H642" s="1"/>
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
@@ -18886,7 +18886,7 @@
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
-      <c r="G643" s="10"/>
+      <c r="G643" s="11"/>
       <c r="H643" s="1"/>
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
@@ -18914,7 +18914,7 @@
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
-      <c r="G644" s="10"/>
+      <c r="G644" s="11"/>
       <c r="H644" s="1"/>
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
@@ -18942,7 +18942,7 @@
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
-      <c r="G645" s="10"/>
+      <c r="G645" s="11"/>
       <c r="H645" s="1"/>
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
@@ -18970,7 +18970,7 @@
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
-      <c r="G646" s="10"/>
+      <c r="G646" s="11"/>
       <c r="H646" s="1"/>
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
@@ -18998,7 +18998,7 @@
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
-      <c r="G647" s="10"/>
+      <c r="G647" s="11"/>
       <c r="H647" s="1"/>
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
@@ -19026,7 +19026,7 @@
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
-      <c r="G648" s="10"/>
+      <c r="G648" s="11"/>
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
@@ -19054,7 +19054,7 @@
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
-      <c r="G649" s="10"/>
+      <c r="G649" s="11"/>
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
@@ -19082,7 +19082,7 @@
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
-      <c r="G650" s="10"/>
+      <c r="G650" s="11"/>
       <c r="H650" s="1"/>
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
@@ -19110,7 +19110,7 @@
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
-      <c r="G651" s="10"/>
+      <c r="G651" s="11"/>
       <c r="H651" s="1"/>
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
@@ -19138,7 +19138,7 @@
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
-      <c r="G652" s="10"/>
+      <c r="G652" s="11"/>
       <c r="H652" s="1"/>
       <c r="I652" s="1"/>
       <c r="J652" s="1"/>
@@ -19166,7 +19166,7 @@
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
-      <c r="G653" s="10"/>
+      <c r="G653" s="11"/>
       <c r="H653" s="1"/>
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
@@ -19194,7 +19194,7 @@
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
-      <c r="G654" s="10"/>
+      <c r="G654" s="11"/>
       <c r="H654" s="1"/>
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
@@ -19222,7 +19222,7 @@
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
-      <c r="G655" s="10"/>
+      <c r="G655" s="11"/>
       <c r="H655" s="1"/>
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
@@ -19250,7 +19250,7 @@
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
-      <c r="G656" s="10"/>
+      <c r="G656" s="11"/>
       <c r="H656" s="1"/>
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
@@ -19278,7 +19278,7 @@
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
-      <c r="G657" s="10"/>
+      <c r="G657" s="11"/>
       <c r="H657" s="1"/>
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
@@ -19306,7 +19306,7 @@
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
-      <c r="G658" s="10"/>
+      <c r="G658" s="11"/>
       <c r="H658" s="1"/>
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
@@ -19334,7 +19334,7 @@
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
-      <c r="G659" s="10"/>
+      <c r="G659" s="11"/>
       <c r="H659" s="1"/>
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
@@ -19362,7 +19362,7 @@
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
-      <c r="G660" s="10"/>
+      <c r="G660" s="11"/>
       <c r="H660" s="1"/>
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
@@ -19390,7 +19390,7 @@
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
-      <c r="G661" s="10"/>
+      <c r="G661" s="11"/>
       <c r="H661" s="1"/>
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
@@ -19418,7 +19418,7 @@
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
-      <c r="G662" s="10"/>
+      <c r="G662" s="11"/>
       <c r="H662" s="1"/>
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
@@ -19446,7 +19446,7 @@
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
-      <c r="G663" s="10"/>
+      <c r="G663" s="11"/>
       <c r="H663" s="1"/>
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
@@ -19474,7 +19474,7 @@
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
-      <c r="G664" s="10"/>
+      <c r="G664" s="11"/>
       <c r="H664" s="1"/>
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
@@ -19502,7 +19502,7 @@
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
-      <c r="G665" s="10"/>
+      <c r="G665" s="11"/>
       <c r="H665" s="1"/>
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
@@ -19530,7 +19530,7 @@
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
-      <c r="G666" s="10"/>
+      <c r="G666" s="11"/>
       <c r="H666" s="1"/>
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
@@ -19558,7 +19558,7 @@
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
-      <c r="G667" s="10"/>
+      <c r="G667" s="11"/>
       <c r="H667" s="1"/>
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
@@ -19586,7 +19586,7 @@
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
-      <c r="G668" s="10"/>
+      <c r="G668" s="11"/>
       <c r="H668" s="1"/>
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
@@ -19614,7 +19614,7 @@
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
-      <c r="G669" s="10"/>
+      <c r="G669" s="11"/>
       <c r="H669" s="1"/>
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
@@ -19642,7 +19642,7 @@
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
-      <c r="G670" s="10"/>
+      <c r="G670" s="11"/>
       <c r="H670" s="1"/>
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
@@ -19670,7 +19670,7 @@
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
-      <c r="G671" s="10"/>
+      <c r="G671" s="11"/>
       <c r="H671" s="1"/>
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
@@ -19698,7 +19698,7 @@
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
-      <c r="G672" s="10"/>
+      <c r="G672" s="11"/>
       <c r="H672" s="1"/>
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
@@ -19726,7 +19726,7 @@
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
-      <c r="G673" s="10"/>
+      <c r="G673" s="11"/>
       <c r="H673" s="1"/>
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
@@ -19754,7 +19754,7 @@
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
-      <c r="G674" s="10"/>
+      <c r="G674" s="11"/>
       <c r="H674" s="1"/>
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
@@ -19782,7 +19782,7 @@
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
-      <c r="G675" s="10"/>
+      <c r="G675" s="11"/>
       <c r="H675" s="1"/>
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
@@ -19810,7 +19810,7 @@
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
-      <c r="G676" s="10"/>
+      <c r="G676" s="11"/>
       <c r="H676" s="1"/>
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
@@ -19838,7 +19838,7 @@
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
-      <c r="G677" s="10"/>
+      <c r="G677" s="11"/>
       <c r="H677" s="1"/>
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
@@ -19866,7 +19866,7 @@
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
-      <c r="G678" s="10"/>
+      <c r="G678" s="11"/>
       <c r="H678" s="1"/>
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
@@ -19894,7 +19894,7 @@
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
-      <c r="G679" s="10"/>
+      <c r="G679" s="11"/>
       <c r="H679" s="1"/>
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
@@ -19922,7 +19922,7 @@
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
-      <c r="G680" s="10"/>
+      <c r="G680" s="11"/>
       <c r="H680" s="1"/>
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
@@ -19950,7 +19950,7 @@
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
-      <c r="G681" s="10"/>
+      <c r="G681" s="11"/>
       <c r="H681" s="1"/>
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
@@ -19978,7 +19978,7 @@
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
-      <c r="G682" s="10"/>
+      <c r="G682" s="11"/>
       <c r="H682" s="1"/>
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
@@ -20006,7 +20006,7 @@
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
-      <c r="G683" s="10"/>
+      <c r="G683" s="11"/>
       <c r="H683" s="1"/>
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
@@ -20034,7 +20034,7 @@
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
-      <c r="G684" s="10"/>
+      <c r="G684" s="11"/>
       <c r="H684" s="1"/>
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
@@ -20062,7 +20062,7 @@
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
-      <c r="G685" s="10"/>
+      <c r="G685" s="11"/>
       <c r="H685" s="1"/>
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
@@ -20090,7 +20090,7 @@
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
-      <c r="G686" s="10"/>
+      <c r="G686" s="11"/>
       <c r="H686" s="1"/>
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
@@ -20118,7 +20118,7 @@
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
-      <c r="G687" s="10"/>
+      <c r="G687" s="11"/>
       <c r="H687" s="1"/>
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
@@ -20146,7 +20146,7 @@
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
-      <c r="G688" s="10"/>
+      <c r="G688" s="11"/>
       <c r="H688" s="1"/>
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
@@ -20174,7 +20174,7 @@
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
-      <c r="G689" s="10"/>
+      <c r="G689" s="11"/>
       <c r="H689" s="1"/>
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
@@ -20202,7 +20202,7 @@
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
-      <c r="G690" s="10"/>
+      <c r="G690" s="11"/>
       <c r="H690" s="1"/>
       <c r="I690" s="1"/>
       <c r="J690" s="1"/>
@@ -20230,7 +20230,7 @@
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
-      <c r="G691" s="10"/>
+      <c r="G691" s="11"/>
       <c r="H691" s="1"/>
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
@@ -20258,7 +20258,7 @@
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
-      <c r="G692" s="10"/>
+      <c r="G692" s="11"/>
       <c r="H692" s="1"/>
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
@@ -20286,7 +20286,7 @@
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
-      <c r="G693" s="10"/>
+      <c r="G693" s="11"/>
       <c r="H693" s="1"/>
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
@@ -20314,7 +20314,7 @@
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
-      <c r="G694" s="10"/>
+      <c r="G694" s="11"/>
       <c r="H694" s="1"/>
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
@@ -20342,7 +20342,7 @@
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
-      <c r="G695" s="10"/>
+      <c r="G695" s="11"/>
       <c r="H695" s="1"/>
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
@@ -20370,7 +20370,7 @@
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
-      <c r="G696" s="10"/>
+      <c r="G696" s="11"/>
       <c r="H696" s="1"/>
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
@@ -20398,7 +20398,7 @@
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
-      <c r="G697" s="10"/>
+      <c r="G697" s="11"/>
       <c r="H697" s="1"/>
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
@@ -20426,7 +20426,7 @@
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
-      <c r="G698" s="10"/>
+      <c r="G698" s="11"/>
       <c r="H698" s="1"/>
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
@@ -20454,7 +20454,7 @@
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
-      <c r="G699" s="10"/>
+      <c r="G699" s="11"/>
       <c r="H699" s="1"/>
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
@@ -20482,7 +20482,7 @@
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
-      <c r="G700" s="10"/>
+      <c r="G700" s="11"/>
       <c r="H700" s="1"/>
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
@@ -20510,7 +20510,7 @@
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
-      <c r="G701" s="10"/>
+      <c r="G701" s="11"/>
       <c r="H701" s="1"/>
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
@@ -20538,7 +20538,7 @@
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
-      <c r="G702" s="10"/>
+      <c r="G702" s="11"/>
       <c r="H702" s="1"/>
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
@@ -20566,7 +20566,7 @@
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
-      <c r="G703" s="10"/>
+      <c r="G703" s="11"/>
       <c r="H703" s="1"/>
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
@@ -20594,7 +20594,7 @@
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
-      <c r="G704" s="10"/>
+      <c r="G704" s="11"/>
       <c r="H704" s="1"/>
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
@@ -20622,7 +20622,7 @@
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
-      <c r="G705" s="10"/>
+      <c r="G705" s="11"/>
       <c r="H705" s="1"/>
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
@@ -20650,7 +20650,7 @@
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
-      <c r="G706" s="10"/>
+      <c r="G706" s="11"/>
       <c r="H706" s="1"/>
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
@@ -20678,7 +20678,7 @@
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
-      <c r="G707" s="10"/>
+      <c r="G707" s="11"/>
       <c r="H707" s="1"/>
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
@@ -20706,7 +20706,7 @@
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
-      <c r="G708" s="10"/>
+      <c r="G708" s="11"/>
       <c r="H708" s="1"/>
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
@@ -20734,7 +20734,7 @@
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
-      <c r="G709" s="10"/>
+      <c r="G709" s="11"/>
       <c r="H709" s="1"/>
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
@@ -20762,7 +20762,7 @@
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
-      <c r="G710" s="10"/>
+      <c r="G710" s="11"/>
       <c r="H710" s="1"/>
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
@@ -20790,7 +20790,7 @@
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
-      <c r="G711" s="10"/>
+      <c r="G711" s="11"/>
       <c r="H711" s="1"/>
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
@@ -20818,7 +20818,7 @@
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
-      <c r="G712" s="10"/>
+      <c r="G712" s="11"/>
       <c r="H712" s="1"/>
       <c r="I712" s="1"/>
       <c r="J712" s="1"/>
@@ -20846,7 +20846,7 @@
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
-      <c r="G713" s="10"/>
+      <c r="G713" s="11"/>
       <c r="H713" s="1"/>
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
@@ -20874,7 +20874,7 @@
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
-      <c r="G714" s="10"/>
+      <c r="G714" s="11"/>
       <c r="H714" s="1"/>
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
@@ -20902,7 +20902,7 @@
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
-      <c r="G715" s="10"/>
+      <c r="G715" s="11"/>
       <c r="H715" s="1"/>
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
@@ -20930,7 +20930,7 @@
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
-      <c r="G716" s="10"/>
+      <c r="G716" s="11"/>
       <c r="H716" s="1"/>
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
@@ -20958,7 +20958,7 @@
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
-      <c r="G717" s="10"/>
+      <c r="G717" s="11"/>
       <c r="H717" s="1"/>
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
@@ -20986,7 +20986,7 @@
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
-      <c r="G718" s="10"/>
+      <c r="G718" s="11"/>
       <c r="H718" s="1"/>
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
@@ -21014,7 +21014,7 @@
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
-      <c r="G719" s="10"/>
+      <c r="G719" s="11"/>
       <c r="H719" s="1"/>
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
@@ -21042,7 +21042,7 @@
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
-      <c r="G720" s="10"/>
+      <c r="G720" s="11"/>
       <c r="H720" s="1"/>
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
@@ -21070,7 +21070,7 @@
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
-      <c r="G721" s="10"/>
+      <c r="G721" s="11"/>
       <c r="H721" s="1"/>
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
@@ -21098,7 +21098,7 @@
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
-      <c r="G722" s="10"/>
+      <c r="G722" s="11"/>
       <c r="H722" s="1"/>
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
@@ -21126,7 +21126,7 @@
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
-      <c r="G723" s="10"/>
+      <c r="G723" s="11"/>
       <c r="H723" s="1"/>
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
@@ -21154,7 +21154,7 @@
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
-      <c r="G724" s="10"/>
+      <c r="G724" s="11"/>
       <c r="H724" s="1"/>
       <c r="I724" s="1"/>
       <c r="J724" s="1"/>
@@ -21182,7 +21182,7 @@
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
-      <c r="G725" s="10"/>
+      <c r="G725" s="11"/>
       <c r="H725" s="1"/>
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
@@ -21210,7 +21210,7 @@
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
-      <c r="G726" s="10"/>
+      <c r="G726" s="11"/>
       <c r="H726" s="1"/>
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
@@ -21238,7 +21238,7 @@
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
-      <c r="G727" s="10"/>
+      <c r="G727" s="11"/>
       <c r="H727" s="1"/>
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
@@ -21266,7 +21266,7 @@
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
-      <c r="G728" s="10"/>
+      <c r="G728" s="11"/>
       <c r="H728" s="1"/>
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
@@ -21294,7 +21294,7 @@
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
-      <c r="G729" s="10"/>
+      <c r="G729" s="11"/>
       <c r="H729" s="1"/>
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
@@ -21322,7 +21322,7 @@
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
-      <c r="G730" s="10"/>
+      <c r="G730" s="11"/>
       <c r="H730" s="1"/>
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
@@ -21350,7 +21350,7 @@
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
-      <c r="G731" s="10"/>
+      <c r="G731" s="11"/>
       <c r="H731" s="1"/>
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
@@ -21378,7 +21378,7 @@
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
-      <c r="G732" s="10"/>
+      <c r="G732" s="11"/>
       <c r="H732" s="1"/>
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
@@ -21406,7 +21406,7 @@
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
-      <c r="G733" s="10"/>
+      <c r="G733" s="11"/>
       <c r="H733" s="1"/>
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
@@ -21434,7 +21434,7 @@
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
-      <c r="G734" s="10"/>
+      <c r="G734" s="11"/>
       <c r="H734" s="1"/>
       <c r="I734" s="1"/>
       <c r="J734" s="1"/>
@@ -21462,7 +21462,7 @@
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
-      <c r="G735" s="10"/>
+      <c r="G735" s="11"/>
       <c r="H735" s="1"/>
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
@@ -21490,7 +21490,7 @@
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
-      <c r="G736" s="10"/>
+      <c r="G736" s="11"/>
       <c r="H736" s="1"/>
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
@@ -21518,7 +21518,7 @@
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
-      <c r="G737" s="10"/>
+      <c r="G737" s="11"/>
       <c r="H737" s="1"/>
       <c r="I737" s="1"/>
       <c r="J737" s="1"/>
@@ -21546,7 +21546,7 @@
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
-      <c r="G738" s="10"/>
+      <c r="G738" s="11"/>
       <c r="H738" s="1"/>
       <c r="I738" s="1"/>
       <c r="J738" s="1"/>
@@ -21574,7 +21574,7 @@
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
-      <c r="G739" s="10"/>
+      <c r="G739" s="11"/>
       <c r="H739" s="1"/>
       <c r="I739" s="1"/>
       <c r="J739" s="1"/>
@@ -21602,7 +21602,7 @@
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
-      <c r="G740" s="10"/>
+      <c r="G740" s="11"/>
       <c r="H740" s="1"/>
       <c r="I740" s="1"/>
       <c r="J740" s="1"/>
@@ -21630,7 +21630,7 @@
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
-      <c r="G741" s="10"/>
+      <c r="G741" s="11"/>
       <c r="H741" s="1"/>
       <c r="I741" s="1"/>
       <c r="J741" s="1"/>
@@ -21658,7 +21658,7 @@
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
-      <c r="G742" s="10"/>
+      <c r="G742" s="11"/>
       <c r="H742" s="1"/>
       <c r="I742" s="1"/>
       <c r="J742" s="1"/>
@@ -21686,7 +21686,7 @@
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
-      <c r="G743" s="10"/>
+      <c r="G743" s="11"/>
       <c r="H743" s="1"/>
       <c r="I743" s="1"/>
       <c r="J743" s="1"/>
@@ -21714,7 +21714,7 @@
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
-      <c r="G744" s="10"/>
+      <c r="G744" s="11"/>
       <c r="H744" s="1"/>
       <c r="I744" s="1"/>
       <c r="J744" s="1"/>
@@ -21742,7 +21742,7 @@
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
-      <c r="G745" s="10"/>
+      <c r="G745" s="11"/>
       <c r="H745" s="1"/>
       <c r="I745" s="1"/>
       <c r="J745" s="1"/>
@@ -21770,7 +21770,7 @@
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
-      <c r="G746" s="10"/>
+      <c r="G746" s="11"/>
       <c r="H746" s="1"/>
       <c r="I746" s="1"/>
       <c r="J746" s="1"/>
@@ -21798,7 +21798,7 @@
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
-      <c r="G747" s="10"/>
+      <c r="G747" s="11"/>
       <c r="H747" s="1"/>
       <c r="I747" s="1"/>
       <c r="J747" s="1"/>
@@ -21826,7 +21826,7 @@
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
-      <c r="G748" s="10"/>
+      <c r="G748" s="11"/>
       <c r="H748" s="1"/>
       <c r="I748" s="1"/>
       <c r="J748" s="1"/>
@@ -21854,7 +21854,7 @@
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
-      <c r="G749" s="10"/>
+      <c r="G749" s="11"/>
       <c r="H749" s="1"/>
       <c r="I749" s="1"/>
       <c r="J749" s="1"/>
@@ -21882,7 +21882,7 @@
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
-      <c r="G750" s="10"/>
+      <c r="G750" s="11"/>
       <c r="H750" s="1"/>
       <c r="I750" s="1"/>
       <c r="J750" s="1"/>
@@ -21910,7 +21910,7 @@
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
-      <c r="G751" s="10"/>
+      <c r="G751" s="11"/>
       <c r="H751" s="1"/>
       <c r="I751" s="1"/>
       <c r="J751" s="1"/>
@@ -21938,7 +21938,7 @@
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
-      <c r="G752" s="10"/>
+      <c r="G752" s="11"/>
       <c r="H752" s="1"/>
       <c r="I752" s="1"/>
       <c r="J752" s="1"/>
@@ -21966,7 +21966,7 @@
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
-      <c r="G753" s="10"/>
+      <c r="G753" s="11"/>
       <c r="H753" s="1"/>
       <c r="I753" s="1"/>
       <c r="J753" s="1"/>
@@ -21994,7 +21994,7 @@
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
-      <c r="G754" s="10"/>
+      <c r="G754" s="11"/>
       <c r="H754" s="1"/>
       <c r="I754" s="1"/>
       <c r="J754" s="1"/>
@@ -22022,7 +22022,7 @@
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
-      <c r="G755" s="10"/>
+      <c r="G755" s="11"/>
       <c r="H755" s="1"/>
       <c r="I755" s="1"/>
       <c r="J755" s="1"/>
@@ -22050,7 +22050,7 @@
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
-      <c r="G756" s="10"/>
+      <c r="G756" s="11"/>
       <c r="H756" s="1"/>
       <c r="I756" s="1"/>
       <c r="J756" s="1"/>
@@ -22078,7 +22078,7 @@
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
-      <c r="G757" s="10"/>
+      <c r="G757" s="11"/>
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
       <c r="J757" s="1"/>
@@ -22106,7 +22106,7 @@
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
-      <c r="G758" s="10"/>
+      <c r="G758" s="11"/>
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
       <c r="J758" s="1"/>
@@ -22134,7 +22134,7 @@
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
-      <c r="G759" s="10"/>
+      <c r="G759" s="11"/>
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
       <c r="J759" s="1"/>
@@ -22162,7 +22162,7 @@
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
-      <c r="G760" s="10"/>
+      <c r="G760" s="11"/>
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
       <c r="J760" s="1"/>
@@ -22190,7 +22190,7 @@
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
-      <c r="G761" s="10"/>
+      <c r="G761" s="11"/>
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
       <c r="J761" s="1"/>
@@ -22218,7 +22218,7 @@
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
-      <c r="G762" s="10"/>
+      <c r="G762" s="11"/>
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
       <c r="J762" s="1"/>
@@ -22246,7 +22246,7 @@
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
-      <c r="G763" s="10"/>
+      <c r="G763" s="11"/>
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
       <c r="J763" s="1"/>
@@ -22274,7 +22274,7 @@
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
-      <c r="G764" s="10"/>
+      <c r="G764" s="11"/>
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
       <c r="J764" s="1"/>
@@ -22302,7 +22302,7 @@
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
-      <c r="G765" s="10"/>
+      <c r="G765" s="11"/>
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
       <c r="J765" s="1"/>
@@ -22330,7 +22330,7 @@
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
-      <c r="G766" s="10"/>
+      <c r="G766" s="11"/>
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
       <c r="J766" s="1"/>
@@ -22358,7 +22358,7 @@
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
-      <c r="G767" s="10"/>
+      <c r="G767" s="11"/>
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
       <c r="J767" s="1"/>
@@ -22386,7 +22386,7 @@
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
-      <c r="G768" s="10"/>
+      <c r="G768" s="11"/>
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
       <c r="J768" s="1"/>
@@ -22414,7 +22414,7 @@
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
-      <c r="G769" s="10"/>
+      <c r="G769" s="11"/>
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
       <c r="J769" s="1"/>
@@ -22442,7 +22442,7 @@
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
-      <c r="G770" s="10"/>
+      <c r="G770" s="11"/>
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
       <c r="J770" s="1"/>
@@ -22470,7 +22470,7 @@
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
-      <c r="G771" s="10"/>
+      <c r="G771" s="11"/>
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
       <c r="J771" s="1"/>
@@ -22498,7 +22498,7 @@
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
-      <c r="G772" s="10"/>
+      <c r="G772" s="11"/>
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
@@ -22526,7 +22526,7 @@
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
-      <c r="G773" s="10"/>
+      <c r="G773" s="11"/>
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
       <c r="J773" s="1"/>
@@ -22554,7 +22554,7 @@
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
-      <c r="G774" s="10"/>
+      <c r="G774" s="11"/>
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
       <c r="J774" s="1"/>
@@ -22582,7 +22582,7 @@
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
-      <c r="G775" s="10"/>
+      <c r="G775" s="11"/>
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
       <c r="J775" s="1"/>
@@ -22610,7 +22610,7 @@
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
-      <c r="G776" s="10"/>
+      <c r="G776" s="11"/>
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
       <c r="J776" s="1"/>
@@ -22638,7 +22638,7 @@
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
-      <c r="G777" s="10"/>
+      <c r="G777" s="11"/>
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
       <c r="J777" s="1"/>
@@ -22666,7 +22666,7 @@
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
-      <c r="G778" s="10"/>
+      <c r="G778" s="11"/>
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
       <c r="J778" s="1"/>
@@ -22694,7 +22694,7 @@
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
-      <c r="G779" s="10"/>
+      <c r="G779" s="11"/>
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
       <c r="J779" s="1"/>
@@ -22722,7 +22722,7 @@
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
-      <c r="G780" s="10"/>
+      <c r="G780" s="11"/>
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
       <c r="J780" s="1"/>
@@ -22750,7 +22750,7 @@
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
-      <c r="G781" s="10"/>
+      <c r="G781" s="11"/>
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
       <c r="J781" s="1"/>
@@ -22778,7 +22778,7 @@
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
-      <c r="G782" s="10"/>
+      <c r="G782" s="11"/>
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
       <c r="J782" s="1"/>
@@ -22806,7 +22806,7 @@
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
-      <c r="G783" s="10"/>
+      <c r="G783" s="11"/>
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
       <c r="J783" s="1"/>
@@ -22834,7 +22834,7 @@
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
-      <c r="G784" s="10"/>
+      <c r="G784" s="11"/>
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
       <c r="J784" s="1"/>
@@ -22862,7 +22862,7 @@
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
-      <c r="G785" s="10"/>
+      <c r="G785" s="11"/>
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
       <c r="J785" s="1"/>
@@ -22890,7 +22890,7 @@
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
-      <c r="G786" s="10"/>
+      <c r="G786" s="11"/>
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
       <c r="J786" s="1"/>
@@ -22918,7 +22918,7 @@
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
-      <c r="G787" s="10"/>
+      <c r="G787" s="11"/>
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
       <c r="J787" s="1"/>
@@ -22946,7 +22946,7 @@
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
-      <c r="G788" s="10"/>
+      <c r="G788" s="11"/>
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
       <c r="J788" s="1"/>
@@ -22974,7 +22974,7 @@
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
-      <c r="G789" s="10"/>
+      <c r="G789" s="11"/>
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
       <c r="J789" s="1"/>
@@ -23002,7 +23002,7 @@
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
-      <c r="G790" s="10"/>
+      <c r="G790" s="11"/>
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
       <c r="J790" s="1"/>
@@ -23030,7 +23030,7 @@
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
-      <c r="G791" s="10"/>
+      <c r="G791" s="11"/>
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
       <c r="J791" s="1"/>
@@ -23058,7 +23058,7 @@
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
-      <c r="G792" s="10"/>
+      <c r="G792" s="11"/>
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
       <c r="J792" s="1"/>
@@ -23086,7 +23086,7 @@
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
-      <c r="G793" s="10"/>
+      <c r="G793" s="11"/>
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
       <c r="J793" s="1"/>
@@ -23114,7 +23114,7 @@
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
-      <c r="G794" s="10"/>
+      <c r="G794" s="11"/>
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
       <c r="J794" s="1"/>
@@ -23142,7 +23142,7 @@
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
-      <c r="G795" s="10"/>
+      <c r="G795" s="11"/>
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
       <c r="J795" s="1"/>
@@ -23170,7 +23170,7 @@
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
-      <c r="G796" s="10"/>
+      <c r="G796" s="11"/>
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
       <c r="J796" s="1"/>
@@ -23198,7 +23198,7 @@
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
-      <c r="G797" s="10"/>
+      <c r="G797" s="11"/>
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
       <c r="J797" s="1"/>
@@ -23226,7 +23226,7 @@
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
-      <c r="G798" s="10"/>
+      <c r="G798" s="11"/>
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
       <c r="J798" s="1"/>
@@ -23254,7 +23254,7 @@
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
-      <c r="G799" s="10"/>
+      <c r="G799" s="11"/>
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
       <c r="J799" s="1"/>
@@ -23282,7 +23282,7 @@
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
-      <c r="G800" s="10"/>
+      <c r="G800" s="11"/>
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
       <c r="J800" s="1"/>
@@ -23310,7 +23310,7 @@
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
-      <c r="G801" s="10"/>
+      <c r="G801" s="11"/>
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
       <c r="J801" s="1"/>
@@ -23338,7 +23338,7 @@
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
-      <c r="G802" s="10"/>
+      <c r="G802" s="11"/>
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
       <c r="J802" s="1"/>
@@ -23366,7 +23366,7 @@
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
-      <c r="G803" s="10"/>
+      <c r="G803" s="11"/>
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
       <c r="J803" s="1"/>
@@ -23394,7 +23394,7 @@
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
-      <c r="G804" s="10"/>
+      <c r="G804" s="11"/>
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
       <c r="J804" s="1"/>
@@ -23422,7 +23422,7 @@
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
-      <c r="G805" s="10"/>
+      <c r="G805" s="11"/>
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
       <c r="J805" s="1"/>
@@ -23450,7 +23450,7 @@
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
-      <c r="G806" s="10"/>
+      <c r="G806" s="11"/>
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
       <c r="J806" s="1"/>
@@ -23478,7 +23478,7 @@
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
-      <c r="G807" s="10"/>
+      <c r="G807" s="11"/>
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
       <c r="J807" s="1"/>
@@ -23506,7 +23506,7 @@
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
-      <c r="G808" s="10"/>
+      <c r="G808" s="11"/>
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
       <c r="J808" s="1"/>
@@ -23534,7 +23534,7 @@
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
-      <c r="G809" s="10"/>
+      <c r="G809" s="11"/>
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
       <c r="J809" s="1"/>
@@ -23562,7 +23562,7 @@
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
-      <c r="G810" s="10"/>
+      <c r="G810" s="11"/>
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
       <c r="J810" s="1"/>
@@ -23590,7 +23590,7 @@
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
-      <c r="G811" s="10"/>
+      <c r="G811" s="11"/>
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
       <c r="J811" s="1"/>
@@ -23618,7 +23618,7 @@
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
-      <c r="G812" s="10"/>
+      <c r="G812" s="11"/>
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
       <c r="J812" s="1"/>
@@ -23646,7 +23646,7 @@
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
-      <c r="G813" s="10"/>
+      <c r="G813" s="11"/>
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
       <c r="J813" s="1"/>
@@ -23674,7 +23674,7 @@
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
-      <c r="G814" s="10"/>
+      <c r="G814" s="11"/>
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
       <c r="J814" s="1"/>
@@ -23702,7 +23702,7 @@
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
-      <c r="G815" s="10"/>
+      <c r="G815" s="11"/>
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
       <c r="J815" s="1"/>
@@ -23730,7 +23730,7 @@
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
-      <c r="G816" s="10"/>
+      <c r="G816" s="11"/>
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
       <c r="J816" s="1"/>
@@ -23758,7 +23758,7 @@
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
-      <c r="G817" s="10"/>
+      <c r="G817" s="11"/>
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
       <c r="J817" s="1"/>
@@ -23786,7 +23786,7 @@
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
-      <c r="G818" s="10"/>
+      <c r="G818" s="11"/>
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
       <c r="J818" s="1"/>
@@ -23814,7 +23814,7 @@
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
-      <c r="G819" s="10"/>
+      <c r="G819" s="11"/>
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
       <c r="J819" s="1"/>
@@ -23842,7 +23842,7 @@
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
-      <c r="G820" s="10"/>
+      <c r="G820" s="11"/>
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
       <c r="J820" s="1"/>
@@ -23870,7 +23870,7 @@
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
-      <c r="G821" s="10"/>
+      <c r="G821" s="11"/>
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
       <c r="J821" s="1"/>
@@ -23898,7 +23898,7 @@
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
-      <c r="G822" s="10"/>
+      <c r="G822" s="11"/>
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
       <c r="J822" s="1"/>
@@ -23926,7 +23926,7 @@
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
-      <c r="G823" s="10"/>
+      <c r="G823" s="11"/>
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
       <c r="J823" s="1"/>
@@ -23954,7 +23954,7 @@
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
-      <c r="G824" s="10"/>
+      <c r="G824" s="11"/>
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
       <c r="J824" s="1"/>
@@ -23982,7 +23982,7 @@
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
-      <c r="G825" s="10"/>
+      <c r="G825" s="11"/>
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
       <c r="J825" s="1"/>
@@ -24010,7 +24010,7 @@
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
-      <c r="G826" s="10"/>
+      <c r="G826" s="11"/>
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
       <c r="J826" s="1"/>
@@ -24038,7 +24038,7 @@
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
-      <c r="G827" s="10"/>
+      <c r="G827" s="11"/>
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
       <c r="J827" s="1"/>
@@ -24066,7 +24066,7 @@
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
-      <c r="G828" s="10"/>
+      <c r="G828" s="11"/>
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
       <c r="J828" s="1"/>
@@ -24094,7 +24094,7 @@
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
-      <c r="G829" s="10"/>
+      <c r="G829" s="11"/>
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
       <c r="J829" s="1"/>
@@ -24122,7 +24122,7 @@
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
-      <c r="G830" s="10"/>
+      <c r="G830" s="11"/>
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
       <c r="J830" s="1"/>
@@ -24150,7 +24150,7 @@
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
-      <c r="G831" s="10"/>
+      <c r="G831" s="11"/>
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
       <c r="J831" s="1"/>
@@ -24178,7 +24178,7 @@
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
-      <c r="G832" s="10"/>
+      <c r="G832" s="11"/>
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
       <c r="J832" s="1"/>
@@ -24206,7 +24206,7 @@
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
-      <c r="G833" s="10"/>
+      <c r="G833" s="11"/>
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
       <c r="J833" s="1"/>
@@ -24234,7 +24234,7 @@
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
-      <c r="G834" s="10"/>
+      <c r="G834" s="11"/>
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
       <c r="J834" s="1"/>
@@ -24262,7 +24262,7 @@
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
-      <c r="G835" s="10"/>
+      <c r="G835" s="11"/>
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
       <c r="J835" s="1"/>
@@ -24290,7 +24290,7 @@
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
-      <c r="G836" s="10"/>
+      <c r="G836" s="11"/>
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
       <c r="J836" s="1"/>
@@ -24318,7 +24318,7 @@
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
-      <c r="G837" s="10"/>
+      <c r="G837" s="11"/>
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
       <c r="J837" s="1"/>
@@ -24346,7 +24346,7 @@
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
-      <c r="G838" s="10"/>
+      <c r="G838" s="11"/>
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
       <c r="J838" s="1"/>
@@ -24374,7 +24374,7 @@
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
-      <c r="G839" s="10"/>
+      <c r="G839" s="11"/>
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
       <c r="J839" s="1"/>
@@ -24402,7 +24402,7 @@
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
-      <c r="G840" s="10"/>
+      <c r="G840" s="11"/>
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
       <c r="J840" s="1"/>
@@ -24430,7 +24430,7 @@
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
-      <c r="G841" s="10"/>
+      <c r="G841" s="11"/>
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
       <c r="J841" s="1"/>
@@ -24458,7 +24458,7 @@
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
-      <c r="G842" s="10"/>
+      <c r="G842" s="11"/>
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
       <c r="J842" s="1"/>
@@ -24486,7 +24486,7 @@
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
-      <c r="G843" s="10"/>
+      <c r="G843" s="11"/>
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
       <c r="J843" s="1"/>
@@ -24514,7 +24514,7 @@
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
-      <c r="G844" s="10"/>
+      <c r="G844" s="11"/>
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
       <c r="J844" s="1"/>
@@ -24542,7 +24542,7 @@
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
-      <c r="G845" s="10"/>
+      <c r="G845" s="11"/>
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
       <c r="J845" s="1"/>
@@ -24570,7 +24570,7 @@
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
-      <c r="G846" s="10"/>
+      <c r="G846" s="11"/>
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
       <c r="J846" s="1"/>
@@ -24598,7 +24598,7 @@
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
-      <c r="G847" s="10"/>
+      <c r="G847" s="11"/>
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
       <c r="J847" s="1"/>
@@ -24626,7 +24626,7 @@
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
-      <c r="G848" s="10"/>
+      <c r="G848" s="11"/>
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
       <c r="J848" s="1"/>
@@ -24654,7 +24654,7 @@
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
-      <c r="G849" s="10"/>
+      <c r="G849" s="11"/>
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
       <c r="J849" s="1"/>
@@ -24682,7 +24682,7 @@
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
-      <c r="G850" s="10"/>
+      <c r="G850" s="11"/>
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
       <c r="J850" s="1"/>
@@ -24710,7 +24710,7 @@
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
-      <c r="G851" s="10"/>
+      <c r="G851" s="11"/>
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
       <c r="J851" s="1"/>
@@ -24738,7 +24738,7 @@
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
-      <c r="G852" s="10"/>
+      <c r="G852" s="11"/>
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
       <c r="J852" s="1"/>
@@ -24766,7 +24766,7 @@
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
-      <c r="G853" s="10"/>
+      <c r="G853" s="11"/>
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
       <c r="J853" s="1"/>
@@ -24794,7 +24794,7 @@
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
-      <c r="G854" s="10"/>
+      <c r="G854" s="11"/>
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
       <c r="J854" s="1"/>
@@ -24822,7 +24822,7 @@
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
-      <c r="G855" s="10"/>
+      <c r="G855" s="11"/>
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
       <c r="J855" s="1"/>
@@ -24850,7 +24850,7 @@
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
-      <c r="G856" s="10"/>
+      <c r="G856" s="11"/>
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
       <c r="J856" s="1"/>
@@ -24878,7 +24878,7 @@
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
-      <c r="G857" s="10"/>
+      <c r="G857" s="11"/>
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
       <c r="J857" s="1"/>
@@ -24906,7 +24906,7 @@
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
-      <c r="G858" s="10"/>
+      <c r="G858" s="11"/>
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
       <c r="J858" s="1"/>
@@ -24934,7 +24934,7 @@
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
-      <c r="G859" s="10"/>
+      <c r="G859" s="11"/>
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
       <c r="J859" s="1"/>
@@ -24962,7 +24962,7 @@
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
-      <c r="G860" s="10"/>
+      <c r="G860" s="11"/>
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
       <c r="J860" s="1"/>
@@ -24990,7 +24990,7 @@
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
-      <c r="G861" s="10"/>
+      <c r="G861" s="11"/>
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
       <c r="J861" s="1"/>
@@ -25018,7 +25018,7 @@
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
-      <c r="G862" s="10"/>
+      <c r="G862" s="11"/>
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
       <c r="J862" s="1"/>
@@ -25046,7 +25046,7 @@
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
-      <c r="G863" s="10"/>
+      <c r="G863" s="11"/>
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
       <c r="J863" s="1"/>
@@ -25074,7 +25074,7 @@
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
-      <c r="G864" s="10"/>
+      <c r="G864" s="11"/>
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
       <c r="J864" s="1"/>
@@ -25102,7 +25102,7 @@
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
-      <c r="G865" s="10"/>
+      <c r="G865" s="11"/>
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
       <c r="J865" s="1"/>
@@ -25130,7 +25130,7 @@
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
-      <c r="G866" s="10"/>
+      <c r="G866" s="11"/>
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
       <c r="J866" s="1"/>
@@ -25158,7 +25158,7 @@
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
-      <c r="G867" s="10"/>
+      <c r="G867" s="11"/>
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
       <c r="J867" s="1"/>
@@ -25186,7 +25186,7 @@
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
-      <c r="G868" s="10"/>
+      <c r="G868" s="11"/>
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
       <c r="J868" s="1"/>
@@ -25214,7 +25214,7 @@
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
-      <c r="G869" s="10"/>
+      <c r="G869" s="11"/>
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
       <c r="J869" s="1"/>
@@ -25242,7 +25242,7 @@
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
-      <c r="G870" s="10"/>
+      <c r="G870" s="11"/>
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
       <c r="J870" s="1"/>
@@ -25270,7 +25270,7 @@
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
-      <c r="G871" s="10"/>
+      <c r="G871" s="11"/>
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
       <c r="J871" s="1"/>
@@ -25298,7 +25298,7 @@
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
-      <c r="G872" s="10"/>
+      <c r="G872" s="11"/>
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
       <c r="J872" s="1"/>
@@ -25326,7 +25326,7 @@
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
-      <c r="G873" s="10"/>
+      <c r="G873" s="11"/>
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
       <c r="J873" s="1"/>
@@ -25354,7 +25354,7 @@
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
-      <c r="G874" s="10"/>
+      <c r="G874" s="11"/>
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
       <c r="J874" s="1"/>
@@ -25382,7 +25382,7 @@
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
-      <c r="G875" s="10"/>
+      <c r="G875" s="11"/>
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
       <c r="J875" s="1"/>
@@ -25410,7 +25410,7 @@
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
-      <c r="G876" s="10"/>
+      <c r="G876" s="11"/>
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
       <c r="J876" s="1"/>
@@ -25438,7 +25438,7 @@
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
-      <c r="G877" s="10"/>
+      <c r="G877" s="11"/>
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
       <c r="J877" s="1"/>
@@ -25466,7 +25466,7 @@
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
-      <c r="G878" s="10"/>
+      <c r="G878" s="11"/>
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
       <c r="J878" s="1"/>
@@ -25494,7 +25494,7 @@
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
-      <c r="G879" s="10"/>
+      <c r="G879" s="11"/>
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
       <c r="J879" s="1"/>
@@ -25522,7 +25522,7 @@
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
-      <c r="G880" s="10"/>
+      <c r="G880" s="11"/>
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
       <c r="J880" s="1"/>
@@ -25550,7 +25550,7 @@
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
-      <c r="G881" s="10"/>
+      <c r="G881" s="11"/>
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
       <c r="J881" s="1"/>
@@ -25578,7 +25578,7 @@
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
-      <c r="G882" s="10"/>
+      <c r="G882" s="11"/>
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
       <c r="J882" s="1"/>
@@ -25606,7 +25606,7 @@
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
-      <c r="G883" s="10"/>
+      <c r="G883" s="11"/>
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
       <c r="J883" s="1"/>
@@ -25634,7 +25634,7 @@
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
-      <c r="G884" s="10"/>
+      <c r="G884" s="11"/>
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
       <c r="J884" s="1"/>
@@ -25662,7 +25662,7 @@
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
-      <c r="G885" s="10"/>
+      <c r="G885" s="11"/>
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
       <c r="J885" s="1"/>
@@ -25690,7 +25690,7 @@
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
-      <c r="G886" s="10"/>
+      <c r="G886" s="11"/>
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
       <c r="J886" s="1"/>
@@ -25718,7 +25718,7 @@
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
-      <c r="G887" s="10"/>
+      <c r="G887" s="11"/>
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
       <c r="J887" s="1"/>
@@ -25746,7 +25746,7 @@
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
-      <c r="G888" s="10"/>
+      <c r="G888" s="11"/>
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
       <c r="J888" s="1"/>
@@ -25774,7 +25774,7 @@
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
-      <c r="G889" s="10"/>
+      <c r="G889" s="11"/>
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
       <c r="J889" s="1"/>
@@ -25802,7 +25802,7 @@
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
-      <c r="G890" s="10"/>
+      <c r="G890" s="11"/>
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
       <c r="J890" s="1"/>
@@ -25830,7 +25830,7 @@
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
-      <c r="G891" s="10"/>
+      <c r="G891" s="11"/>
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
       <c r="J891" s="1"/>
@@ -25858,7 +25858,7 @@
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
-      <c r="G892" s="10"/>
+      <c r="G892" s="11"/>
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
       <c r="J892" s="1"/>
@@ -25886,7 +25886,7 @@
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
-      <c r="G893" s="10"/>
+      <c r="G893" s="11"/>
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
       <c r="J893" s="1"/>
@@ -25914,7 +25914,7 @@
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
-      <c r="G894" s="10"/>
+      <c r="G894" s="11"/>
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
       <c r="J894" s="1"/>
@@ -25942,7 +25942,7 @@
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
-      <c r="G895" s="10"/>
+      <c r="G895" s="11"/>
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
       <c r="J895" s="1"/>
@@ -25970,7 +25970,7 @@
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
-      <c r="G896" s="10"/>
+      <c r="G896" s="11"/>
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
       <c r="J896" s="1"/>
@@ -25998,7 +25998,7 @@
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
-      <c r="G897" s="10"/>
+      <c r="G897" s="11"/>
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
       <c r="J897" s="1"/>
@@ -26026,7 +26026,7 @@
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
-      <c r="G898" s="10"/>
+      <c r="G898" s="11"/>
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
       <c r="J898" s="1"/>
@@ -26054,7 +26054,7 @@
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
-      <c r="G899" s="10"/>
+      <c r="G899" s="11"/>
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
       <c r="J899" s="1"/>
@@ -26082,7 +26082,7 @@
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
-      <c r="G900" s="10"/>
+      <c r="G900" s="11"/>
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
       <c r="J900" s="1"/>
@@ -26110,7 +26110,7 @@
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
-      <c r="G901" s="10"/>
+      <c r="G901" s="11"/>
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
       <c r="J901" s="1"/>
@@ -26138,7 +26138,7 @@
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
-      <c r="G902" s="10"/>
+      <c r="G902" s="11"/>
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
       <c r="J902" s="1"/>
@@ -26166,7 +26166,7 @@
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
-      <c r="G903" s="10"/>
+      <c r="G903" s="11"/>
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
       <c r="J903" s="1"/>
@@ -26194,7 +26194,7 @@
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
-      <c r="G904" s="10"/>
+      <c r="G904" s="11"/>
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
       <c r="J904" s="1"/>
@@ -26222,7 +26222,7 @@
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
-      <c r="G905" s="10"/>
+      <c r="G905" s="11"/>
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
       <c r="J905" s="1"/>
@@ -26250,7 +26250,7 @@
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
-      <c r="G906" s="10"/>
+      <c r="G906" s="11"/>
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
       <c r="J906" s="1"/>
@@ -26278,7 +26278,7 @@
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
-      <c r="G907" s="10"/>
+      <c r="G907" s="11"/>
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
       <c r="J907" s="1"/>
@@ -26306,7 +26306,7 @@
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
-      <c r="G908" s="10"/>
+      <c r="G908" s="11"/>
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
       <c r="J908" s="1"/>
@@ -26334,7 +26334,7 @@
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
-      <c r="G909" s="10"/>
+      <c r="G909" s="11"/>
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
       <c r="J909" s="1"/>
@@ -26362,7 +26362,7 @@
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
-      <c r="G910" s="10"/>
+      <c r="G910" s="11"/>
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
       <c r="J910" s="1"/>
@@ -26390,7 +26390,7 @@
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
-      <c r="G911" s="10"/>
+      <c r="G911" s="11"/>
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
       <c r="J911" s="1"/>
@@ -26418,7 +26418,7 @@
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
-      <c r="G912" s="10"/>
+      <c r="G912" s="11"/>
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
       <c r="J912" s="1"/>
@@ -26446,7 +26446,7 @@
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
-      <c r="G913" s="10"/>
+      <c r="G913" s="11"/>
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
       <c r="J913" s="1"/>
@@ -26474,7 +26474,7 @@
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
-      <c r="G914" s="10"/>
+      <c r="G914" s="11"/>
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
       <c r="J914" s="1"/>
@@ -26502,7 +26502,7 @@
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
-      <c r="G915" s="10"/>
+      <c r="G915" s="11"/>
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
       <c r="J915" s="1"/>
@@ -26530,7 +26530,7 @@
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
-      <c r="G916" s="10"/>
+      <c r="G916" s="11"/>
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
       <c r="J916" s="1"/>
@@ -26558,7 +26558,7 @@
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
-      <c r="G917" s="10"/>
+      <c r="G917" s="11"/>
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
       <c r="J917" s="1"/>
@@ -26586,7 +26586,7 @@
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
-      <c r="G918" s="10"/>
+      <c r="G918" s="11"/>
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
       <c r="J918" s="1"/>
@@ -26614,7 +26614,7 @@
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
-      <c r="G919" s="10"/>
+      <c r="G919" s="11"/>
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
       <c r="J919" s="1"/>
@@ -26642,7 +26642,7 @@
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
-      <c r="G920" s="10"/>
+      <c r="G920" s="11"/>
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
       <c r="J920" s="1"/>
@@ -26670,7 +26670,7 @@
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
-      <c r="G921" s="10"/>
+      <c r="G921" s="11"/>
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
       <c r="J921" s="1"/>
@@ -26698,7 +26698,7 @@
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
-      <c r="G922" s="10"/>
+      <c r="G922" s="11"/>
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
       <c r="J922" s="1"/>
@@ -26726,7 +26726,7 @@
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
-      <c r="G923" s="10"/>
+      <c r="G923" s="11"/>
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
       <c r="J923" s="1"/>
@@ -26754,7 +26754,7 @@
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
-      <c r="G924" s="10"/>
+      <c r="G924" s="11"/>
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
       <c r="J924" s="1"/>
@@ -26782,7 +26782,7 @@
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
-      <c r="G925" s="10"/>
+      <c r="G925" s="11"/>
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
       <c r="J925" s="1"/>
@@ -26810,7 +26810,7 @@
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
-      <c r="G926" s="10"/>
+      <c r="G926" s="11"/>
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
       <c r="J926" s="1"/>
@@ -26838,7 +26838,7 @@
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
-      <c r="G927" s="10"/>
+      <c r="G927" s="11"/>
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
       <c r="J927" s="1"/>
@@ -26866,7 +26866,7 @@
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
-      <c r="G928" s="10"/>
+      <c r="G928" s="11"/>
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
       <c r="J928" s="1"/>
@@ -26894,7 +26894,7 @@
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
-      <c r="G929" s="10"/>
+      <c r="G929" s="11"/>
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
       <c r="J929" s="1"/>
@@ -26922,7 +26922,7 @@
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
-      <c r="G930" s="10"/>
+      <c r="G930" s="11"/>
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
       <c r="J930" s="1"/>
@@ -26950,7 +26950,7 @@
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
-      <c r="G931" s="10"/>
+      <c r="G931" s="11"/>
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
       <c r="J931" s="1"/>
@@ -26978,7 +26978,7 @@
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
-      <c r="G932" s="10"/>
+      <c r="G932" s="11"/>
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
       <c r="J932" s="1"/>
@@ -27006,7 +27006,7 @@
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
-      <c r="G933" s="10"/>
+      <c r="G933" s="11"/>
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
       <c r="J933" s="1"/>
@@ -27034,7 +27034,7 @@
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
-      <c r="G934" s="10"/>
+      <c r="G934" s="11"/>
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
       <c r="J934" s="1"/>
@@ -27062,7 +27062,7 @@
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
-      <c r="G935" s="10"/>
+      <c r="G935" s="11"/>
       <c r="H935" s="1"/>
       <c r="I935" s="1"/>
       <c r="J935" s="1"/>
@@ -27090,7 +27090,7 @@
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
-      <c r="G936" s="10"/>
+      <c r="G936" s="11"/>
       <c r="H936" s="1"/>
       <c r="I936" s="1"/>
       <c r="J936" s="1"/>
@@ -27118,7 +27118,7 @@
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
-      <c r="G937" s="10"/>
+      <c r="G937" s="11"/>
       <c r="H937" s="1"/>
       <c r="I937" s="1"/>
       <c r="J937" s="1"/>
@@ -27146,7 +27146,7 @@
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
-      <c r="G938" s="10"/>
+      <c r="G938" s="11"/>
       <c r="H938" s="1"/>
       <c r="I938" s="1"/>
       <c r="J938" s="1"/>
@@ -27174,7 +27174,7 @@
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
-      <c r="G939" s="10"/>
+      <c r="G939" s="11"/>
       <c r="H939" s="1"/>
       <c r="I939" s="1"/>
       <c r="J939" s="1"/>
@@ -27202,7 +27202,7 @@
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
-      <c r="G940" s="10"/>
+      <c r="G940" s="11"/>
       <c r="H940" s="1"/>
       <c r="I940" s="1"/>
       <c r="J940" s="1"/>
@@ -27230,7 +27230,7 @@
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
-      <c r="G941" s="10"/>
+      <c r="G941" s="11"/>
       <c r="H941" s="1"/>
       <c r="I941" s="1"/>
       <c r="J941" s="1"/>
@@ -27258,7 +27258,7 @@
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
-      <c r="G942" s="10"/>
+      <c r="G942" s="11"/>
       <c r="H942" s="1"/>
       <c r="I942" s="1"/>
       <c r="J942" s="1"/>
@@ -27286,7 +27286,7 @@
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
-      <c r="G943" s="10"/>
+      <c r="G943" s="11"/>
       <c r="H943" s="1"/>
       <c r="I943" s="1"/>
       <c r="J943" s="1"/>
@@ -27314,7 +27314,7 @@
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
-      <c r="G944" s="10"/>
+      <c r="G944" s="11"/>
       <c r="H944" s="1"/>
       <c r="I944" s="1"/>
       <c r="J944" s="1"/>
@@ -27342,7 +27342,7 @@
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
-      <c r="G945" s="10"/>
+      <c r="G945" s="11"/>
       <c r="H945" s="1"/>
       <c r="I945" s="1"/>
       <c r="J945" s="1"/>
@@ -27370,7 +27370,7 @@
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>
-      <c r="G946" s="10"/>
+      <c r="G946" s="11"/>
       <c r="H946" s="1"/>
       <c r="I946" s="1"/>
       <c r="J946" s="1"/>
@@ -27398,7 +27398,7 @@
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
       <c r="F947" s="1"/>
-      <c r="G947" s="10"/>
+      <c r="G947" s="11"/>
       <c r="H947" s="1"/>
       <c r="I947" s="1"/>
       <c r="J947" s="1"/>
@@ -27426,7 +27426,7 @@
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
       <c r="F948" s="1"/>
-      <c r="G948" s="10"/>
+      <c r="G948" s="11"/>
       <c r="H948" s="1"/>
       <c r="I948" s="1"/>
       <c r="J948" s="1"/>
@@ -27454,7 +27454,7 @@
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
       <c r="F949" s="1"/>
-      <c r="G949" s="10"/>
+      <c r="G949" s="11"/>
       <c r="H949" s="1"/>
       <c r="I949" s="1"/>
       <c r="J949" s="1"/>
@@ -27482,7 +27482,7 @@
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
       <c r="F950" s="1"/>
-      <c r="G950" s="10"/>
+      <c r="G950" s="11"/>
       <c r="H950" s="1"/>
       <c r="I950" s="1"/>
       <c r="J950" s="1"/>
@@ -27510,7 +27510,7 @@
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
       <c r="F951" s="1"/>
-      <c r="G951" s="10"/>
+      <c r="G951" s="11"/>
       <c r="H951" s="1"/>
       <c r="I951" s="1"/>
       <c r="J951" s="1"/>
@@ -27538,7 +27538,7 @@
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
       <c r="F952" s="1"/>
-      <c r="G952" s="10"/>
+      <c r="G952" s="11"/>
       <c r="H952" s="1"/>
       <c r="I952" s="1"/>
       <c r="J952" s="1"/>
@@ -27566,7 +27566,7 @@
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
       <c r="F953" s="1"/>
-      <c r="G953" s="10"/>
+      <c r="G953" s="11"/>
       <c r="H953" s="1"/>
       <c r="I953" s="1"/>
       <c r="J953" s="1"/>
@@ -27594,7 +27594,7 @@
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
       <c r="F954" s="1"/>
-      <c r="G954" s="10"/>
+      <c r="G954" s="11"/>
       <c r="H954" s="1"/>
       <c r="I954" s="1"/>
       <c r="J954" s="1"/>
@@ -27622,7 +27622,7 @@
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
       <c r="F955" s="1"/>
-      <c r="G955" s="10"/>
+      <c r="G955" s="11"/>
       <c r="H955" s="1"/>
       <c r="I955" s="1"/>
       <c r="J955" s="1"/>
@@ -27650,7 +27650,7 @@
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
       <c r="F956" s="1"/>
-      <c r="G956" s="10"/>
+      <c r="G956" s="11"/>
       <c r="H956" s="1"/>
       <c r="I956" s="1"/>
       <c r="J956" s="1"/>
@@ -27678,7 +27678,7 @@
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
       <c r="F957" s="1"/>
-      <c r="G957" s="10"/>
+      <c r="G957" s="11"/>
       <c r="H957" s="1"/>
       <c r="I957" s="1"/>
       <c r="J957" s="1"/>
@@ -27706,7 +27706,7 @@
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
       <c r="F958" s="1"/>
-      <c r="G958" s="10"/>
+      <c r="G958" s="11"/>
       <c r="H958" s="1"/>
       <c r="I958" s="1"/>
       <c r="J958" s="1"/>
@@ -27734,7 +27734,7 @@
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
       <c r="F959" s="1"/>
-      <c r="G959" s="10"/>
+      <c r="G959" s="11"/>
       <c r="H959" s="1"/>
       <c r="I959" s="1"/>
       <c r="J959" s="1"/>
@@ -27762,7 +27762,7 @@
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
       <c r="F960" s="1"/>
-      <c r="G960" s="10"/>
+      <c r="G960" s="11"/>
       <c r="H960" s="1"/>
       <c r="I960" s="1"/>
       <c r="J960" s="1"/>
@@ -27790,7 +27790,7 @@
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
       <c r="F961" s="1"/>
-      <c r="G961" s="10"/>
+      <c r="G961" s="11"/>
       <c r="H961" s="1"/>
       <c r="I961" s="1"/>
       <c r="J961" s="1"/>
@@ -27818,7 +27818,7 @@
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
       <c r="F962" s="1"/>
-      <c r="G962" s="10"/>
+      <c r="G962" s="11"/>
       <c r="H962" s="1"/>
       <c r="I962" s="1"/>
       <c r="J962" s="1"/>
@@ -27846,7 +27846,7 @@
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
       <c r="F963" s="1"/>
-      <c r="G963" s="10"/>
+      <c r="G963" s="11"/>
       <c r="H963" s="1"/>
       <c r="I963" s="1"/>
       <c r="J963" s="1"/>
@@ -27874,7 +27874,7 @@
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
       <c r="F964" s="1"/>
-      <c r="G964" s="10"/>
+      <c r="G964" s="11"/>
       <c r="H964" s="1"/>
       <c r="I964" s="1"/>
       <c r="J964" s="1"/>
@@ -27902,7 +27902,7 @@
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
       <c r="F965" s="1"/>
-      <c r="G965" s="10"/>
+      <c r="G965" s="11"/>
       <c r="H965" s="1"/>
       <c r="I965" s="1"/>
       <c r="J965" s="1"/>
@@ -27930,7 +27930,7 @@
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
       <c r="F966" s="1"/>
-      <c r="G966" s="10"/>
+      <c r="G966" s="11"/>
       <c r="H966" s="1"/>
       <c r="I966" s="1"/>
       <c r="J966" s="1"/>
@@ -27958,7 +27958,7 @@
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
       <c r="F967" s="1"/>
-      <c r="G967" s="10"/>
+      <c r="G967" s="11"/>
       <c r="H967" s="1"/>
       <c r="I967" s="1"/>
       <c r="J967" s="1"/>
@@ -27986,7 +27986,7 @@
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
       <c r="F968" s="1"/>
-      <c r="G968" s="10"/>
+      <c r="G968" s="11"/>
       <c r="H968" s="1"/>
       <c r="I968" s="1"/>
       <c r="J968" s="1"/>
@@ -28014,7 +28014,7 @@
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
       <c r="F969" s="1"/>
-      <c r="G969" s="10"/>
+      <c r="G969" s="11"/>
       <c r="H969" s="1"/>
       <c r="I969" s="1"/>
       <c r="J969" s="1"/>
@@ -28042,7 +28042,7 @@
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
       <c r="F970" s="1"/>
-      <c r="G970" s="10"/>
+      <c r="G970" s="11"/>
       <c r="H970" s="1"/>
       <c r="I970" s="1"/>
       <c r="J970" s="1"/>
@@ -28070,7 +28070,7 @@
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
       <c r="F971" s="1"/>
-      <c r="G971" s="10"/>
+      <c r="G971" s="11"/>
       <c r="H971" s="1"/>
       <c r="I971" s="1"/>
       <c r="J971" s="1"/>
@@ -28098,7 +28098,7 @@
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
       <c r="F972" s="1"/>
-      <c r="G972" s="10"/>
+      <c r="G972" s="11"/>
       <c r="H972" s="1"/>
       <c r="I972" s="1"/>
       <c r="J972" s="1"/>
@@ -28126,7 +28126,7 @@
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
       <c r="F973" s="1"/>
-      <c r="G973" s="10"/>
+      <c r="G973" s="11"/>
       <c r="H973" s="1"/>
       <c r="I973" s="1"/>
       <c r="J973" s="1"/>
@@ -28154,7 +28154,7 @@
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
       <c r="F974" s="1"/>
-      <c r="G974" s="10"/>
+      <c r="G974" s="11"/>
       <c r="H974" s="1"/>
       <c r="I974" s="1"/>
       <c r="J974" s="1"/>
@@ -28182,7 +28182,7 @@
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
       <c r="F975" s="1"/>
-      <c r="G975" s="10"/>
+      <c r="G975" s="11"/>
       <c r="H975" s="1"/>
       <c r="I975" s="1"/>
       <c r="J975" s="1"/>
@@ -28210,7 +28210,7 @@
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
       <c r="F976" s="1"/>
-      <c r="G976" s="10"/>
+      <c r="G976" s="11"/>
       <c r="H976" s="1"/>
       <c r="I976" s="1"/>
       <c r="J976" s="1"/>
@@ -28238,7 +28238,7 @@
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
       <c r="F977" s="1"/>
-      <c r="G977" s="10"/>
+      <c r="G977" s="11"/>
       <c r="H977" s="1"/>
       <c r="I977" s="1"/>
       <c r="J977" s="1"/>
@@ -28266,7 +28266,7 @@
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
       <c r="F978" s="1"/>
-      <c r="G978" s="10"/>
+      <c r="G978" s="11"/>
       <c r="H978" s="1"/>
       <c r="I978" s="1"/>
       <c r="J978" s="1"/>
@@ -28294,7 +28294,7 @@
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
       <c r="F979" s="1"/>
-      <c r="G979" s="10"/>
+      <c r="G979" s="11"/>
       <c r="H979" s="1"/>
       <c r="I979" s="1"/>
       <c r="J979" s="1"/>
@@ -28322,7 +28322,7 @@
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
       <c r="F980" s="1"/>
-      <c r="G980" s="10"/>
+      <c r="G980" s="11"/>
       <c r="H980" s="1"/>
       <c r="I980" s="1"/>
       <c r="J980" s="1"/>
@@ -28350,7 +28350,7 @@
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
       <c r="F981" s="1"/>
-      <c r="G981" s="10"/>
+      <c r="G981" s="11"/>
       <c r="H981" s="1"/>
       <c r="I981" s="1"/>
       <c r="J981" s="1"/>
@@ -28378,7 +28378,7 @@
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
       <c r="F982" s="1"/>
-      <c r="G982" s="10"/>
+      <c r="G982" s="11"/>
       <c r="H982" s="1"/>
       <c r="I982" s="1"/>
       <c r="J982" s="1"/>
@@ -28406,7 +28406,7 @@
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
-      <c r="G983" s="10"/>
+      <c r="G983" s="11"/>
       <c r="H983" s="1"/>
       <c r="I983" s="1"/>
       <c r="J983" s="1"/>
@@ -28434,7 +28434,7 @@
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
-      <c r="G984" s="10"/>
+      <c r="G984" s="11"/>
       <c r="H984" s="1"/>
       <c r="I984" s="1"/>
       <c r="J984" s="1"/>
@@ -28462,7 +28462,7 @@
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>
-      <c r="G985" s="10"/>
+      <c r="G985" s="11"/>
       <c r="H985" s="1"/>
       <c r="I985" s="1"/>
       <c r="J985" s="1"/>
@@ -28490,7 +28490,7 @@
       <c r="D986" s="1"/>
       <c r="E986" s="1"/>
       <c r="F986" s="1"/>
-      <c r="G986" s="10"/>
+      <c r="G986" s="11"/>
       <c r="H986" s="1"/>
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
@@ -28518,7 +28518,7 @@
       <c r="D987" s="1"/>
       <c r="E987" s="1"/>
       <c r="F987" s="1"/>
-      <c r="G987" s="10"/>
+      <c r="G987" s="11"/>
       <c r="H987" s="1"/>
       <c r="I987" s="1"/>
       <c r="J987" s="1"/>
@@ -28546,7 +28546,7 @@
       <c r="D988" s="1"/>
       <c r="E988" s="1"/>
       <c r="F988" s="1"/>
-      <c r="G988" s="10"/>
+      <c r="G988" s="11"/>
       <c r="H988" s="1"/>
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
@@ -28574,7 +28574,7 @@
       <c r="D989" s="1"/>
       <c r="E989" s="1"/>
       <c r="F989" s="1"/>
-      <c r="G989" s="10"/>
+      <c r="G989" s="11"/>
       <c r="H989" s="1"/>
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
@@ -28602,7 +28602,7 @@
       <c r="D990" s="1"/>
       <c r="E990" s="1"/>
       <c r="F990" s="1"/>
-      <c r="G990" s="10"/>
+      <c r="G990" s="11"/>
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
@@ -28630,7 +28630,7 @@
       <c r="D991" s="1"/>
       <c r="E991" s="1"/>
       <c r="F991" s="1"/>
-      <c r="G991" s="10"/>
+      <c r="G991" s="11"/>
       <c r="H991" s="1"/>
       <c r="I991" s="1"/>
       <c r="J991" s="1"/>
@@ -28658,7 +28658,7 @@
       <c r="D992" s="1"/>
       <c r="E992" s="1"/>
       <c r="F992" s="1"/>
-      <c r="G992" s="10"/>
+      <c r="G992" s="11"/>
       <c r="H992" s="1"/>
       <c r="I992" s="1"/>
       <c r="J992" s="1"/>
@@ -28686,7 +28686,7 @@
       <c r="D993" s="1"/>
       <c r="E993" s="1"/>
       <c r="F993" s="1"/>
-      <c r="G993" s="10"/>
+      <c r="G993" s="11"/>
       <c r="H993" s="1"/>
       <c r="I993" s="1"/>
       <c r="J993" s="1"/>
@@ -28714,7 +28714,7 @@
       <c r="D994" s="1"/>
       <c r="E994" s="1"/>
       <c r="F994" s="1"/>
-      <c r="G994" s="10"/>
+      <c r="G994" s="11"/>
       <c r="H994" s="1"/>
       <c r="I994" s="1"/>
       <c r="J994" s="1"/>
@@ -28742,7 +28742,7 @@
       <c r="D995" s="1"/>
       <c r="E995" s="1"/>
       <c r="F995" s="1"/>
-      <c r="G995" s="10"/>
+      <c r="G995" s="11"/>
       <c r="H995" s="1"/>
       <c r="I995" s="1"/>
       <c r="J995" s="1"/>
@@ -28770,7 +28770,7 @@
       <c r="D996" s="1"/>
       <c r="E996" s="1"/>
       <c r="F996" s="1"/>
-      <c r="G996" s="10"/>
+      <c r="G996" s="11"/>
       <c r="H996" s="1"/>
       <c r="I996" s="1"/>
       <c r="J996" s="1"/>
@@ -28798,7 +28798,7 @@
       <c r="D997" s="1"/>
       <c r="E997" s="1"/>
       <c r="F997" s="1"/>
-      <c r="G997" s="10"/>
+      <c r="G997" s="11"/>
       <c r="H997" s="1"/>
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
@@ -28826,7 +28826,7 @@
       <c r="D998" s="1"/>
       <c r="E998" s="1"/>
       <c r="F998" s="1"/>
-      <c r="G998" s="10"/>
+      <c r="G998" s="11"/>
       <c r="H998" s="1"/>
       <c r="I998" s="1"/>
       <c r="J998" s="1"/>
@@ -28854,7 +28854,7 @@
       <c r="D999" s="1"/>
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
-      <c r="G999" s="10"/>
+      <c r="G999" s="11"/>
       <c r="H999" s="1"/>
       <c r="I999" s="1"/>
       <c r="J999" s="1"/>
@@ -28882,7 +28882,7 @@
       <c r="D1000" s="1"/>
       <c r="E1000" s="1"/>
       <c r="F1000" s="1"/>
-      <c r="G1000" s="10"/>
+      <c r="G1000" s="11"/>
       <c r="H1000" s="1"/>
       <c r="I1000" s="1"/>
       <c r="J1000" s="1"/>
@@ -28955,46 +28955,46 @@
     <row r="3" ht="12.75" customHeight="1"/>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>25</v>
+      <c r="A5" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>24</v>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>24</v>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>27</v>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>26</v>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>26</v>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>32</v>
+      <c r="A7" s="4" t="s">
+        <v>8</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>33</v>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>33</v>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>
